--- a/016/T2A/T2A.xlsx
+++ b/016/T2A/T2A.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAII\016\T2A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\faculdade\2º Ano\2ºS\LABS\LABSFISICAII\016\T2A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB739A13-A260-43E3-8AD1-0484050B00C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C23393A-D4CC-4FAD-A42C-E13CB5841683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{F9CE1053-71AF-BD45-AF3D-643B6E20E660}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F9CE1053-71AF-BD45-AF3D-643B6E20E660}"/>
   </bookViews>
   <sheets>
     <sheet name="Tubos" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1463,7 +1463,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1793,25 +1793,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>690.95238095238142</c:v>
+                  <c:v>683.60714285714403</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2095.4380952380957</c:v>
+                  <c:v>2092.5000000000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3499.9238095238097</c:v>
+                  <c:v>3501.3928571428578</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4904.4095238095242</c:v>
+                  <c:v>4910.2857142857147</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6308.8952380952387</c:v>
+                  <c:v>6319.1785714285716</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7713.3809523809523</c:v>
+                  <c:v>7728.0714285714284</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9117.8666666666668</c:v>
+                  <c:v>9136.9642857142862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1985,28 +1985,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="0.00E+00">
-                  <c:v>0</c:v>
+                  <c:v>641.21428571428646</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1934.428571428572</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3227.6428571428578</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4520.8571428571431</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5814.0714285714284</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>7107.2857142857147</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>8400.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>9693.7142857142862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2399,34 +2399,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>528.71428571428692</c:v>
+                  <c:v>510.945454545453</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1662.2857142857151</c:v>
+                  <c:v>1652.8242424242412</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2795.8571428571431</c:v>
+                  <c:v>2794.7030303030297</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3929.4285714285716</c:v>
+                  <c:v>3936.5818181818177</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5063</c:v>
+                  <c:v>5078.4606060606056</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6196.5714285714275</c:v>
+                  <c:v>6220.3393939393945</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7330.142857142856</c:v>
+                  <c:v>7362.2181818181825</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8463.7142857142844</c:v>
+                  <c:v>8504.0969696969696</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9597.2857142857119</c:v>
+                  <c:v>9645.9757575757576</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10730.857142857141</c:v>
+                  <c:v>10787.854545454546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3098,43 +3098,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1159.6363636363617</c:v>
+                  <c:v>1162.2087912087904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1929.6060606060589</c:v>
+                  <c:v>1930.8021978021973</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2699.5757575757561</c:v>
+                  <c:v>2699.3956043956041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3469.5454545454536</c:v>
+                  <c:v>3467.9890109890107</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4239.515151515151</c:v>
+                  <c:v>4236.5824175824173</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5009.484848484848</c:v>
+                  <c:v>5005.1758241758243</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5779.454545454546</c:v>
+                  <c:v>5773.7692307692305</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6549.4242424242429</c:v>
+                  <c:v>6542.3626373626375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7319.3939393939399</c:v>
+                  <c:v>7310.9560439560446</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8089.3636363636379</c:v>
+                  <c:v>8079.5494505494507</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8859.3333333333358</c:v>
+                  <c:v>8848.1428571428587</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9629.3030303030318</c:v>
+                  <c:v>9616.7362637362639</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10399.27272727273</c:v>
+                  <c:v>10385.329670329673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3350,46 +3350,46 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>961.72727272727343</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1616.4181818181823</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>2271.1090909090913</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>2925.8</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>3580.4909090909091</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>4235.181818181818</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>4889.8727272727274</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>5544.5636363636359</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>6199.2545454545443</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>6853.9454545454537</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>7508.6363636363631</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>8163.3272727272715</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>8818.0181818181809</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>9472.7090909090912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3484,7 +3484,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3522,7 +3522,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="251844320"/>
@@ -3606,7 +3606,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3644,7 +3644,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="191995296"/>
@@ -3703,7 +3703,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3740,7 +3740,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3754,7 +3754,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4082,7 +4082,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="94214527"/>
@@ -4192,7 +4192,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="103844687"/>
@@ -4245,7 +4245,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4261,7 +4261,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4275,7 +4275,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4424,34 +4424,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-25.285714285713084</c:v>
+                  <c:v>-43.054545454546997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.7142857142848698</c:v>
+                  <c:v>-14.17575757575878</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.857142857143117</c:v>
+                  <c:v>16.703030303029664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.428571428571558</c:v>
+                  <c:v>20.581818181817653</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46</c:v>
+                  <c:v>61.460606060605642</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-28.428571428572468</c:v>
+                  <c:v>-4.6606060606054598</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-18.857142857144026</c:v>
+                  <c:v>13.218181818182529</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-57.285714285715585</c:v>
+                  <c:v>-16.903030303030391</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-82.714285714288053</c:v>
+                  <c:v>-34.024242424242402</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-56.142857142858702</c:v>
+                  <c:v>0.85454545454558684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4510,7 +4510,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-56.142857142858702</c:v>
+                  <c:v>0.85454545454558684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4607,7 +4607,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4645,7 +4645,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="107183471"/>
@@ -4729,7 +4729,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4767,7 +4767,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="126171391"/>
@@ -4823,7 +4823,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4860,7 +4860,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4874,7 +4874,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4908,7 +4908,7 @@
             <c:v>Dados Exp. (5)</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -4916,14 +4916,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="487BD9"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="487BD9"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -4933,14 +4933,14 @@
             <c:idx val="7"/>
             <c:marker>
               <c:symbol val="circle"/>
-              <c:size val="3"/>
+              <c:size val="5"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="002060"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="002060"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -4957,14 +4957,14 @@
             <c:idx val="8"/>
             <c:marker>
               <c:symbol val="circle"/>
-              <c:size val="3"/>
+              <c:size val="5"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="002060"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="002060"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -4977,12 +4977,31 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$Q$55:$Q$64</c:f>
+              <c:f>'1ª Parte (v)'!$Q$55:$Q$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5009,9 +5028,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5069,7 +5085,7 @@
             <c:v>Aj. lin. (5)</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="12700" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -5083,28 +5099,9 @@
           <c:dPt>
             <c:idx val="9"/>
             <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="3"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
+              <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:noFill/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-6787-BB46-9F4A-54C5F49DD2CE}"/>
@@ -5157,34 +5154,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>528.71428571428692</c:v>
+                  <c:v>510.945454545453</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1662.2857142857151</c:v>
+                  <c:v>1652.8242424242412</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2795.8571428571431</c:v>
+                  <c:v>2794.7030303030297</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3929.4285714285716</c:v>
+                  <c:v>3936.5818181818177</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5063</c:v>
+                  <c:v>5078.4606060606056</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6196.5714285714275</c:v>
+                  <c:v>6220.3393939393945</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7330.142857142856</c:v>
+                  <c:v>7362.2181818181825</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8463.7142857142844</c:v>
+                  <c:v>8504.0969696969696</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9597.2857142857119</c:v>
+                  <c:v>9645.9757575757576</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10730.857142857141</c:v>
+                  <c:v>10787.854545454546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5193,65 +5190,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-CCEB-444B-AA96-E9470EA3E0C5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Pto duvidoso</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="002060"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'1ª Parte (v)'!$Q$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'1ª Parte (v)'!$R$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10787</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CCEB-444B-AA96-E9470EA3E0C5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5338,12 +5276,12 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -5376,7 +5314,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="160539967"/>
@@ -5425,20 +5363,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-PT" sz="1000" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>f (Hz) x 10</a:t>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>f (Hz) x 103</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="pt-PT" sz="1000" b="0" i="0" baseline="30000">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>3</a:t>
-                </a:r>
-                <a:endParaRPr lang="pt-PT" sz="1000">
-                  <a:effectLst/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5467,12 +5394,12 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -5505,7 +5432,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="152885967"/>
@@ -5524,26 +5451,24 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.64114043373982421"/>
-          <c:y val="0.586291856145711"/>
-          <c:w val="0.25550791952640789"/>
-          <c:h val="0.24206265340966479"/>
+          <c:x val="0.59779726578593828"/>
+          <c:y val="0.61949483795639182"/>
+          <c:w val="0.30771810768491348"/>
+          <c:h val="0.21109792480302866"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
         </a:solidFill>
         <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="487BD9"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -5552,7 +5477,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5564,7 +5489,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5601,7 +5526,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5615,7 +5540,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5844,7 +5769,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5882,7 +5807,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="172300863"/>
@@ -5966,7 +5891,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6004,7 +5929,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="165096527"/>
@@ -6060,7 +5985,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6097,7 +6022,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6111,7 +6036,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6449,7 +6374,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6487,7 +6412,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="157901183"/>
@@ -6577,7 +6502,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6615,7 +6540,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="157318031"/>
@@ -6674,7 +6599,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6711,7 +6636,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6725,7 +6650,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6954,7 +6879,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6992,7 +6917,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="126125727"/>
@@ -7071,7 +6996,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7109,7 +7034,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="175332815"/>
@@ -7165,7 +7090,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7202,7 +7127,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7216,7 +7141,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7554,7 +7479,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7592,7 +7517,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="450294367"/>
@@ -7682,7 +7607,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7720,7 +7645,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="133161695"/>
@@ -7779,7 +7704,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7816,7 +7741,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7830,7 +7755,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8061,43 +7986,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1159.6363636363617</c:v>
+                  <c:v>1162.2087912087904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1929.6060606060589</c:v>
+                  <c:v>1930.8021978021973</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2699.5757575757561</c:v>
+                  <c:v>2699.3956043956041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3469.5454545454536</c:v>
+                  <c:v>3467.9890109890107</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4239.515151515151</c:v>
+                  <c:v>4236.5824175824173</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5009.484848484848</c:v>
+                  <c:v>5005.1758241758243</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5779.454545454546</c:v>
+                  <c:v>5773.7692307692305</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6549.4242424242429</c:v>
+                  <c:v>6542.3626373626375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7319.3939393939399</c:v>
+                  <c:v>7310.9560439560446</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8089.3636363636379</c:v>
+                  <c:v>8079.5494505494507</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8859.3333333333358</c:v>
+                  <c:v>8848.1428571428587</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9629.3030303030318</c:v>
+                  <c:v>9616.7362637362639</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10399.27272727273</c:v>
+                  <c:v>10385.329670329673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8263,7 +8188,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8301,7 +8226,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="121496975"/>
@@ -8391,7 +8316,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8429,7 +8354,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="569171727"/>
@@ -8488,7 +8413,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8525,7 +8450,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8539,7 +8464,7 @@
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8649,43 +8574,43 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>10.636363636361693</c:v>
+                  <c:v>13.208791208790444</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.39393939394108202</c:v>
+                  <c:v>0.80219780219726999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5757575757561426</c:v>
+                  <c:v>2.3956043956040958</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.4545454545464054</c:v>
+                  <c:v>-8.0109890109893058</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.515151515151047</c:v>
+                  <c:v>20.582417582417293</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-13.515151515151956</c:v>
+                  <c:v>-17.824175824175654</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-33.545454545454049</c:v>
+                  <c:v>-39.230769230769511</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-43.575757575757052</c:v>
+                  <c:v>-50.637362637362457</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52.393939393939945</c:v>
+                  <c:v>43.956043956044596</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.3636363636378519</c:v>
+                  <c:v>-1.4505494505492607</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>104.33333333333576</c:v>
+                  <c:v>93.142857142858702</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-15.696969696968154</c:v>
+                  <c:v>-28.263736263736064</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-14.727272727270247</c:v>
+                  <c:v>-28.670329670327192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8750,13 +8675,13 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>104.33333333333576</c:v>
+                  <c:v>93.142857142858702</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-15.696969696968154</c:v>
+                  <c:v>-28.263736263736064</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-14.727272727270247</c:v>
+                  <c:v>-28.670329670327192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8851,7 +8776,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8889,7 +8814,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="138560175"/>
@@ -8975,7 +8900,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9013,7 +8938,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="183365471"/>
@@ -9070,7 +8995,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9107,7 +9032,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9121,7 +9046,7 @@
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9234,46 +9159,46 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>-2.2727272727265699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.41818181818234734</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>-0.89090909090873538</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>-1.1999999999998181</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>5.4909090909090992</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>-0.81818181818198354</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>11.872727272727388</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>-43.436363636364149</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>50.254545454544314</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>-12.054545454546314</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>-7.3636363636369424</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>8163.3272727272715</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>8818.0181818181809</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>9472.7090909090912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9369,7 +9294,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9407,7 +9332,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="219104575"/>
@@ -9489,7 +9414,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9527,7 +9452,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="206548959"/>
@@ -9583,7 +9508,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9620,7 +9545,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9634,7 +9559,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9809,25 +9734,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.952380952381418</c:v>
+                  <c:v>-4.3928571428559735</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-26.561904761904316</c:v>
+                  <c:v>-29.499999999999091</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.076190476190277</c:v>
+                  <c:v>-1.6071428571422075</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.409523809524217</c:v>
+                  <c:v>50.285714285714675</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.89523809523871</c:v>
+                  <c:v>22.178571428571558</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-29.619047619047706</c:v>
+                  <c:v>-14.928571428571558</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-41.133333333333212</c:v>
+                  <c:v>-22.035714285713766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9911,28 +9836,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.2142857142864614</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7.4285714285720132</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.6428571428577925</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-24.142857142856883</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-23.928571428571558</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>39.285714285714675</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-7.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>9693.7142857142862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10125,34 +10050,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-25.285714285713084</c:v>
+                  <c:v>-43.054545454546997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.7142857142848698</c:v>
+                  <c:v>-14.17575757575878</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.857142857143117</c:v>
+                  <c:v>16.703030303029664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.428571428571558</c:v>
+                  <c:v>20.581818181817653</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46</c:v>
+                  <c:v>61.460606060605642</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-28.428571428572468</c:v>
+                  <c:v>-4.6606060606054598</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-18.857142857144026</c:v>
+                  <c:v>13.218181818182529</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-57.285714285715585</c:v>
+                  <c:v>-16.903030303030391</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-82.714285714288053</c:v>
+                  <c:v>-34.024242424242402</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-56.142857142858702</c:v>
+                  <c:v>0.85454545454558684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10483,43 +10408,43 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>10.636363636361693</c:v>
+                  <c:v>13.208791208790444</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.39393939394108202</c:v>
+                  <c:v>0.80219780219726999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5757575757561426</c:v>
+                  <c:v>2.3956043956040958</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.4545454545464054</c:v>
+                  <c:v>-8.0109890109893058</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.515151515151047</c:v>
+                  <c:v>20.582417582417293</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-13.515151515151956</c:v>
+                  <c:v>-17.824175824175654</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-33.545454545454049</c:v>
+                  <c:v>-39.230769230769511</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-43.575757575757052</c:v>
+                  <c:v>-50.637362637362457</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52.393939393939945</c:v>
+                  <c:v>43.956043956044596</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.3636363636378519</c:v>
+                  <c:v>-1.4505494505492607</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>104.33333333333576</c:v>
+                  <c:v>93.142857142858702</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-15.696969696968154</c:v>
+                  <c:v>-28.263736263736064</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-14.727272727270247</c:v>
+                  <c:v>-28.670329670327192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10617,46 +10542,46 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>-2.2727272727265699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.41818181818234734</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>-0.89090909090873538</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>-1.1999999999998181</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>5.4909090909090992</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>-0.81818181818198354</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>11.872727272727388</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>-43.436363636364149</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>50.254545454544314</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>-12.054545454546314</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>-7.3636363636369424</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>8163.3272727272715</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>8818.0181818181809</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>9472.7090909090912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10751,7 +10676,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10789,7 +10714,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1892812719"/>
@@ -10868,7 +10793,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10906,7 +10831,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="72082752"/>
@@ -10962,7 +10887,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10999,7 +10924,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11013,7 +10938,7 @@
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11043,9 +10968,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Dados Exp. (9)</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -11070,10 +10992,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$Q$120:$Q$133</c:f>
+              <c:f>'1ª Parte (v)'!$Q$120:$Q$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -11106,25 +11028,16 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$R$120:$R$133</c:f>
+              <c:f>'1ª Parte (v)'!$R$120:$R$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>964</c:v>
                 </c:pt>
@@ -11244,46 +11157,46 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>961.72727272727343</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1616.4181818181823</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>2271.1090909090913</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>2925.8</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>3580.4909090909091</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>4235.181818181818</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>4889.8727272727274</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>5544.5636363636359</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>6199.2545454545443</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>6853.9454545454537</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>7508.6363636363631</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>8163.3272727272715</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>8818.0181818181809</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>9472.7090909090912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11378,7 +11291,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11416,7 +11329,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="177046543"/>
@@ -11509,7 +11422,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11547,7 +11460,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="217858511"/>
@@ -11606,7 +11519,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11643,7 +11556,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11657,7 +11570,7 @@
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11867,7 +11780,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11905,7 +11818,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="286022879"/>
@@ -12000,7 +11913,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12038,7 +11951,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="268693263"/>
@@ -12095,7 +12008,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12132,7 +12045,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12146,7 +12059,7 @@
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12231,28 +12144,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>34.53951974415493</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>34.53951974415493</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>34.53951974415493</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>34.53951974415493</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>34.53951974415493</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>34.53951974415493</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>34.53951974415493</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>34.53951974415493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12322,28 +12235,28 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>30.674663368434651</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>30.674663368434651</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>30.674663368434651</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>30.674663368434651</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>30.674663368434651</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>30.674663368434651</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>30.674663368434651</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>30.674663368434651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12624,7 +12537,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12662,7 +12575,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2091082528"/>
@@ -12751,7 +12664,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12789,7 +12702,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2075170304"/>
@@ -12845,7 +12758,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12882,7 +12795,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12897,7 +12810,7 @@
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13361,7 +13274,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13399,7 +13312,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1772465903"/>
@@ -13508,7 +13421,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13546,7 +13459,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1821395775"/>
@@ -13603,7 +13516,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13640,7 +13553,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13655,7 +13568,7 @@
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13879,7 +13792,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13917,7 +13830,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="4894623"/>
@@ -13998,7 +13911,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14036,7 +13949,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311285119"/>
@@ -14092,7 +14005,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14129,7 +14042,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14143,7 +14056,7 @@
 <file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14758,7 +14671,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14796,7 +14709,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="224248799"/>
@@ -14884,7 +14797,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14922,7 +14835,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1706821792"/>
@@ -14978,7 +14891,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -15015,7 +14928,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15030,7 +14943,7 @@
 <file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15249,7 +15162,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15287,7 +15200,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="224647775"/>
@@ -15371,7 +15284,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15409,7 +15322,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1714481808"/>
@@ -15451,7 +15364,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -15488,7 +15401,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15502,7 +15415,7 @@
 <file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15720,7 +15633,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15758,7 +15671,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1709796592"/>
@@ -15842,7 +15755,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15880,7 +15793,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1720482704"/>
@@ -15922,7 +15835,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -15959,7 +15872,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15973,7 +15886,7 @@
 <file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -16176,7 +16089,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16214,7 +16127,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="300437999"/>
@@ -16307,7 +16220,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16345,7 +16258,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="471674991"/>
@@ -16387,7 +16300,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -16424,7 +16337,7 @@
       <a:pPr>
         <a:defRPr sz="1000"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16438,7 +16351,7 @@
 <file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -18093,7 +18006,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -18131,7 +18044,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1914112960"/>
@@ -18211,7 +18124,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -18249,7 +18162,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1809563232"/>
@@ -18305,7 +18218,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -18342,7 +18255,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -18356,7 +18269,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -18386,9 +18299,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Dados Exp (1)</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -18413,10 +18323,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$Q$5:$Q$9</c:f>
+              <c:f>'1ª Parte (v)'!$Q$5:$Q$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -18428,19 +18338,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$R$5:$R$9</c:f>
+              <c:f>'1ª Parte (v)'!$R$5:$R$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1330</c:v>
                 </c:pt>
@@ -18619,7 +18526,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -18657,7 +18564,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="572505039"/>
@@ -18748,7 +18655,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -18786,7 +18693,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="572503407"/>
@@ -18845,7 +18752,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -18882,7 +18789,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -18896,7 +18803,7 @@
 <file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -19129,7 +19036,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -19167,7 +19074,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="119535759"/>
@@ -19265,7 +19172,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -19303,7 +19210,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1913906144"/>
@@ -19345,7 +19252,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -19382,7 +19289,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -19396,7 +19303,7 @@
 <file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -19628,7 +19535,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -19666,7 +19573,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1914277136"/>
@@ -19764,7 +19671,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -19802,7 +19709,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1713902432"/>
@@ -19844,7 +19751,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -19881,7 +19788,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -19895,7 +19802,7 @@
 <file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -20121,7 +20028,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -20159,7 +20066,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="560915295"/>
@@ -20257,7 +20164,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -20295,7 +20202,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1795248112"/>
@@ -20337,7 +20244,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -20374,7 +20281,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -20388,7 +20295,7 @@
 <file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -20614,7 +20521,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -20652,7 +20559,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1803642016"/>
@@ -20750,7 +20657,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -20788,7 +20695,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1915850880"/>
@@ -20830,7 +20737,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -20867,7 +20774,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -20881,7 +20788,7 @@
 <file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -21113,7 +21020,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -21151,7 +21058,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1783030720"/>
@@ -21249,7 +21156,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -21287,7 +21194,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1905257280"/>
@@ -21329,7 +21236,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -21366,7 +21273,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -21380,7 +21287,7 @@
 <file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -21443,10 +21350,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'2ª Parte (v)'!$I$8:$I$43</c:f>
+              <c:f>'2ª Parte (v)'!$I$8:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -21554,16 +21461,34 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2ª Parte (v)'!$J$8:$J$43</c:f>
+              <c:f>'2ª Parte (v)'!$J$8:$J$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -21671,6 +21596,24 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>13343</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13489</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13748</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14089</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14461</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14812</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21700,10 +21643,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'2ª Parte (v)'!$I$8:$I$47</c:f>
+              <c:f>'2ª Parte (v)'!$I$8:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -21823,135 +21766,147 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2ª Parte (v)'!$K$8:$K$47</c:f>
+              <c:f>'2ª Parte (v)'!$K$8:$K$49</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>1361.0420420420446</c:v>
+                  <c:v>1433.3333333333362</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1705.523766623769</c:v>
+                  <c:v>1771.9674796747995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2050.0054912054939</c:v>
+                  <c:v>2110.6016260162628</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2394.4872157872178</c:v>
+                  <c:v>2449.2357723577261</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2738.9689403689426</c:v>
+                  <c:v>2787.8699186991894</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3083.450664950667</c:v>
+                  <c:v>3126.5040650406527</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3427.9323895323914</c:v>
+                  <c:v>3465.138211382116</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3772.4141141141158</c:v>
+                  <c:v>3803.7723577235793</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4116.8958386958402</c:v>
+                  <c:v>4142.4065040650421</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4461.3775632775651</c:v>
+                  <c:v>4481.0406504065058</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4805.859287859289</c:v>
+                  <c:v>4819.6747967479696</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5150.3410124410138</c:v>
+                  <c:v>5158.3089430894324</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5494.8227370227378</c:v>
+                  <c:v>5496.9430894308953</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5839.3044616044626</c:v>
+                  <c:v>5835.577235772359</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6183.7861861861866</c:v>
+                  <c:v>6174.2113821138228</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6528.2679107679114</c:v>
+                  <c:v>6512.8455284552856</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6872.7496353496363</c:v>
+                  <c:v>6851.4796747967484</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7217.2313599313602</c:v>
+                  <c:v>7190.1138211382122</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7561.7130845130851</c:v>
+                  <c:v>7528.7479674796759</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7906.194809094809</c:v>
+                  <c:v>7867.3821138211388</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8250.6765336765347</c:v>
+                  <c:v>8206.0162601626016</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8595.1582582582578</c:v>
+                  <c:v>8544.6504065040644</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8939.6399828399826</c:v>
+                  <c:v>8883.2845528455291</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9284.1217074217075</c:v>
+                  <c:v>9221.9186991869919</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9628.6034320034323</c:v>
+                  <c:v>9560.5528455284548</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9973.0851565851553</c:v>
+                  <c:v>9899.1869918699176</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10317.56688116688</c:v>
+                  <c:v>10237.821138211382</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10662.048605748605</c:v>
+                  <c:v>10576.455284552845</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11006.53033033033</c:v>
+                  <c:v>10915.089430894308</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11351.012054912053</c:v>
+                  <c:v>11253.723577235773</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11695.493779493778</c:v>
+                  <c:v>11592.357723577235</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12039.975504075503</c:v>
+                  <c:v>11930.991869918698</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12384.457228657227</c:v>
+                  <c:v>12269.626016260161</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>12728.938953238952</c:v>
+                  <c:v>12608.260162601624</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>13073.420677820675</c:v>
+                  <c:v>12946.894308943089</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>13417.9024024024</c:v>
+                  <c:v>13285.528455284551</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>13762.384126984125</c:v>
+                  <c:v>13624.162601626014</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>14106.86585156585</c:v>
+                  <c:v>13962.796747967479</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>14451.347576147573</c:v>
+                  <c:v>14301.430894308942</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>14795.829300729298</c:v>
+                  <c:v>14640.065040650405</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14978.699186991867</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15317.33333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22164,7 +22119,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2126821455"/>
@@ -22273,7 +22228,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2126809391"/>
@@ -22333,7 +22288,7 @@
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -22375,7 +22330,7 @@
           <a:latin typeface="Calibri"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -22389,7 +22344,7 @@
 <file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -22563,121 +22518,121 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>1.0420420420446135</c:v>
+                  <c:v>73.333333333336213</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5237666237690064</c:v>
+                  <c:v>68.967479674799506</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0054912054938541</c:v>
+                  <c:v>62.601626016262799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4872157872177922</c:v>
+                  <c:v>57.235772357726091</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9689403689426399</c:v>
+                  <c:v>52.869918699189384</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4506649506670328</c:v>
+                  <c:v>49.504065040652677</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.932389532391426</c:v>
+                  <c:v>53.138211382115969</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-16.585885885884181</c:v>
+                  <c:v>14.772357723579262</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-24.104161304159788</c:v>
+                  <c:v>1.4065040650420997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.3775632775650593</c:v>
+                  <c:v>25.040650406505847</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-4.1407121407110026</c:v>
+                  <c:v>9.6747967479695944</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27.341012441013845</c:v>
+                  <c:v>35.308943089432432</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.8227370227377833</c:v>
+                  <c:v>6.9430894308952702</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.3044616044626309</c:v>
+                  <c:v>-0.42276422764098243</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7861861861865691</c:v>
+                  <c:v>-6.7886178861772351</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.2679107679114168</c:v>
+                  <c:v>-12.154471544714397</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-6.2503646503637356</c:v>
+                  <c:v>-27.520325203251559</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6.7686400686397974</c:v>
+                  <c:v>-33.886178861787812</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-11.28691548691495</c:v>
+                  <c:v>-44.252032520324065</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-4.8051909051910116</c:v>
+                  <c:v>-43.617886178861227</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-2.3234663234652544</c:v>
+                  <c:v>-46.983739837398389</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-6.8417417417422257</c:v>
+                  <c:v>-57.349593495935551</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.360017160017378</c:v>
+                  <c:v>-57.715447154470894</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.87829257829253038</c:v>
+                  <c:v>-63.081300813008056</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.60343200343231729</c:v>
+                  <c:v>-67.447154471545218</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-2.914843414844654</c:v>
+                  <c:v>-76.81300813008238</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.43311883311980637</c:v>
+                  <c:v>-80.178861788617724</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-6.9513942513949587</c:v>
+                  <c:v>-92.544715447154886</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.46966966967011103</c:v>
+                  <c:v>-91.910569105692048</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-9.9879450879470824</c:v>
+                  <c:v>-107.27642276422739</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-4.5062205062222347</c:v>
+                  <c:v>-107.64227642276455</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-6.024495924497387</c:v>
+                  <c:v>-115.00813008130172</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-10.542771342772539</c:v>
+                  <c:v>-125.37398373983888</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-10.061046761047692</c:v>
+                  <c:v>-130.73983739837604</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-19.579322179324663</c:v>
+                  <c:v>-146.10569105691138</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>74.902402402400185</c:v>
+                  <c:v>-57.471544715448545</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>273.38412698412503</c:v>
+                  <c:v>135.16260162601429</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>358.86585156584988</c:v>
+                  <c:v>214.79674796747895</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>362.34757614757291</c:v>
+                  <c:v>212.43089430894179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22732,16 +22687,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>273.38412698412503</c:v>
+                  <c:v>135.16260162601429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>358.86585156584988</c:v>
+                  <c:v>214.79674796747895</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>362.34757614757291</c:v>
+                  <c:v>212.43089430894179</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>334.82930072929776</c:v>
+                  <c:v>179.06504065040463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22863,7 +22818,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2126822703"/>
@@ -22969,7 +22924,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2126814383"/>
@@ -23029,7 +22984,7 @@
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -23071,7 +23026,7 @@
           <a:latin typeface="Calibri"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -23085,7 +23040,7 @@
 <file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -23190,7 +23145,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-PT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -23423,7 +23378,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -23461,7 +23416,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="473963088"/>
@@ -23549,7 +23504,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -23587,7 +23542,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="454289392"/>
@@ -23643,7 +23598,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -23680,7 +23635,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -23694,7 +23649,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -23887,7 +23842,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -23925,7 +23880,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="471461023"/>
@@ -24004,7 +23959,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -24042,7 +23997,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="572378335"/>
@@ -24063,8 +24018,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73557403644429165"/>
-          <c:y val="9.0555706927198887E-2"/>
+          <c:x val="0.22525505606358309"/>
+          <c:y val="0.14380022796651254"/>
           <c:w val="0.19485992411311023"/>
           <c:h val="0.1007225865255589"/>
         </c:manualLayout>
@@ -24098,7 +24053,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -24135,7 +24090,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -24149,7 +24104,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -24326,25 +24281,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>690.95238095238142</c:v>
+                  <c:v>683.60714285714403</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2095.4380952380957</c:v>
+                  <c:v>2092.5000000000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3499.9238095238097</c:v>
+                  <c:v>3501.3928571428578</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4904.4095238095242</c:v>
+                  <c:v>4910.2857142857147</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6308.8952380952387</c:v>
+                  <c:v>6319.1785714285716</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7713.3809523809523</c:v>
+                  <c:v>7728.0714285714284</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9117.8666666666668</c:v>
+                  <c:v>9136.9642857142862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24498,7 +24453,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -24536,7 +24491,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="560198847"/>
@@ -24627,7 +24582,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -24665,7 +24620,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="542588959"/>
@@ -24724,7 +24679,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -24761,7 +24716,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -24775,7 +24730,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -24867,25 +24822,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.952380952381418</c:v>
+                  <c:v>-4.3928571428559735</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-26.561904761904316</c:v>
+                  <c:v>-29.499999999999091</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.076190476190277</c:v>
+                  <c:v>-1.6071428571422075</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.409523809524217</c:v>
+                  <c:v>50.285714285714675</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.89523809523871</c:v>
+                  <c:v>22.178571428571558</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-29.619047619047706</c:v>
+                  <c:v>-14.928571428571558</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-41.133333333333212</c:v>
+                  <c:v>-22.035714285713766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24944,7 +24899,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-41.133333333333212</c:v>
+                  <c:v>-22.035714285713766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25040,7 +24995,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -25078,7 +25033,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="93018479"/>
@@ -25160,7 +25115,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -25198,7 +25153,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="475376911"/>
@@ -25254,7 +25209,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -25291,7 +25246,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -25305,7 +25260,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -25335,9 +25290,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Dados Exp (3)</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -25362,10 +25314,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$Q$27:$Q$34</c:f>
+              <c:f>'1ª Parte (v)'!$Q$27:$Q$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -25386,19 +25338,16 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$R$27:$R$34</c:f>
+              <c:f>'1ª Parte (v)'!$R$27:$R$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>637</c:v>
                 </c:pt>
@@ -25433,9 +25382,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Aj lin (3)</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="12700" cap="rnd">
               <a:solidFill>
@@ -25450,10 +25396,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$Q$27:$Q$34</c:f>
+              <c:f>'1ª Parte (v)'!$Q$27:$Q$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -25474,42 +25420,36 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$S$27:$S$34</c:f>
+              <c:f>'1ª Parte (v)'!$S$27:$S$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="0.00E+00">
-                  <c:v>0</c:v>
+                  <c:v>641.21428571428646</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1934.428571428572</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3227.6428571428578</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4520.8571428571431</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5814.0714285714284</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>7107.2857142857147</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>8400.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25518,64 +25458,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-606E-BD44-82E8-F9BF83E418EC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Pto duvidoso</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'1ª Parte (v)'!$Q$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'1ª Parte (v)'!$R$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8CC7-E444-928A-2921095CE826}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -25662,7 +25544,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -25700,7 +25582,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="94214527"/>
@@ -25711,8 +25593,6 @@
         <c:axId val="94214527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="13000"/>
-          <c:min val="2000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -25792,7 +25672,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -25830,13 +25710,12 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="103844687"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1000"/>
         <c:dispUnits>
           <c:builtInUnit val="thousands"/>
         </c:dispUnits>
@@ -25890,7 +25769,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -25927,7 +25806,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -25941,7 +25820,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -25971,9 +25850,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Res. de f - 3</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -25998,10 +25874,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$Q$27:$Q$34</c:f>
+              <c:f>'1ª Parte (v)'!$Q$27:$Q$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -26022,42 +25898,36 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$T$27:$T$34</c:f>
+              <c:f>'1ª Parte (v)'!$T$27:$T$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.2142857142864614</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7.4285714285720132</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.6428571428577925</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-24.142857142856883</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-23.928571428571558</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>39.285714285714675</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26066,65 +25936,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EA33-F647-849D-FC60F743FD3F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Pto duvidoso</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'1ª Parte (v)'!$Q$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'1ª Parte (v)'!$T$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F940-A741-B68D-B7A5CBF5D0F6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -26211,7 +26022,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -26249,7 +26060,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="116125887"/>
@@ -26328,7 +26139,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -26366,7 +26177,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="111486271"/>
@@ -26422,7 +26233,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -26459,7 +26270,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -26473,7 +26284,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -26690,7 +26501,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -26728,7 +26539,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="118567983"/>
@@ -26807,7 +26618,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -26845,7 +26656,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="77115151"/>
@@ -26901,7 +26712,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -26938,7 +26749,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -46278,15 +46089,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
+      <xdr:colOff>78684</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>28285</xdr:rowOff>
+      <xdr:rowOff>61416</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
+      <xdr:colOff>459684</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>57728</xdr:rowOff>
+      <xdr:rowOff>90859</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -48068,7 +47879,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -48367,12 +48178,12 @@
   <dimension ref="B3:Q12"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="4.296875" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -48909,24 +48720,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2906A8-5049-E942-8831-3A487B26A723}">
   <dimension ref="A2:Y133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="103" zoomScaleNormal="191" workbookViewId="0">
-      <selection activeCell="R63" sqref="R63"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="5" width="10.796875" style="1"/>
-    <col min="6" max="6" width="12.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.796875" style="1"/>
-    <col min="10" max="10" width="12.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="10.796875" style="1"/>
-    <col min="19" max="19" width="15.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.296875" style="1" customWidth="1"/>
-    <col min="21" max="22" width="10.796875" style="1"/>
+    <col min="3" max="5" width="10.75" style="1"/>
+    <col min="6" max="6" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.75" style="1"/>
+    <col min="10" max="10" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="10.75" style="1"/>
+    <col min="19" max="19" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.25" style="1" customWidth="1"/>
+    <col min="21" max="22" width="10.75" style="1"/>
     <col min="23" max="23" width="12.5" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="10.796875" style="1"/>
+    <col min="24" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:25">
@@ -48958,7 +48769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:25" ht="16.2" thickBot="1">
+    <row r="3" spans="2:25" ht="16.5" thickBot="1">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -49000,7 +48811,7 @@
       <c r="S3" s="62"/>
       <c r="T3" s="63"/>
     </row>
-    <row r="4" spans="2:25" ht="16.2" thickBot="1">
+    <row r="4" spans="2:25" ht="16.5" thickBot="1">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -49182,7 +48993,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="16.2">
+    <row r="7" spans="2:25" ht="17.25">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -49432,14 +49243,14 @@
         <v>1.6613247725836112E-6</v>
       </c>
     </row>
-    <row r="13" spans="2:25" ht="16.2" thickBot="1">
+    <row r="13" spans="2:25" ht="16.5" thickBot="1">
       <c r="R13" s="61">
         <v>2</v>
       </c>
       <c r="S13" s="62"/>
       <c r="T13" s="63"/>
     </row>
-    <row r="14" spans="2:25" ht="16.2" thickBot="1">
+    <row r="14" spans="2:25" ht="16.5" thickBot="1">
       <c r="B14" s="2" t="s">
         <v>32</v>
       </c>
@@ -49492,21 +49303,21 @@
       </c>
       <c r="S15" s="2" cm="1">
         <f t="array" ref="S15:S21">$W$15*Q15:Q21+$X$15</f>
-        <v>690.95238095238142</v>
+        <v>683.60714285714403</v>
       </c>
       <c r="T15" s="2">
         <f t="shared" ref="T15:T21" si="6">S15-R15</f>
-        <v>2.952380952381418</v>
+        <v>-4.3928571428559735</v>
       </c>
       <c r="V15" s="50" t="s">
         <v>25</v>
       </c>
       <c r="W15" s="19" cm="1">
-        <f t="array" ref="W15:X19">LINEST(R15:R20,Q15:Q20,1,1)</f>
-        <v>1404.4857142857143</v>
+        <f t="array" ref="W15:X19">LINEST(R15:R21,Q15:Q21,1,1)</f>
+        <v>1408.8928571428569</v>
       </c>
       <c r="X15" s="19">
-        <v>-713.53333333333285</v>
+        <v>-725.28571428571286</v>
       </c>
       <c r="Y15" s="50" t="s">
         <v>26</v>
@@ -49532,26 +49343,26 @@
         <v>2122</v>
       </c>
       <c r="S16" s="2">
-        <v>2095.4380952380957</v>
+        <v>2092.5000000000009</v>
       </c>
       <c r="T16" s="2">
         <f t="shared" si="6"/>
-        <v>-26.561904761904316</v>
+        <v>-29.499999999999091</v>
       </c>
       <c r="V16" s="47" t="s">
         <v>27</v>
       </c>
       <c r="W16" s="17">
-        <v>7.2847244892552112</v>
+        <v>5.7452509225677977</v>
       </c>
       <c r="X16" s="17">
-        <v>28.369925950074514</v>
+        <v>25.693543221309952</v>
       </c>
       <c r="Y16" s="47" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:25" ht="16.2">
+    <row r="17" spans="2:25" ht="17.25">
       <c r="B17" s="2">
         <v>3</v>
       </c>
@@ -49571,20 +49382,20 @@
         <v>3503</v>
       </c>
       <c r="S17" s="2">
-        <v>3499.9238095238097</v>
+        <v>3501.3928571428578</v>
       </c>
       <c r="T17" s="2">
         <f t="shared" si="6"/>
-        <v>-3.076190476190277</v>
+        <v>-1.6071428571422075</v>
       </c>
       <c r="V17" s="47" t="s">
         <v>29</v>
       </c>
       <c r="W17" s="13">
-        <v>0.99989240183378525</v>
+        <v>0.99991686269074875</v>
       </c>
       <c r="X17" s="17">
-        <v>30.474188922368473</v>
+        <v>30.401010321557603</v>
       </c>
       <c r="Y17" s="47" t="s">
         <v>30</v>
@@ -49610,17 +49421,17 @@
         <v>4860</v>
       </c>
       <c r="S18" s="2">
-        <v>4904.4095238095242</v>
+        <v>4910.2857142857147</v>
       </c>
       <c r="T18" s="2">
         <f t="shared" si="6"/>
-        <v>44.409523809524217</v>
+        <v>50.285714285714675</v>
       </c>
       <c r="W18" s="3">
-        <v>37171.354754847569</v>
+        <v>60136.470117703735</v>
       </c>
       <c r="X18" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:25">
@@ -49643,17 +49454,17 @@
         <v>6297</v>
       </c>
       <c r="S19" s="2">
-        <v>6308.8952380952387</v>
+        <v>6319.1785714285716</v>
       </c>
       <c r="T19" s="2">
         <f t="shared" si="6"/>
-        <v>11.89523809523871</v>
+        <v>22.178571428571558</v>
       </c>
       <c r="W19" s="3">
-        <v>34520152.128571428</v>
+        <v>55579414.321428575</v>
       </c>
       <c r="X19" s="3">
-        <v>3714.7047619048217</v>
+        <v>4621.1071428572595</v>
       </c>
     </row>
     <row r="20" spans="2:25">
@@ -49676,18 +49487,18 @@
         <v>7743</v>
       </c>
       <c r="S20" s="2">
-        <v>7713.3809523809523</v>
+        <v>7728.0714285714284</v>
       </c>
       <c r="T20" s="2">
         <f t="shared" si="6"/>
-        <v>-29.619047619047706</v>
+        <v>-14.928571428571558</v>
       </c>
       <c r="W20" s="37" t="s">
         <v>31</v>
       </c>
       <c r="X20" s="36">
         <f>X17*2</f>
-        <v>60.948377844736946</v>
+        <v>60.802020643115206</v>
       </c>
     </row>
     <row r="21" spans="2:25">
@@ -49710,11 +49521,11 @@
         <v>9159</v>
       </c>
       <c r="S21" s="2">
-        <v>9117.8666666666668</v>
+        <v>9136.9642857142862</v>
       </c>
       <c r="T21" s="2">
         <f t="shared" si="6"/>
-        <v>-41.133333333333212</v>
+        <v>-22.035714285713766</v>
       </c>
     </row>
     <row r="22" spans="2:25">
@@ -49748,7 +49559,7 @@
     <row r="24" spans="2:25">
       <c r="C24" s="27"/>
     </row>
-    <row r="25" spans="2:25" ht="16.2" thickBot="1">
+    <row r="25" spans="2:25" ht="16.5" thickBot="1">
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
       <c r="R25" s="61">
@@ -49757,7 +49568,7 @@
       <c r="S25" s="62"/>
       <c r="T25" s="63"/>
     </row>
-    <row r="26" spans="2:25" ht="16.2" thickBot="1">
+    <row r="26" spans="2:25" ht="16.5" thickBot="1">
       <c r="Q26" s="48" t="s">
         <v>21</v>
       </c>
@@ -49784,22 +49595,24 @@
       <c r="R27" s="2">
         <v>637</v>
       </c>
-      <c r="S27" s="9" t="e" cm="1">
+      <c r="S27" s="9" cm="1">
         <f t="array" ref="S27:S35">$W$27*Q27:Q35+$X$27</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T27" s="2" t="e">
+        <v>641.21428571428646</v>
+      </c>
+      <c r="T27" s="2">
         <f>S27-R27</f>
-        <v>#VALUE!</v>
+        <v>4.2142857142864614</v>
       </c>
       <c r="V27" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="W27" s="19" t="e" cm="1">
-        <f t="array" ref="W27">LINEST(R27:R34,Q27:Q34,1,1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X27" s="8"/>
+      <c r="W27" s="19" cm="1">
+        <f t="array" ref="W27:X31">LINEST(R27:R33,Q27:Q33,1,1)</f>
+        <v>1293.2142857142856</v>
+      </c>
+      <c r="X27" s="8">
+        <v>-651.99999999999909</v>
+      </c>
       <c r="Y27" s="50" t="s">
         <v>26</v>
       </c>
@@ -49847,23 +49660,27 @@
       <c r="R28" s="2">
         <v>1927</v>
       </c>
-      <c r="S28" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="T28" s="2" t="e">
+      <c r="S28" s="2">
+        <v>1934.428571428572</v>
+      </c>
+      <c r="T28" s="2">
         <f t="shared" ref="T28:T31" si="8">S28-R28</f>
-        <v>#VALUE!</v>
+        <v>7.4285714285720132</v>
       </c>
       <c r="V28" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="W28" s="17"/>
-      <c r="X28" s="11"/>
+      <c r="W28" s="17">
+        <v>4.5115498038537787</v>
+      </c>
+      <c r="X28" s="11">
+        <v>20.176264090585782</v>
+      </c>
       <c r="Y28" s="47" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:25" ht="16.2">
+    <row r="29" spans="2:25" ht="17.25">
       <c r="B29" s="2">
         <v>1</v>
       </c>
@@ -49895,13 +49712,13 @@
         <f t="shared" ref="I29:I34" si="9">(C29-F29)/C29*100</f>
         <v>92.839417450961392</v>
       </c>
-      <c r="J29" s="9" t="e">
+      <c r="J29" s="9">
         <f>AVERAGE($F$32:$F$37)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K29" s="10" t="e">
+        <v>30.674663368434651</v>
+      </c>
+      <c r="K29" s="10">
         <f>_xlfn.STDEV.S($F$32:$F$37)/SQRT(6)</f>
-        <v>#VALUE!</v>
+        <v>0.31487906507073832</v>
       </c>
       <c r="L29" s="10">
         <f>$C$39</f>
@@ -49911,9 +49728,9 @@
         <f>W5*2*(E3+0.305*I3)</f>
         <v>34.773109612799992</v>
       </c>
-      <c r="N29" s="26" t="e">
+      <c r="N29" s="26">
         <f>$K$39</f>
-        <v>#VALUE!</v>
+        <v>34.53951974415493</v>
       </c>
       <c r="O29" s="26"/>
       <c r="P29" s="26"/>
@@ -49923,18 +49740,22 @@
       <c r="R29" s="2">
         <v>3223</v>
       </c>
-      <c r="S29" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="T29" s="2" t="e">
+      <c r="S29" s="2">
+        <v>3227.6428571428578</v>
+      </c>
+      <c r="T29" s="2">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+        <v>4.6428571428577925</v>
       </c>
       <c r="V29" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="W29" s="14"/>
-      <c r="X29" s="11"/>
+      <c r="W29" s="14">
+        <v>0.99993915090798113</v>
+      </c>
+      <c r="X29" s="11">
+        <v>23.872877616958668</v>
+      </c>
       <c r="Y29" s="47" t="s">
         <v>30</v>
       </c>
@@ -49957,27 +49778,27 @@
       </c>
       <c r="F30" s="9">
         <f>W15*2*(E4+Δy!$AH$28)</f>
-        <v>29.072255617651177</v>
+        <v>29.163481596230472</v>
       </c>
       <c r="G30" s="5">
         <f>SQRT((2*(Δy!AH28+E4))^2*W16^2+(2*W15)^2*F4^2+4*Δy!AH29^2*W15^2)</f>
-        <v>6.8064539533031825</v>
+        <v>6.827172063064312</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" ref="H30:H37" si="12">G30/F30*100</f>
-        <v>23.412197673339989</v>
+        <v>23.410003502279917</v>
       </c>
       <c r="I30" s="17">
         <f t="shared" si="9"/>
-        <v>91.238495618547617</v>
-      </c>
-      <c r="J30" s="9" t="e">
+        <v>91.21100284944373</v>
+      </c>
+      <c r="J30" s="9">
         <f>AVERAGE($F$32:$F$37)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K30" s="10" t="e">
+        <v>30.674663368434651</v>
+      </c>
+      <c r="K30" s="10">
         <f t="shared" ref="K30:K37" si="13">_xlfn.STDEV.S($F$32:$F$37)/SQRT(6)</f>
-        <v>#VALUE!</v>
+        <v>0.31487906507073832</v>
       </c>
       <c r="L30" s="10">
         <f t="shared" ref="L30:L37" si="14">$C$39</f>
@@ -49985,15 +49806,15 @@
       </c>
       <c r="M30" s="9">
         <f>W15*2*(E4+0.305*I4)</f>
-        <v>34.802543644228564</v>
-      </c>
-      <c r="N30" s="26" t="e">
+        <v>34.911750722714274</v>
+      </c>
+      <c r="N30" s="26">
         <f t="shared" ref="N30:N37" si="15">$K$39</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O30" s="26" t="e">
+        <v>34.53951974415493</v>
+      </c>
+      <c r="O30" s="26">
         <f>_xlfn.STDEV.S($M$32:$M$37)/SQRT(6)</f>
-        <v>#VALUE!</v>
+        <v>9.2445722064989175E-2</v>
       </c>
       <c r="P30" s="26">
         <f>$C$54</f>
@@ -50005,15 +49826,19 @@
       <c r="R30" s="2">
         <v>4545</v>
       </c>
-      <c r="S30" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="T30" s="2" t="e">
+      <c r="S30" s="2">
+        <v>4520.8571428571431</v>
+      </c>
+      <c r="T30" s="2">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
+        <v>-24.142857142856883</v>
+      </c>
+      <c r="W30" s="3">
+        <v>82165.494811249737</v>
+      </c>
+      <c r="X30" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="2:25">
       <c r="B31" s="2">
@@ -50031,45 +49856,45 @@
         <f t="shared" si="11"/>
         <v>1.8293636895018894E-2</v>
       </c>
-      <c r="F31" s="9" t="e">
+      <c r="F31" s="9">
         <f>W27*2*(E5+Δy!$AH$28)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G31" s="5" t="e">
+        <v>29.205400190432272</v>
+      </c>
+      <c r="G31" s="5">
         <f>SQRT((2*(Δy!AH28+E5))^2*W28^2+(2*W27)^2*F5^2+4*Δy!AH29^2*W27^2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H31" s="7" t="e">
+        <v>6.2664930364701563</v>
+      </c>
+      <c r="H31" s="7">
         <f>G31/F31*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I31" s="7" t="e">
+        <v>21.456624444828076</v>
+      </c>
+      <c r="I31" s="7">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J31" s="9" t="e">
+        <v>91.198369844574984</v>
+      </c>
+      <c r="J31" s="9">
         <f t="shared" ref="J31:J37" si="17">AVERAGE($F$32:$F$37)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K31" s="10" t="e">
+        <v>30.674663368434651</v>
+      </c>
+      <c r="K31" s="10">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+        <v>0.31487906507073832</v>
       </c>
       <c r="L31" s="10">
         <f t="shared" si="14"/>
         <v>331.81807999999995</v>
       </c>
-      <c r="M31" s="9" t="e">
+      <c r="M31" s="9">
         <f>W27*2*(E5+0.305*I5)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N31" s="26" t="e">
+        <v>34.484541771428567</v>
+      </c>
+      <c r="N31" s="26">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O31" s="26" t="e">
+        <v>34.53951974415493</v>
+      </c>
+      <c r="O31" s="26">
         <f t="shared" ref="O31:O37" si="18">_xlfn.STDEV.S($M$32:$M$37)/SQRT(6)</f>
-        <v>#VALUE!</v>
+        <v>9.2445722064989175E-2</v>
       </c>
       <c r="P31" s="26">
         <f t="shared" ref="P31:P37" si="19">$C$54</f>
@@ -50081,15 +49906,19 @@
       <c r="R31" s="2">
         <v>5838</v>
       </c>
-      <c r="S31" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="T31" s="2" t="e">
+      <c r="S31" s="2">
+        <v>5814.0714285714284</v>
+      </c>
+      <c r="T31" s="2">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
+        <v>-23.928571428571558</v>
+      </c>
+      <c r="W31" s="3">
+        <v>46827289.285714276</v>
+      </c>
+      <c r="X31" s="3">
+        <v>2849.5714285714307</v>
+      </c>
     </row>
     <row r="32" spans="2:25">
       <c r="B32" s="2">
@@ -50123,13 +49952,13 @@
         <f t="shared" si="9"/>
         <v>91.041741876482959</v>
       </c>
-      <c r="J32" s="9" t="e">
+      <c r="J32" s="9">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K32" s="10" t="e">
+        <v>30.674663368434651</v>
+      </c>
+      <c r="K32" s="10">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+        <v>0.31487906507073832</v>
       </c>
       <c r="L32" s="10">
         <f t="shared" si="14"/>
@@ -50139,13 +49968,13 @@
         <f>W41*2*(E6+0.305*I6)</f>
         <v>34.645933840599994</v>
       </c>
-      <c r="N32" s="26" t="e">
+      <c r="N32" s="26">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O32" s="26" t="e">
+        <v>34.53951974415493</v>
+      </c>
+      <c r="O32" s="26">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
+        <v>9.2445722064989175E-2</v>
       </c>
       <c r="P32" s="26">
         <f t="shared" si="19"/>
@@ -50157,19 +49986,19 @@
       <c r="R32" s="2">
         <v>7068</v>
       </c>
-      <c r="S32" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="T32" s="2" t="e">
+      <c r="S32" s="2">
+        <v>7107.2857142857147</v>
+      </c>
+      <c r="T32" s="2">
         <f>S32-R32</f>
-        <v>#VALUE!</v>
+        <v>39.285714285714675</v>
       </c>
       <c r="W32" s="37" t="s">
         <v>31</v>
       </c>
       <c r="X32" s="36">
         <f>2*X29</f>
-        <v>0</v>
+        <v>47.745755233917336</v>
       </c>
     </row>
     <row r="33" spans="2:25">
@@ -50190,27 +50019,27 @@
       </c>
       <c r="F33" s="9">
         <f>W55*2*(E7+Δy!$AH$28)</f>
-        <v>30.037345953170952</v>
+        <v>30.257474141993544</v>
       </c>
       <c r="G33" s="5">
         <f>SQRT((2*(Δy!AH28+E7))^2*W56^2+(2*W55)^2*F7^2+4*Δy!AH29^2*W55^2)</f>
-        <v>5.4944008609859818</v>
+        <v>5.5334105097503876</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="12"/>
-        <v>18.291898590347841</v>
+        <v>18.287747628182601</v>
       </c>
       <c r="I33" s="16">
         <f t="shared" si="9"/>
-        <v>90.947646387089293</v>
-      </c>
-      <c r="J33" s="9" t="e">
+        <v>90.881306364621977</v>
+      </c>
+      <c r="J33" s="9">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K33" s="10" t="e">
+        <v>30.674663368434651</v>
+      </c>
+      <c r="K33" s="10">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+        <v>0.31487906507073832</v>
       </c>
       <c r="L33" s="10">
         <f t="shared" si="14"/>
@@ -50218,15 +50047,15 @@
       </c>
       <c r="M33" s="9">
         <f>W55*2*(E7+0.305*I7)</f>
-        <v>34.629530249999988</v>
-      </c>
-      <c r="N33" s="26" t="e">
+        <v>34.883312184848499</v>
+      </c>
+      <c r="N33" s="26">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O33" s="26" t="e">
+        <v>34.53951974415493</v>
+      </c>
+      <c r="O33" s="26">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
+        <v>9.2445722064989175E-2</v>
       </c>
       <c r="P33" s="26">
         <f t="shared" si="19"/>
@@ -50238,12 +50067,12 @@
       <c r="R33" s="2">
         <v>8408</v>
       </c>
-      <c r="S33" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="T33" s="2" t="e">
+      <c r="S33" s="2">
+        <v>8400.5</v>
+      </c>
+      <c r="T33" s="2">
         <f>S33-R33</f>
-        <v>#VALUE!</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="34" spans="2:25">
@@ -50278,13 +50107,13 @@
         <f t="shared" si="9"/>
         <v>90.808965031466172</v>
       </c>
-      <c r="J34" s="9" t="e">
+      <c r="J34" s="9">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K34" s="10" t="e">
+        <v>30.674663368434651</v>
+      </c>
+      <c r="K34" s="10">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+        <v>0.31487906507073832</v>
       </c>
       <c r="L34" s="10">
         <f t="shared" si="14"/>
@@ -50294,13 +50123,13 @@
         <f>W70*2*(E8+0.305*I8)</f>
         <v>34.542482784727284</v>
       </c>
-      <c r="N34" s="26" t="e">
+      <c r="N34" s="26">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O34" s="26" t="e">
+        <v>34.53951974415493</v>
+      </c>
+      <c r="O34" s="26">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
+        <v>9.2445722064989175E-2</v>
       </c>
       <c r="P34" s="26">
         <f t="shared" si="19"/>
@@ -50310,12 +50139,12 @@
         <v>8</v>
       </c>
       <c r="R34" s="2"/>
-      <c r="S34" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="T34" s="2" t="e">
+      <c r="S34" s="2">
+        <v>9693.7142857142862</v>
+      </c>
+      <c r="T34" s="2">
         <f>S34-R34</f>
-        <v>#VALUE!</v>
+        <v>9693.7142857142862</v>
       </c>
     </row>
     <row r="35" spans="2:25">
@@ -50350,13 +50179,13 @@
         <f>(-C35+F35)/C35*100</f>
         <v>-90.822849376114362</v>
       </c>
-      <c r="J35" s="9" t="e">
+      <c r="J35" s="9">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K35" s="10" t="e">
+        <v>30.674663368434651</v>
+      </c>
+      <c r="K35" s="10">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+        <v>0.31487906507073832</v>
       </c>
       <c r="L35" s="10">
         <f t="shared" si="14"/>
@@ -50366,13 +50195,13 @@
         <f>W86*2*(E9+0.305*I9)</f>
         <v>34.259092500818177</v>
       </c>
-      <c r="N35" s="26" t="e">
+      <c r="N35" s="26">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O35" s="26" t="e">
+        <v>34.53951974415493</v>
+      </c>
+      <c r="O35" s="26">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
+        <v>9.2445722064989175E-2</v>
       </c>
       <c r="P35" s="26">
         <f t="shared" si="19"/>
@@ -50382,12 +50211,12 @@
         <v>9</v>
       </c>
       <c r="R35" s="2"/>
-      <c r="S35" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="T35" s="2" t="e">
+      <c r="S35" s="2">
+        <v>10986.928571428572</v>
+      </c>
+      <c r="T35" s="2">
         <f>S35-R35</f>
-        <v>#VALUE!</v>
+        <v>10986.928571428572</v>
       </c>
     </row>
     <row r="36" spans="2:25">
@@ -50408,27 +50237,27 @@
       </c>
       <c r="F36" s="9">
         <f>W102*2*(E10+Δy!$AH$28)</f>
-        <v>31.256129663778996</v>
+        <v>31.200260568377384</v>
       </c>
       <c r="G36" s="5">
         <f>SQRT((2*(Δy!AH28+E10))^2*W103^2+(2*W102)^2*F10^2+4*Δy!AH29^2*W102^2)</f>
-        <v>3.733208677122946</v>
+        <v>3.7261998955026066</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="12"/>
-        <v>11.943924974975886</v>
+        <v>11.942848641716946</v>
       </c>
       <c r="I36" s="7">
         <f>(C36-F36)/C36*100</f>
-        <v>90.580341594472785</v>
-      </c>
-      <c r="J36" s="9" t="e">
+        <v>90.597178861267182</v>
+      </c>
+      <c r="J36" s="9">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K36" s="10" t="e">
+        <v>30.674663368434651</v>
+      </c>
+      <c r="K36" s="10">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+        <v>0.31487906507073832</v>
       </c>
       <c r="L36" s="10">
         <f t="shared" si="14"/>
@@ -50436,15 +50265,15 @@
       </c>
       <c r="M36" s="9">
         <f>W102*2*(E10+0.305*I10)</f>
-        <v>34.385574676727288</v>
-      </c>
-      <c r="N36" s="26" t="e">
+        <v>34.324111822153846</v>
+      </c>
+      <c r="N36" s="26">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O36" s="26" t="e">
+        <v>34.53951974415493</v>
+      </c>
+      <c r="O36" s="26">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
+        <v>9.2445722064989175E-2</v>
       </c>
       <c r="P36" s="26">
         <f t="shared" si="19"/>
@@ -50467,45 +50296,45 @@
         <f t="shared" si="11"/>
         <v>1.8293636895018894E-2</v>
       </c>
-      <c r="F37" s="9" t="e">
+      <c r="F37" s="9">
         <f>W120*2*(E11+Δy!$AH$28)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G37" s="5" t="e">
+        <v>31.916164629735825</v>
+      </c>
+      <c r="G37" s="5">
         <f>SQRT((2*(Δy!AH28+E11))^2*W121^2+(2*W120)^2*F11^2+4*Δy!AH29^2*W120^2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H37" s="7" t="e">
+        <v>3.1741741456616359</v>
+      </c>
+      <c r="H37" s="7">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I37" s="7" t="e">
+        <v>9.9453495822123443</v>
+      </c>
+      <c r="I37" s="7">
         <f>(-C37+F37)/C37*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J37" s="9" t="e">
+        <v>-90.381426886161293</v>
+      </c>
+      <c r="J37" s="9">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K37" s="10" t="e">
+        <v>30.674663368434651</v>
+      </c>
+      <c r="K37" s="10">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+        <v>0.31487906507073832</v>
       </c>
       <c r="L37" s="10">
         <f t="shared" si="14"/>
         <v>331.81807999999995</v>
       </c>
-      <c r="M37" s="9" t="e">
+      <c r="M37" s="9">
         <f>W120*2*(E11+0.305*I11)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N37" s="26" t="e">
+        <v>34.582185331781808</v>
+      </c>
+      <c r="N37" s="26">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O37" s="26" t="e">
+        <v>34.53951974415493</v>
+      </c>
+      <c r="O37" s="26">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
+        <v>9.2445722064989175E-2</v>
       </c>
       <c r="P37" s="26">
         <f t="shared" si="19"/>
@@ -50526,7 +50355,7 @@
       <c r="O38" s="26"/>
       <c r="P38" s="26"/>
     </row>
-    <row r="39" spans="2:25" ht="16.2" thickBot="1">
+    <row r="39" spans="2:25" ht="16.5" thickBot="1">
       <c r="B39" s="1" t="s">
         <v>48</v>
       </c>
@@ -50534,9 +50363,9 @@
         <f>AVERAGE(C32:C37)</f>
         <v>331.81807999999995</v>
       </c>
-      <c r="K39" s="26" t="e">
+      <c r="K39" s="26">
         <f>AVERAGE(M32:M37)</f>
-        <v>#VALUE!</v>
+        <v>34.53951974415493</v>
       </c>
       <c r="M39" s="21"/>
       <c r="N39" s="26"/>
@@ -50548,7 +50377,7 @@
       <c r="S39" s="62"/>
       <c r="T39" s="63"/>
     </row>
-    <row r="40" spans="2:25" ht="16.2" thickBot="1">
+    <row r="40" spans="2:25" ht="16.5" thickBot="1">
       <c r="M40" s="21"/>
       <c r="N40" s="26"/>
       <c r="O40" s="26"/>
@@ -50576,7 +50405,7 @@
       <c r="M41" s="21"/>
       <c r="N41" s="26">
         <f>$C$55</f>
-        <v>0.68896344916344887</v>
+        <v>0.67726829268292654</v>
       </c>
       <c r="O41" s="26"/>
       <c r="P41" s="26" t="s">
@@ -50614,7 +50443,7 @@
       <c r="M42" s="21"/>
       <c r="N42" s="26">
         <f t="shared" ref="N42:N47" si="20">$C$55</f>
-        <v>0.68896344916344887</v>
+        <v>0.67726829268292654</v>
       </c>
       <c r="O42" s="26"/>
       <c r="P42" s="26"/>
@@ -50644,7 +50473,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:25" ht="18.600000000000001">
+    <row r="43" spans="2:25" ht="19.5">
       <c r="B43" s="37" t="s">
         <v>49</v>
       </c>
@@ -50655,7 +50484,7 @@
       <c r="M43" s="21"/>
       <c r="N43" s="26">
         <f t="shared" si="20"/>
-        <v>0.68896344916344887</v>
+        <v>0.67726829268292654</v>
       </c>
       <c r="O43" s="26"/>
       <c r="P43" s="26"/>
@@ -50685,7 +50514,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="2:25" ht="18.600000000000001">
+    <row r="44" spans="2:25" ht="19.5">
       <c r="B44" s="37" t="s">
         <v>50</v>
       </c>
@@ -50696,7 +50525,7 @@
       <c r="M44" s="21"/>
       <c r="N44" s="26">
         <f t="shared" si="20"/>
-        <v>0.68896344916344887</v>
+        <v>0.67726829268292654</v>
       </c>
       <c r="O44" s="26"/>
       <c r="P44" s="26"/>
@@ -50722,7 +50551,7 @@
       </c>
       <c r="Y44" s="3"/>
     </row>
-    <row r="45" spans="2:25" ht="18.600000000000001">
+    <row r="45" spans="2:25" ht="19.5">
       <c r="B45" s="37" t="s">
         <v>51</v>
       </c>
@@ -50733,7 +50562,7 @@
       <c r="M45" s="21"/>
       <c r="N45" s="26">
         <f t="shared" si="20"/>
-        <v>0.68896344916344887</v>
+        <v>0.67726829268292654</v>
       </c>
       <c r="O45" s="26"/>
       <c r="P45" s="26"/>
@@ -50765,7 +50594,7 @@
       <c r="M46" s="21"/>
       <c r="N46" s="26">
         <f t="shared" si="20"/>
-        <v>0.68896344916344887</v>
+        <v>0.67726829268292654</v>
       </c>
       <c r="O46" s="26"/>
       <c r="P46" s="26"/>
@@ -50790,18 +50619,18 @@
         <v>35.693447889245455</v>
       </c>
     </row>
-    <row r="47" spans="2:25" ht="18.600000000000001">
+    <row r="47" spans="2:25" ht="19.5">
       <c r="B47" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="40" t="e">
+      <c r="C47" s="40">
         <f>AVERAGE(M32:M37)</f>
-        <v>#VALUE!</v>
+        <v>34.53951974415493</v>
       </c>
       <c r="M47" s="21"/>
       <c r="N47" s="26">
         <f t="shared" si="20"/>
-        <v>0.68896344916344887</v>
+        <v>0.67726829268292654</v>
       </c>
       <c r="O47" s="26"/>
       <c r="P47" s="26"/>
@@ -50819,13 +50648,13 @@
         <v>-10.188888888889778</v>
       </c>
     </row>
-    <row r="48" spans="2:25" ht="18.600000000000001">
+    <row r="48" spans="2:25" ht="19.5">
       <c r="B48" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="40" t="e">
+      <c r="C48" s="40">
         <f>_xlfn.STDEV.S(F32:F37)/SQRT(6)</f>
-        <v>#VALUE!</v>
+        <v>0.31487906507073832</v>
       </c>
       <c r="M48" s="21"/>
       <c r="N48" s="26"/>
@@ -50845,13 +50674,13 @@
         <v>6.1611111111105856</v>
       </c>
     </row>
-    <row r="49" spans="2:25" ht="18.600000000000001">
+    <row r="49" spans="2:25" ht="19.5">
       <c r="B49" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="40" t="e">
+      <c r="C49" s="40">
         <f>C48/C47*100</f>
-        <v>#VALUE!</v>
+        <v>0.91164864886120722</v>
       </c>
       <c r="M49" s="21"/>
       <c r="N49" s="26"/>
@@ -50879,12 +50708,12 @@
       <c r="B51" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="40" t="e">
+      <c r="C51" s="40">
         <f>(C43-C47)/C43*100</f>
-        <v>#VALUE!</v>
+        <v>89.590826472097334</v>
       </c>
     </row>
-    <row r="53" spans="2:25" ht="16.2" thickBot="1">
+    <row r="53" spans="2:25" ht="16.5" thickBot="1">
       <c r="C53" s="2" t="s">
         <v>55</v>
       </c>
@@ -50894,7 +50723,7 @@
       <c r="S53" s="62"/>
       <c r="T53" s="63"/>
     </row>
-    <row r="54" spans="2:25" ht="16.2" thickBot="1">
+    <row r="54" spans="2:25" ht="16.5" thickBot="1">
       <c r="B54" s="1">
         <v>4.5</v>
       </c>
@@ -50924,7 +50753,7 @@
     <row r="55" spans="2:25">
       <c r="C55" s="2">
         <f>'2ª Parte (v)'!C11</f>
-        <v>0.68896344916344887</v>
+        <v>0.67726829268292654</v>
       </c>
       <c r="Q55" s="49">
         <v>1</v>
@@ -50934,21 +50763,21 @@
       </c>
       <c r="S55" s="2" cm="1">
         <f t="array" ref="S55:S64">W55*Q55:Q64+X55</f>
-        <v>528.71428571428692</v>
+        <v>510.945454545453</v>
       </c>
       <c r="T55" s="2">
         <f>S55-R55</f>
-        <v>-25.285714285713084</v>
+        <v>-43.054545454546997</v>
       </c>
       <c r="V55" s="50" t="s">
         <v>25</v>
       </c>
       <c r="W55" s="19" cm="1">
-        <f t="array" ref="W55:X59">LINEST(R55:R61,Q55:Q61,1,1)</f>
-        <v>1133.5714285714282</v>
+        <f t="array" ref="W55:X59">LINEST(R55:R64,Q55:Q64,1,1)</f>
+        <v>1141.8787878787882</v>
       </c>
       <c r="X55" s="12">
-        <v>-604.8571428571413</v>
+        <v>-630.93333333333521</v>
       </c>
       <c r="Y55" s="50" t="s">
         <v>26</v>
@@ -50962,26 +50791,26 @@
         <v>1667</v>
       </c>
       <c r="S56" s="2">
-        <v>1662.2857142857151</v>
+        <v>1652.8242424242412</v>
       </c>
       <c r="T56" s="2">
         <f t="shared" ref="T56:T59" si="22">S56-R56</f>
-        <v>-4.7142857142848698</v>
+        <v>-14.17575757575878</v>
       </c>
       <c r="V56" s="47" t="s">
         <v>27</v>
       </c>
       <c r="W56" s="17">
-        <v>5.6319061912409509</v>
+        <v>3.5194670478914043</v>
       </c>
       <c r="X56" s="11">
-        <v>25.186650173033392</v>
+        <v>21.837718736075598</v>
       </c>
       <c r="Y56" s="47" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="2:25" ht="16.2">
+    <row r="57" spans="2:25" ht="17.25">
       <c r="Q57" s="49">
         <v>3</v>
       </c>
@@ -50989,20 +50818,20 @@
         <v>2778</v>
       </c>
       <c r="S57" s="2">
-        <v>2795.8571428571431</v>
+        <v>2794.7030303030297</v>
       </c>
       <c r="T57" s="2">
         <f t="shared" si="22"/>
-        <v>17.857142857143117</v>
+        <v>16.703030303029664</v>
       </c>
       <c r="V57" s="47" t="s">
         <v>29</v>
       </c>
       <c r="W57" s="13">
-        <v>0.99987659593956646</v>
+        <v>0.99992400749187682</v>
       </c>
       <c r="X57" s="11">
-        <v>29.801246378537062</v>
+        <v>31.967146961348586</v>
       </c>
       <c r="Y57" s="47" t="s">
         <v>30</v>
@@ -51016,18 +50845,18 @@
         <v>3916</v>
       </c>
       <c r="S58" s="2">
-        <v>3929.4285714285716</v>
+        <v>3936.5818181818177</v>
       </c>
       <c r="T58" s="2">
         <f t="shared" si="22"/>
-        <v>13.428571428571558</v>
+        <v>20.581818181817653</v>
       </c>
       <c r="V58" s="3"/>
       <c r="W58" s="3">
-        <v>40512.305366105538</v>
+        <v>105265.53547838301</v>
       </c>
       <c r="X58" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Y58" s="3"/>
     </row>
@@ -51039,18 +50868,18 @@
         <v>5017</v>
       </c>
       <c r="S59" s="2">
-        <v>5063</v>
+        <v>5078.4606060606056</v>
       </c>
       <c r="T59" s="2">
         <f t="shared" si="22"/>
-        <v>46</v>
+        <v>61.460606060605642</v>
       </c>
       <c r="V59" s="3"/>
       <c r="W59" s="3">
-        <v>35979557.142857142</v>
+        <v>107570691.21212122</v>
       </c>
       <c r="X59" s="3">
-        <v>4440.571428571342</v>
+        <v>8175.1878787876658</v>
       </c>
       <c r="Y59" s="3"/>
     </row>
@@ -51062,18 +50891,18 @@
         <v>6225</v>
       </c>
       <c r="S60" s="2">
-        <v>6196.5714285714275</v>
+        <v>6220.3393939393945</v>
       </c>
       <c r="T60" s="2">
         <f>S60-R60</f>
-        <v>-28.428571428572468</v>
+        <v>-4.6606060606054598</v>
       </c>
       <c r="W60" s="37" t="s">
         <v>31</v>
       </c>
       <c r="X60" s="38">
         <f>2*X57</f>
-        <v>59.602492757074124</v>
+        <v>63.934293922697172</v>
       </c>
     </row>
     <row r="61" spans="2:25">
@@ -51084,11 +50913,11 @@
         <v>7349</v>
       </c>
       <c r="S61" s="2">
-        <v>7330.142857142856</v>
+        <v>7362.2181818181825</v>
       </c>
       <c r="T61" s="2">
         <f>S61-R61</f>
-        <v>-18.857142857144026</v>
+        <v>13.218181818182529</v>
       </c>
     </row>
     <row r="62" spans="2:25">
@@ -51099,11 +50928,11 @@
         <v>8521</v>
       </c>
       <c r="S62" s="2">
-        <v>8463.7142857142844</v>
+        <v>8504.0969696969696</v>
       </c>
       <c r="T62" s="2">
         <f>S62-R62</f>
-        <v>-57.285714285715585</v>
+        <v>-16.903030303030391</v>
       </c>
     </row>
     <row r="63" spans="2:25">
@@ -51114,11 +50943,11 @@
         <v>9680</v>
       </c>
       <c r="S63" s="2">
-        <v>9597.2857142857119</v>
+        <v>9645.9757575757576</v>
       </c>
       <c r="T63" s="2">
         <f>S63-R63</f>
-        <v>-82.714285714288053</v>
+        <v>-34.024242424242402</v>
       </c>
     </row>
     <row r="64" spans="2:25">
@@ -51129,21 +50958,21 @@
         <v>10787</v>
       </c>
       <c r="S64" s="2">
-        <v>10730.857142857141</v>
+        <v>10787.854545454546</v>
       </c>
       <c r="T64" s="2">
         <f>S64-R64</f>
-        <v>-56.142857142858702</v>
+        <v>0.85454545454558684</v>
       </c>
     </row>
-    <row r="68" spans="17:25" ht="16.2" thickBot="1">
+    <row r="68" spans="17:25" ht="16.5" thickBot="1">
       <c r="R68" s="61">
         <v>6</v>
       </c>
       <c r="S68" s="62"/>
       <c r="T68" s="63"/>
     </row>
-    <row r="69" spans="17:25" ht="16.2" thickBot="1">
+    <row r="69" spans="17:25" ht="16.5" thickBot="1">
       <c r="Q69" s="48" t="s">
         <v>21</v>
       </c>
@@ -51219,7 +51048,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="17:25" ht="16.2">
+    <row r="72" spans="17:25" ht="17.25">
       <c r="Q72" s="49">
         <v>3</v>
       </c>
@@ -51394,14 +51223,14 @@
       <c r="B81" s="30"/>
       <c r="C81" s="30"/>
     </row>
-    <row r="84" spans="1:25" ht="16.2" thickBot="1">
+    <row r="84" spans="1:25" ht="16.5" thickBot="1">
       <c r="R84" s="61">
         <v>7</v>
       </c>
       <c r="S84" s="62"/>
       <c r="T84" s="63"/>
     </row>
-    <row r="85" spans="1:25" ht="16.95" customHeight="1" thickBot="1">
+    <row r="85" spans="1:25" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="C85" s="29"/>
       <c r="D85" s="30"/>
       <c r="E85" s="30"/>
@@ -51498,7 +51327,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="16.2">
+    <row r="88" spans="1:25" ht="17.25">
       <c r="C88" s="30"/>
       <c r="D88" s="30"/>
       <c r="E88" s="30"/>
@@ -51738,14 +51567,14 @@
         <v>-8.0454545454558684</v>
       </c>
     </row>
-    <row r="100" spans="17:25" ht="16.2" thickBot="1">
+    <row r="100" spans="17:25" ht="16.5" thickBot="1">
       <c r="R100" s="61">
         <v>8</v>
       </c>
       <c r="S100" s="62"/>
       <c r="T100" s="63"/>
     </row>
-    <row r="101" spans="17:25" ht="16.2" thickBot="1">
+    <row r="101" spans="17:25" ht="16.5" thickBot="1">
       <c r="Q101" s="48" t="s">
         <v>21</v>
       </c>
@@ -51774,21 +51603,21 @@
       </c>
       <c r="S102" s="2" cm="1">
         <f t="array" ref="S102:S114">W102*Q102:Q114+X102</f>
-        <v>1159.6363636363617</v>
+        <v>1162.2087912087904</v>
       </c>
       <c r="T102" s="14">
         <f>S102-R102</f>
-        <v>10.636363636361693</v>
+        <v>13.208791208790444</v>
       </c>
       <c r="V102" s="50" t="s">
         <v>25</v>
       </c>
       <c r="W102" s="19" cm="1">
-        <f t="array" ref="W102:X106">LINEST(R102:R111,Q102:Q111,1,1)</f>
-        <v>769.96969696969734</v>
+        <f t="array" ref="W102:X106">LINEST(R102:R114,Q102:Q114,1,1)</f>
+        <v>768.59340659340671</v>
       </c>
       <c r="X102" s="19">
-        <v>389.66666666666424</v>
+        <v>393.61538461538385</v>
       </c>
       <c r="Y102" s="50" t="s">
         <v>26</v>
@@ -51802,26 +51631,26 @@
         <v>1930</v>
       </c>
       <c r="S103" s="2">
-        <v>1929.6060606060589</v>
+        <v>1930.8021978021973</v>
       </c>
       <c r="T103" s="14">
         <f t="shared" ref="T103:T108" si="25">S103-R103</f>
-        <v>-0.39393939394108202</v>
+        <v>0.80219780219726999</v>
       </c>
       <c r="V103" s="47" t="s">
         <v>27</v>
       </c>
       <c r="W103" s="17">
-        <v>3.1947931697705361</v>
+        <v>2.9413361643440585</v>
       </c>
       <c r="X103" s="17">
-        <v>19.823170301646506</v>
+        <v>23.34613203928496</v>
       </c>
       <c r="Y103" s="47" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="17:25" ht="16.2">
+    <row r="104" spans="17:25" ht="17.25">
       <c r="Q104" s="49">
         <v>3</v>
       </c>
@@ -51829,20 +51658,20 @@
         <v>2697</v>
       </c>
       <c r="S104" s="2">
-        <v>2699.5757575757561</v>
+        <v>2699.3956043956041</v>
       </c>
       <c r="T104" s="14">
         <f t="shared" si="25"/>
-        <v>2.5757575757561426</v>
+        <v>2.3956043956040958</v>
       </c>
       <c r="V104" s="47" t="s">
         <v>29</v>
       </c>
       <c r="W104" s="13">
-        <v>0.99986228907241081</v>
+        <v>0.99983892848505551</v>
       </c>
       <c r="X104" s="17">
-        <v>29.018150015172033</v>
+        <v>39.680794278409245</v>
       </c>
       <c r="Y104" s="47" t="s">
         <v>30</v>
@@ -51856,17 +51685,17 @@
         <v>3476</v>
       </c>
       <c r="S105" s="2">
-        <v>3469.5454545454536</v>
+        <v>3467.9890109890107</v>
       </c>
       <c r="T105" s="14">
         <f t="shared" si="25"/>
-        <v>-6.4545454545464054</v>
+        <v>-8.0109890109893058</v>
       </c>
       <c r="W105" s="3">
-        <v>58084.702881665609</v>
+        <v>68281.646305531176</v>
       </c>
       <c r="X105" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="17:25">
@@ -51877,17 +51706,17 @@
         <v>4216</v>
       </c>
       <c r="S106" s="2">
-        <v>4239.515151515151</v>
+        <v>4236.5824175824173</v>
       </c>
       <c r="T106" s="14">
         <f t="shared" si="25"/>
-        <v>23.515151515151047</v>
+        <v>20.582417582417293</v>
       </c>
       <c r="W106" s="3">
-        <v>48910400.075757578</v>
+        <v>107513920.08791208</v>
       </c>
       <c r="X106" s="3">
-        <v>6736.4242424242284</v>
+        <v>17320.219780219795</v>
       </c>
     </row>
     <row r="107" spans="17:25">
@@ -51898,18 +51727,18 @@
         <v>5023</v>
       </c>
       <c r="S107" s="2">
-        <v>5009.484848484848</v>
+        <v>5005.1758241758243</v>
       </c>
       <c r="T107" s="14">
         <f t="shared" si="25"/>
-        <v>-13.515151515151956</v>
+        <v>-17.824175824175654</v>
       </c>
       <c r="W107" s="37" t="s">
         <v>31</v>
       </c>
       <c r="X107" s="36">
         <f>2*X104</f>
-        <v>58.036300030344066</v>
+        <v>79.361588556818489</v>
       </c>
     </row>
     <row r="108" spans="17:25">
@@ -51920,11 +51749,11 @@
         <v>5813</v>
       </c>
       <c r="S108" s="2">
-        <v>5779.454545454546</v>
+        <v>5773.7692307692305</v>
       </c>
       <c r="T108" s="14">
         <f t="shared" si="25"/>
-        <v>-33.545454545454049</v>
+        <v>-39.230769230769511</v>
       </c>
     </row>
     <row r="109" spans="17:25">
@@ -51935,11 +51764,11 @@
         <v>6593</v>
       </c>
       <c r="S109" s="2">
-        <v>6549.4242424242429</v>
+        <v>6542.3626373626375</v>
       </c>
       <c r="T109" s="14">
         <f>S109-R109</f>
-        <v>-43.575757575757052</v>
+        <v>-50.637362637362457</v>
       </c>
     </row>
     <row r="110" spans="17:25">
@@ -51950,11 +51779,11 @@
         <v>7267</v>
       </c>
       <c r="S110" s="2">
-        <v>7319.3939393939399</v>
+        <v>7310.9560439560446</v>
       </c>
       <c r="T110" s="14">
         <f t="shared" ref="T110:T111" si="26">S110-R110</f>
-        <v>52.393939393939945</v>
+        <v>43.956043956044596</v>
       </c>
     </row>
     <row r="111" spans="17:25">
@@ -51965,11 +51794,11 @@
         <v>8081</v>
       </c>
       <c r="S111" s="2">
-        <v>8089.3636363636379</v>
+        <v>8079.5494505494507</v>
       </c>
       <c r="T111" s="14">
         <f t="shared" si="26"/>
-        <v>8.3636363636378519</v>
+        <v>-1.4505494505492607</v>
       </c>
     </row>
     <row r="112" spans="17:25">
@@ -51980,11 +51809,11 @@
         <v>8755</v>
       </c>
       <c r="S112" s="2">
-        <v>8859.3333333333358</v>
+        <v>8848.1428571428587</v>
       </c>
       <c r="T112" s="14">
         <f>S112-R112</f>
-        <v>104.33333333333576</v>
+        <v>93.142857142858702</v>
       </c>
     </row>
     <row r="113" spans="17:25">
@@ -51995,11 +51824,11 @@
         <v>9645</v>
       </c>
       <c r="S113" s="2">
-        <v>9629.3030303030318</v>
+        <v>9616.7362637362639</v>
       </c>
       <c r="T113" s="14">
         <f t="shared" ref="T113" si="27">S113-R113</f>
-        <v>-15.696969696968154</v>
+        <v>-28.263736263736064</v>
       </c>
     </row>
     <row r="114" spans="17:25">
@@ -52010,21 +51839,21 @@
         <v>10414</v>
       </c>
       <c r="S114" s="2">
-        <v>10399.27272727273</v>
+        <v>10385.329670329673</v>
       </c>
       <c r="T114" s="14">
         <f>S114-R114</f>
-        <v>-14.727272727270247</v>
+        <v>-28.670329670327192</v>
       </c>
     </row>
-    <row r="118" spans="17:25" ht="16.2" thickBot="1">
+    <row r="118" spans="17:25" ht="16.5" thickBot="1">
       <c r="R118" s="61">
         <v>9</v>
       </c>
       <c r="S118" s="62"/>
       <c r="T118" s="63"/>
     </row>
-    <row r="119" spans="17:25" ht="16.2" thickBot="1">
+    <row r="119" spans="17:25" ht="16.5" thickBot="1">
       <c r="Q119" s="48" t="s">
         <v>21</v>
       </c>
@@ -52051,22 +51880,24 @@
       <c r="R120" s="2">
         <v>964</v>
       </c>
-      <c r="S120" s="17" t="e" cm="1">
+      <c r="S120" s="17" cm="1">
         <f t="array" ref="S120:S133">W120*Q120:Q133+X120</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T120" s="17" t="e">
+        <v>961.72727272727343</v>
+      </c>
+      <c r="T120" s="17">
         <f>S120-R120</f>
-        <v>#VALUE!</v>
+        <v>-2.2727272727265699</v>
       </c>
       <c r="V120" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="W120" s="18" t="e" cm="1">
-        <f t="array" ref="W120">LINEST(R120:R133,Q120:Q133,1,1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X120" s="19"/>
+      <c r="W120" s="18" cm="1">
+        <f t="array" ref="W120:X124">LINEST(R120:R130,Q120:Q130,1,1)</f>
+        <v>654.69090909090892</v>
+      </c>
+      <c r="X120" s="19">
+        <v>307.03636363636451</v>
+      </c>
       <c r="Y120" s="50" t="s">
         <v>26</v>
       </c>
@@ -52078,41 +51909,49 @@
       <c r="R121" s="2">
         <v>1616</v>
       </c>
-      <c r="S121" s="7" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="T121" s="7" t="e">
+      <c r="S121" s="7">
+        <v>1616.4181818181823</v>
+      </c>
+      <c r="T121" s="7">
         <f t="shared" ref="T121:T133" si="28">S121-R121</f>
-        <v>#VALUE!</v>
+        <v>0.41818181818234734</v>
       </c>
       <c r="V121" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="W121" s="7"/>
-      <c r="X121" s="17"/>
+      <c r="W121" s="7">
+        <v>2.1998914740741937</v>
+      </c>
+      <c r="X121" s="17">
+        <v>14.920389904235048</v>
+      </c>
       <c r="Y121" s="47" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="122" spans="17:25" ht="16.2">
+    <row r="122" spans="17:25" ht="17.25">
       <c r="Q122" s="49">
         <v>3</v>
       </c>
       <c r="R122" s="2">
         <v>2272</v>
       </c>
-      <c r="S122" s="17" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="T122" s="17" t="e">
+      <c r="S122" s="17">
+        <v>2271.1090909090913</v>
+      </c>
+      <c r="T122" s="17">
         <f t="shared" si="28"/>
-        <v>#VALUE!</v>
+        <v>-0.89090909090873538</v>
       </c>
       <c r="V122" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="W122" s="13"/>
-      <c r="X122" s="17"/>
+      <c r="W122" s="13">
+        <v>0.99989839191376206</v>
+      </c>
+      <c r="X122" s="17">
+        <v>23.072656430230918</v>
+      </c>
       <c r="Y122" s="47" t="s">
         <v>30</v>
       </c>
@@ -52124,15 +51963,19 @@
       <c r="R123" s="2">
         <v>2927</v>
       </c>
-      <c r="S123" s="17" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="T123" s="17" t="e">
+      <c r="S123" s="17">
+        <v>2925.8</v>
+      </c>
+      <c r="T123" s="17">
         <f t="shared" si="28"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W123" s="3"/>
-      <c r="X123" s="3"/>
+        <v>-1.1999999999998181</v>
+      </c>
+      <c r="W123" s="3">
+        <v>88566.627523604024</v>
+      </c>
+      <c r="X123" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="124" spans="17:25">
       <c r="Q124" s="49">
@@ -52141,15 +51984,19 @@
       <c r="R124" s="2">
         <v>3575</v>
       </c>
-      <c r="S124" s="17" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="T124" s="17" t="e">
+      <c r="S124" s="17">
+        <v>3580.4909090909091</v>
+      </c>
+      <c r="T124" s="17">
         <f t="shared" si="28"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W124" s="3"/>
-      <c r="X124" s="3"/>
+        <v>5.4909090909090992</v>
+      </c>
+      <c r="W124" s="3">
+        <v>47148220.509090915</v>
+      </c>
+      <c r="X124" s="3">
+        <v>4791.1272727272853</v>
+      </c>
     </row>
     <row r="125" spans="17:25">
       <c r="Q125" s="49">
@@ -52158,19 +52005,19 @@
       <c r="R125" s="2">
         <v>4236</v>
       </c>
-      <c r="S125" s="17" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="T125" s="17" t="e">
+      <c r="S125" s="17">
+        <v>4235.181818181818</v>
+      </c>
+      <c r="T125" s="17">
         <f t="shared" si="28"/>
-        <v>#VALUE!</v>
+        <v>-0.81818181818198354</v>
       </c>
       <c r="W125" s="37" t="s">
         <v>31</v>
       </c>
       <c r="X125" s="36">
         <f>2*X122</f>
-        <v>0</v>
+        <v>46.145312860461836</v>
       </c>
     </row>
     <row r="126" spans="17:25">
@@ -52180,12 +52027,12 @@
       <c r="R126" s="2">
         <v>4878</v>
       </c>
-      <c r="S126" s="17" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="T126" s="17" t="e">
+      <c r="S126" s="17">
+        <v>4889.8727272727274</v>
+      </c>
+      <c r="T126" s="17">
         <f t="shared" si="28"/>
-        <v>#VALUE!</v>
+        <v>11.872727272727388</v>
       </c>
     </row>
     <row r="127" spans="17:25">
@@ -52195,12 +52042,12 @@
       <c r="R127" s="2">
         <v>5588</v>
       </c>
-      <c r="S127" s="17" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="T127" s="17" t="e">
+      <c r="S127" s="17">
+        <v>5544.5636363636359</v>
+      </c>
+      <c r="T127" s="17">
         <f t="shared" si="28"/>
-        <v>#VALUE!</v>
+        <v>-43.436363636364149</v>
       </c>
     </row>
     <row r="128" spans="17:25">
@@ -52210,12 +52057,12 @@
       <c r="R128" s="2">
         <v>6149</v>
       </c>
-      <c r="S128" s="17" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="T128" s="17" t="e">
+      <c r="S128" s="17">
+        <v>6199.2545454545443</v>
+      </c>
+      <c r="T128" s="17">
         <f t="shared" si="28"/>
-        <v>#VALUE!</v>
+        <v>50.254545454544314</v>
       </c>
     </row>
     <row r="129" spans="17:20">
@@ -52225,12 +52072,12 @@
       <c r="R129" s="2">
         <v>6866</v>
       </c>
-      <c r="S129" s="17" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="T129" s="17" t="e">
+      <c r="S129" s="17">
+        <v>6853.9454545454537</v>
+      </c>
+      <c r="T129" s="17">
         <f t="shared" si="28"/>
-        <v>#VALUE!</v>
+        <v>-12.054545454546314</v>
       </c>
     </row>
     <row r="130" spans="17:20">
@@ -52240,12 +52087,12 @@
       <c r="R130" s="2">
         <v>7516</v>
       </c>
-      <c r="S130" s="17" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="T130" s="17" t="e">
+      <c r="S130" s="17">
+        <v>7508.6363636363631</v>
+      </c>
+      <c r="T130" s="17">
         <f t="shared" si="28"/>
-        <v>#VALUE!</v>
+        <v>-7.3636363636369424</v>
       </c>
     </row>
     <row r="131" spans="17:20">
@@ -52253,12 +52100,12 @@
         <v>12</v>
       </c>
       <c r="R131" s="2"/>
-      <c r="S131" s="17" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="T131" s="17" t="e">
+      <c r="S131" s="17">
+        <v>8163.3272727272715</v>
+      </c>
+      <c r="T131" s="17">
         <f t="shared" si="28"/>
-        <v>#VALUE!</v>
+        <v>8163.3272727272715</v>
       </c>
     </row>
     <row r="132" spans="17:20">
@@ -52266,12 +52113,12 @@
         <v>13</v>
       </c>
       <c r="R132" s="2"/>
-      <c r="S132" s="17" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="T132" s="17" t="e">
+      <c r="S132" s="17">
+        <v>8818.0181818181809</v>
+      </c>
+      <c r="T132" s="17">
         <f t="shared" si="28"/>
-        <v>#VALUE!</v>
+        <v>8818.0181818181809</v>
       </c>
     </row>
     <row r="133" spans="17:20">
@@ -52279,16 +52126,21 @@
         <v>14</v>
       </c>
       <c r="R133" s="2"/>
-      <c r="S133" s="17" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="T133" s="17" t="e">
+      <c r="S133" s="17">
+        <v>9472.7090909090912</v>
+      </c>
+      <c r="T133" s="17">
         <f t="shared" si="28"/>
-        <v>#VALUE!</v>
+        <v>9472.7090909090912</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="R100:T100"/>
+    <mergeCell ref="V101:Y101"/>
+    <mergeCell ref="V119:Y119"/>
+    <mergeCell ref="R118:T118"/>
+    <mergeCell ref="V69:Y69"/>
     <mergeCell ref="R68:T68"/>
     <mergeCell ref="R84:T84"/>
     <mergeCell ref="V85:Y85"/>
@@ -52302,11 +52154,6 @@
     <mergeCell ref="R25:T25"/>
     <mergeCell ref="V26:Y26"/>
     <mergeCell ref="R39:T39"/>
-    <mergeCell ref="R100:T100"/>
-    <mergeCell ref="V101:Y101"/>
-    <mergeCell ref="V119:Y119"/>
-    <mergeCell ref="R118:T118"/>
-    <mergeCell ref="V69:Y69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -52317,23 +52164,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2EB435-0004-B043-8C95-CD169F9CCD22}">
   <dimension ref="B1:AO107"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ26" sqref="AJ26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="8" width="10.796875" style="1"/>
-    <col min="9" max="10" width="12.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.296875" style="1" customWidth="1"/>
-    <col min="12" max="13" width="10.796875" style="1"/>
+    <col min="1" max="8" width="10.75" style="1"/>
+    <col min="9" max="10" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.25" style="1" customWidth="1"/>
+    <col min="12" max="13" width="10.75" style="1"/>
     <col min="14" max="14" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.796875" style="1"/>
-    <col min="17" max="17" width="13.69921875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="29" width="10.796875" style="1"/>
-    <col min="30" max="30" width="13.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.796875" style="1"/>
+    <col min="15" max="16" width="10.75" style="1"/>
+    <col min="17" max="17" width="13.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="29" width="10.75" style="1"/>
+    <col min="30" max="30" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:41">
@@ -52489,7 +52336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:41" ht="16.2">
+    <row r="4" spans="2:41" ht="17.25">
       <c r="B4" s="53" t="s">
         <v>21</v>
       </c>
@@ -53017,7 +52864,7 @@
       <c r="M13" s="60"/>
       <c r="N13" s="60"/>
     </row>
-    <row r="14" spans="2:41" ht="16.2">
+    <row r="14" spans="2:41" ht="17.25">
       <c r="F14" s="47" t="s">
         <v>0</v>
       </c>
@@ -53339,7 +53186,7 @@
       <c r="M23" s="60"/>
       <c r="N23" s="60"/>
     </row>
-    <row r="24" spans="2:34" ht="16.2">
+    <row r="24" spans="2:34" ht="17.25">
       <c r="B24" s="54">
         <v>4</v>
       </c>
@@ -53425,7 +53272,7 @@
       </c>
       <c r="S25" s="2"/>
     </row>
-    <row r="26" spans="2:34" ht="18.600000000000001">
+    <row r="26" spans="2:34" ht="19.5">
       <c r="B26" s="54">
         <v>6</v>
       </c>
@@ -53481,7 +53328,7 @@
         <v>3.1394412499999996E-4</v>
       </c>
     </row>
-    <row r="27" spans="2:34" ht="18.600000000000001">
+    <row r="27" spans="2:34" ht="19.5">
       <c r="B27" s="54">
         <v>7</v>
       </c>
@@ -53537,7 +53384,7 @@
         <v>2.9218688701658781E-6</v>
       </c>
     </row>
-    <row r="28" spans="2:34" ht="18.600000000000001">
+    <row r="28" spans="2:34" ht="19.5">
       <c r="B28" s="54">
         <v>8</v>
       </c>
@@ -53654,7 +53501,7 @@
         <v>2.4225158220083365E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:34" ht="18.600000000000001">
+    <row r="30" spans="2:34" ht="19.5">
       <c r="B30" s="54">
         <v>19</v>
       </c>
@@ -53713,7 +53560,7 @@
         <v>-140.92480061689014</v>
       </c>
     </row>
-    <row r="31" spans="2:34" ht="18.600000000000001">
+    <row r="31" spans="2:34" ht="19.5">
       <c r="B31" s="24"/>
       <c r="AC31" s="37" t="s">
         <v>76</v>
@@ -53730,7 +53577,7 @@
         <v>-647.55384485878324</v>
       </c>
     </row>
-    <row r="32" spans="2:34" ht="18.600000000000001">
+    <row r="32" spans="2:34" ht="19.5">
       <c r="AC32" s="37" t="s">
         <v>77</v>
       </c>
@@ -53761,7 +53608,7 @@
         <v>-647.55384485878324</v>
       </c>
     </row>
-    <row r="34" spans="2:30" ht="16.2">
+    <row r="34" spans="2:30" ht="17.25">
       <c r="F34" s="47" t="s">
         <v>0</v>
       </c>
@@ -54097,7 +53944,7 @@
       <c r="M43" s="60"/>
       <c r="N43" s="60"/>
     </row>
-    <row r="44" spans="2:30" ht="16.2">
+    <row r="44" spans="2:30" ht="17.25">
       <c r="B44" s="54">
         <v>6</v>
       </c>
@@ -54427,7 +54274,7 @@
       <c r="M53" s="60"/>
       <c r="N53" s="60"/>
     </row>
-    <row r="54" spans="2:19" ht="16.2">
+    <row r="54" spans="2:19" ht="17.25">
       <c r="F54" s="47" t="s">
         <v>0</v>
       </c>
@@ -54766,7 +54613,7 @@
       <c r="M63" s="60"/>
       <c r="N63" s="60"/>
     </row>
-    <row r="64" spans="2:19" ht="16.2">
+    <row r="64" spans="2:19" ht="17.25">
       <c r="B64" s="54">
         <v>7</v>
       </c>
@@ -55082,7 +54929,7 @@
       <c r="M73" s="60"/>
       <c r="N73" s="60"/>
     </row>
-    <row r="74" spans="2:19" ht="16.2">
+    <row r="74" spans="2:19" ht="17.25">
       <c r="C74" s="52">
         <v>8</v>
       </c>
@@ -55431,7 +55278,7 @@
       <c r="M83" s="60"/>
       <c r="N83" s="60"/>
     </row>
-    <row r="84" spans="2:19" ht="16.2">
+    <row r="84" spans="2:19" ht="17.25">
       <c r="B84" s="54">
         <v>9</v>
       </c>
@@ -55896,20 +55743,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4873D1-7BCE-4848-9EB5-DA2BAAC563F9}">
   <dimension ref="B2:X49"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="1" customWidth="1"/>
-    <col min="3" max="5" width="10.796875" style="1"/>
-    <col min="6" max="6" width="13.296875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.796875" style="1"/>
+    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
+    <col min="3" max="5" width="10.75" style="1"/>
+    <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" ht="18">
       <c r="B2" s="47" t="s">
         <v>84</v>
       </c>
@@ -55981,7 +55828,7 @@
         <v>5.5000000000000005E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="18.600000000000001">
+    <row r="6" spans="2:13" ht="19.5">
       <c r="B6" s="37" t="s">
         <v>49</v>
       </c>
@@ -55990,7 +55837,7 @@
         <v>331.4</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="18.600000000000001">
+    <row r="7" spans="2:13" ht="19.5">
       <c r="B7" s="37" t="s">
         <v>50</v>
       </c>
@@ -56011,7 +55858,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="18.600000000000001">
+    <row r="8" spans="2:13" ht="19.5">
       <c r="B8" s="37" t="s">
         <v>51</v>
       </c>
@@ -56027,11 +55874,11 @@
       </c>
       <c r="K8" s="5">
         <f t="shared" ref="K8:K41" si="0">$V$25*I8+$W$25</f>
-        <v>1361.0420420420446</v>
+        <v>1433.3333333333362</v>
       </c>
       <c r="L8" s="5">
         <f>K8-J8</f>
-        <v>1.0420420420446135</v>
+        <v>73.333333333336213</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -56045,14 +55892,14 @@
       </c>
       <c r="K9" s="5">
         <f t="shared" si="0"/>
-        <v>1705.523766623769</v>
+        <v>1771.9674796747995</v>
       </c>
       <c r="L9" s="5">
         <f>K9-J9</f>
-        <v>2.5237666237690064</v>
+        <v>68.967479674799506</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="17.399999999999999">
+    <row r="10" spans="2:13" ht="18">
       <c r="B10" s="37" t="s">
         <v>93</v>
       </c>
@@ -56068,20 +55915,20 @@
       </c>
       <c r="K10" s="5">
         <f t="shared" si="0"/>
-        <v>2050.0054912054939</v>
+        <v>2110.6016260162628</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" ref="L10:L49" si="1">K10-J10</f>
-        <v>2.0054912054938541</v>
+        <v>62.601626016262799</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="17.399999999999999">
+    <row r="11" spans="2:13" ht="18">
       <c r="B11" s="37" t="s">
         <v>94</v>
       </c>
       <c r="C11" s="40">
         <f>SQRT((2*D3)^2*V26^2+(2*V25)^2*E3^2)</f>
-        <v>0.68896344916344887</v>
+        <v>0.67726829268292654</v>
       </c>
       <c r="I11" s="2">
         <v>4</v>
@@ -56091,11 +55938,11 @@
       </c>
       <c r="K11" s="5">
         <f t="shared" si="0"/>
-        <v>2394.4872157872178</v>
+        <v>2449.2357723577261</v>
       </c>
       <c r="L11" s="5">
         <f t="shared" si="1"/>
-        <v>2.4872157872177922</v>
+        <v>57.235772357726091</v>
       </c>
     </row>
     <row r="12" spans="2:13">
@@ -56114,11 +55961,11 @@
       </c>
       <c r="K12" s="5">
         <f t="shared" si="0"/>
-        <v>2738.9689403689426</v>
+        <v>2787.8699186991894</v>
       </c>
       <c r="L12" s="5">
         <f t="shared" si="1"/>
-        <v>3.9689403689426399</v>
+        <v>52.869918699189384</v>
       </c>
     </row>
     <row r="13" spans="2:13">
@@ -56137,11 +55984,11 @@
       </c>
       <c r="K13" s="5">
         <f t="shared" si="0"/>
-        <v>3083.450664950667</v>
+        <v>3126.5040650406527</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" si="1"/>
-        <v>6.4506649506670328</v>
+        <v>49.504065040652677</v>
       </c>
     </row>
     <row r="14" spans="2:13">
@@ -56153,11 +56000,11 @@
       </c>
       <c r="K14" s="5">
         <f t="shared" si="0"/>
-        <v>3427.9323895323914</v>
+        <v>3465.138211382116</v>
       </c>
       <c r="L14" s="5">
         <f t="shared" si="1"/>
-        <v>15.932389532391426</v>
+        <v>53.138211382115969</v>
       </c>
     </row>
     <row r="15" spans="2:13">
@@ -56169,11 +56016,11 @@
       </c>
       <c r="K15" s="5">
         <f t="shared" si="0"/>
-        <v>3772.4141141141158</v>
+        <v>3803.7723577235793</v>
       </c>
       <c r="L15" s="5">
         <f t="shared" si="1"/>
-        <v>-16.585885885884181</v>
+        <v>14.772357723579262</v>
       </c>
     </row>
     <row r="16" spans="2:13">
@@ -56185,11 +56032,11 @@
       </c>
       <c r="K16" s="5">
         <f t="shared" si="0"/>
-        <v>4116.8958386958402</v>
+        <v>4142.4065040650421</v>
       </c>
       <c r="L16" s="5">
         <f t="shared" si="1"/>
-        <v>-24.104161304159788</v>
+        <v>1.4065040650420997</v>
       </c>
     </row>
     <row r="17" spans="2:24">
@@ -56201,11 +56048,11 @@
       </c>
       <c r="K17" s="5">
         <f t="shared" si="0"/>
-        <v>4461.3775632775651</v>
+        <v>4481.0406504065058</v>
       </c>
       <c r="L17" s="5">
         <f t="shared" si="1"/>
-        <v>5.3775632775650593</v>
+        <v>25.040650406505847</v>
       </c>
     </row>
     <row r="18" spans="2:24">
@@ -56217,11 +56064,11 @@
       </c>
       <c r="K18" s="5">
         <f t="shared" si="0"/>
-        <v>4805.859287859289</v>
+        <v>4819.6747967479696</v>
       </c>
       <c r="L18" s="5">
         <f t="shared" si="1"/>
-        <v>-4.1407121407110026</v>
+        <v>9.6747967479695944</v>
       </c>
     </row>
     <row r="19" spans="2:24">
@@ -56233,11 +56080,11 @@
       </c>
       <c r="K19" s="5">
         <f t="shared" si="0"/>
-        <v>5150.3410124410138</v>
+        <v>5158.3089430894324</v>
       </c>
       <c r="L19" s="5">
         <f t="shared" si="1"/>
-        <v>27.341012441013845</v>
+        <v>35.308943089432432</v>
       </c>
     </row>
     <row r="20" spans="2:24">
@@ -56249,11 +56096,11 @@
       </c>
       <c r="K20" s="5">
         <f t="shared" si="0"/>
-        <v>5494.8227370227378</v>
+        <v>5496.9430894308953</v>
       </c>
       <c r="L20" s="5">
         <f t="shared" si="1"/>
-        <v>4.8227370227377833</v>
+        <v>6.9430894308952702</v>
       </c>
     </row>
     <row r="21" spans="2:24">
@@ -56265,11 +56112,11 @@
       </c>
       <c r="K21" s="5">
         <f t="shared" si="0"/>
-        <v>5839.3044616044626</v>
+        <v>5835.577235772359</v>
       </c>
       <c r="L21" s="5">
         <f t="shared" si="1"/>
-        <v>3.3044616044626309</v>
+        <v>-0.42276422764098243</v>
       </c>
     </row>
     <row r="22" spans="2:24">
@@ -56281,14 +56128,14 @@
       </c>
       <c r="K22" s="5">
         <f t="shared" si="0"/>
-        <v>6183.7861861861866</v>
+        <v>6174.2113821138228</v>
       </c>
       <c r="L22" s="5">
         <f t="shared" si="1"/>
-        <v>2.7861861861865691</v>
+        <v>-6.7886178861772351</v>
       </c>
     </row>
-    <row r="23" spans="2:24" ht="16.2">
+    <row r="23" spans="2:24" ht="18">
       <c r="B23" s="47" t="s">
         <v>84</v>
       </c>
@@ -56312,11 +56159,11 @@
       </c>
       <c r="K23" s="5">
         <f t="shared" si="0"/>
-        <v>6528.2679107679114</v>
+        <v>6512.8455284552856</v>
       </c>
       <c r="L23" s="5">
         <f t="shared" si="1"/>
-        <v>3.2679107679114168</v>
+        <v>-12.154471544714397</v>
       </c>
     </row>
     <row r="24" spans="2:24">
@@ -56338,11 +56185,11 @@
       </c>
       <c r="K24" s="5">
         <f t="shared" si="0"/>
-        <v>6872.7496353496363</v>
+        <v>6851.4796747967484</v>
       </c>
       <c r="L24" s="5">
         <f t="shared" si="1"/>
-        <v>-6.2503646503637356</v>
+        <v>-27.520325203251559</v>
       </c>
     </row>
     <row r="25" spans="2:24">
@@ -56354,21 +56201,21 @@
       </c>
       <c r="K25" s="5">
         <f t="shared" si="0"/>
-        <v>7217.2313599313602</v>
+        <v>7190.1138211382122</v>
       </c>
       <c r="L25" s="5">
         <f t="shared" si="1"/>
-        <v>-6.7686400686397974</v>
+        <v>-33.886178861787812</v>
       </c>
       <c r="U25" s="55" t="s">
         <v>25</v>
       </c>
       <c r="V25" s="5" cm="1">
-        <f t="array" ref="V25:W29">LINEST(J8:J43,I8:I43,1,1)</f>
-        <v>344.48172458172445</v>
+        <f t="array" ref="V25:W29">LINEST(J8:J49,I8:I49,1,1)</f>
+        <v>338.63414634146329</v>
       </c>
       <c r="W25" s="6">
-        <v>1016.5603174603202</v>
+        <v>1094.6991869918729</v>
       </c>
       <c r="X25" s="55" t="s">
         <v>26</v>
@@ -56383,26 +56230,26 @@
       </c>
       <c r="K26" s="5">
         <f t="shared" si="0"/>
-        <v>7561.7130845130851</v>
+        <v>7528.7479674796759</v>
       </c>
       <c r="L26" s="5">
         <f t="shared" si="1"/>
-        <v>-11.28691548691495</v>
+        <v>-44.252032520324065</v>
       </c>
       <c r="U26" s="55" t="s">
         <v>97</v>
       </c>
       <c r="V26" s="5">
-        <v>0.25725044786251522</v>
+        <v>1.2301514138550456</v>
       </c>
       <c r="W26" s="6">
-        <v>5.4581165660521886</v>
+        <v>30.361738507508566</v>
       </c>
       <c r="X26" s="55" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="2:24" ht="16.2">
+    <row r="27" spans="2:24" ht="17.25">
       <c r="I27" s="2">
         <v>20</v>
       </c>
@@ -56411,20 +56258,20 @@
       </c>
       <c r="K27" s="5">
         <f t="shared" si="0"/>
-        <v>7906.194809094809</v>
+        <v>7867.3821138211388</v>
       </c>
       <c r="L27" s="5">
         <f t="shared" si="1"/>
-        <v>-4.8051909051910116</v>
+        <v>-43.617886178861227</v>
       </c>
       <c r="U27" s="55" t="s">
         <v>99</v>
       </c>
       <c r="V27" s="35">
-        <v>0.99998103946496875</v>
+        <v>0.9994724222754644</v>
       </c>
       <c r="W27" s="6">
-        <v>16.034360776639339</v>
+        <v>96.631506080985503</v>
       </c>
       <c r="X27" s="55" t="s">
         <v>31</v>
@@ -56439,17 +56286,17 @@
       </c>
       <c r="K28" s="5">
         <f t="shared" si="0"/>
-        <v>8250.6765336765347</v>
+        <v>8206.0162601626016</v>
       </c>
       <c r="L28" s="5">
         <f t="shared" si="1"/>
-        <v>-2.3234663234652544</v>
+        <v>-46.983739837398389</v>
       </c>
       <c r="V28" s="3">
-        <v>1793164.3429760991</v>
+        <v>75778.212444823002</v>
       </c>
       <c r="W28" s="3">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="2:24">
@@ -56461,17 +56308,17 @@
       </c>
       <c r="K29" s="5">
         <f t="shared" si="0"/>
-        <v>8595.1582582582578</v>
+        <v>8544.6504065040644</v>
       </c>
       <c r="L29" s="5">
         <f t="shared" si="1"/>
-        <v>-6.8417417417422257</v>
+        <v>-57.349593495935551</v>
       </c>
       <c r="V29" s="3">
-        <v>461023853.54755473</v>
+        <v>707590271.41463423</v>
       </c>
       <c r="W29" s="3">
-        <v>8741.424667524625</v>
+        <v>373505.91869918158</v>
       </c>
     </row>
     <row r="30" spans="2:24">
@@ -56483,11 +56330,11 @@
       </c>
       <c r="K30" s="5">
         <f t="shared" si="0"/>
-        <v>8939.6399828399826</v>
+        <v>8883.2845528455291</v>
       </c>
       <c r="L30" s="5">
         <f t="shared" si="1"/>
-        <v>-1.360017160017378</v>
+        <v>-57.715447154470894</v>
       </c>
     </row>
     <row r="31" spans="2:24">
@@ -56499,18 +56346,18 @@
       </c>
       <c r="K31" s="5">
         <f t="shared" si="0"/>
-        <v>9284.1217074217075</v>
+        <v>9221.9186991869919</v>
       </c>
       <c r="L31" s="5">
         <f t="shared" si="1"/>
-        <v>-0.87829257829253038</v>
+        <v>-63.081300813008056</v>
       </c>
       <c r="V31" s="37" t="s">
         <v>31</v>
       </c>
       <c r="W31" s="36">
         <f>2*W27</f>
-        <v>32.068721553278678</v>
+        <v>193.26301216197101</v>
       </c>
     </row>
     <row r="32" spans="2:24">
@@ -56522,11 +56369,11 @@
       </c>
       <c r="K32" s="5">
         <f t="shared" si="0"/>
-        <v>9628.6034320034323</v>
+        <v>9560.5528455284548</v>
       </c>
       <c r="L32" s="5">
         <f t="shared" si="1"/>
-        <v>0.60343200343231729</v>
+        <v>-67.447154471545218</v>
       </c>
     </row>
     <row r="33" spans="9:12">
@@ -56538,11 +56385,11 @@
       </c>
       <c r="K33" s="5">
         <f t="shared" si="0"/>
-        <v>9973.0851565851553</v>
+        <v>9899.1869918699176</v>
       </c>
       <c r="L33" s="5">
         <f t="shared" si="1"/>
-        <v>-2.914843414844654</v>
+        <v>-76.81300813008238</v>
       </c>
     </row>
     <row r="34" spans="9:12">
@@ -56554,11 +56401,11 @@
       </c>
       <c r="K34" s="5">
         <f t="shared" si="0"/>
-        <v>10317.56688116688</v>
+        <v>10237.821138211382</v>
       </c>
       <c r="L34" s="5">
         <f t="shared" si="1"/>
-        <v>-0.43311883311980637</v>
+        <v>-80.178861788617724</v>
       </c>
     </row>
     <row r="35" spans="9:12">
@@ -56570,11 +56417,11 @@
       </c>
       <c r="K35" s="5">
         <f t="shared" si="0"/>
-        <v>10662.048605748605</v>
+        <v>10576.455284552845</v>
       </c>
       <c r="L35" s="5">
         <f t="shared" si="1"/>
-        <v>-6.9513942513949587</v>
+        <v>-92.544715447154886</v>
       </c>
     </row>
     <row r="36" spans="9:12">
@@ -56586,11 +56433,11 @@
       </c>
       <c r="K36" s="5">
         <f t="shared" si="0"/>
-        <v>11006.53033033033</v>
+        <v>10915.089430894308</v>
       </c>
       <c r="L36" s="5">
         <f t="shared" si="1"/>
-        <v>-0.46966966967011103</v>
+        <v>-91.910569105692048</v>
       </c>
     </row>
     <row r="37" spans="9:12">
@@ -56602,11 +56449,11 @@
       </c>
       <c r="K37" s="5">
         <f t="shared" si="0"/>
-        <v>11351.012054912053</v>
+        <v>11253.723577235773</v>
       </c>
       <c r="L37" s="5">
         <f t="shared" si="1"/>
-        <v>-9.9879450879470824</v>
+        <v>-107.27642276422739</v>
       </c>
     </row>
     <row r="38" spans="9:12">
@@ -56618,11 +56465,11 @@
       </c>
       <c r="K38" s="5">
         <f t="shared" si="0"/>
-        <v>11695.493779493778</v>
+        <v>11592.357723577235</v>
       </c>
       <c r="L38" s="5">
         <f t="shared" si="1"/>
-        <v>-4.5062205062222347</v>
+        <v>-107.64227642276455</v>
       </c>
     </row>
     <row r="39" spans="9:12">
@@ -56634,11 +56481,11 @@
       </c>
       <c r="K39" s="5">
         <f t="shared" si="0"/>
-        <v>12039.975504075503</v>
+        <v>11930.991869918698</v>
       </c>
       <c r="L39" s="5">
         <f t="shared" si="1"/>
-        <v>-6.024495924497387</v>
+        <v>-115.00813008130172</v>
       </c>
     </row>
     <row r="40" spans="9:12">
@@ -56650,11 +56497,11 @@
       </c>
       <c r="K40" s="5">
         <f t="shared" si="0"/>
-        <v>12384.457228657227</v>
+        <v>12269.626016260161</v>
       </c>
       <c r="L40" s="5">
         <f t="shared" si="1"/>
-        <v>-10.542771342772539</v>
+        <v>-125.37398373983888</v>
       </c>
     </row>
     <row r="41" spans="9:12">
@@ -56666,11 +56513,11 @@
       </c>
       <c r="K41" s="5">
         <f t="shared" si="0"/>
-        <v>12728.938953238952</v>
+        <v>12608.260162601624</v>
       </c>
       <c r="L41" s="5">
         <f t="shared" si="1"/>
-        <v>-10.061046761047692</v>
+        <v>-130.73983739837604</v>
       </c>
     </row>
     <row r="42" spans="9:12">
@@ -56682,11 +56529,11 @@
       </c>
       <c r="K42" s="5">
         <f>$V$25*I42+$W$25</f>
-        <v>13073.420677820675</v>
+        <v>12946.894308943089</v>
       </c>
       <c r="L42" s="5">
         <f t="shared" si="1"/>
-        <v>-19.579322179324663</v>
+        <v>-146.10569105691138</v>
       </c>
     </row>
     <row r="43" spans="9:12">
@@ -56698,11 +56545,11 @@
       </c>
       <c r="K43" s="5">
         <f>$V$25*I43+$W$25</f>
-        <v>13417.9024024024</v>
+        <v>13285.528455284551</v>
       </c>
       <c r="L43" s="5">
         <f t="shared" si="1"/>
-        <v>74.902402402400185</v>
+        <v>-57.471544715448545</v>
       </c>
     </row>
     <row r="44" spans="9:12">
@@ -56714,11 +56561,11 @@
       </c>
       <c r="K44" s="5">
         <f t="shared" ref="K44:K49" si="2">$V$25*I44+$W$25</f>
-        <v>13762.384126984125</v>
+        <v>13624.162601626014</v>
       </c>
       <c r="L44" s="5">
         <f t="shared" si="1"/>
-        <v>273.38412698412503</v>
+        <v>135.16260162601429</v>
       </c>
     </row>
     <row r="45" spans="9:12">
@@ -56730,11 +56577,11 @@
       </c>
       <c r="K45" s="5">
         <f t="shared" si="2"/>
-        <v>14106.86585156585</v>
+        <v>13962.796747967479</v>
       </c>
       <c r="L45" s="5">
         <f t="shared" si="1"/>
-        <v>358.86585156584988</v>
+        <v>214.79674796747895</v>
       </c>
     </row>
     <row r="46" spans="9:12">
@@ -56746,11 +56593,11 @@
       </c>
       <c r="K46" s="5">
         <f t="shared" si="2"/>
-        <v>14451.347576147573</v>
+        <v>14301.430894308942</v>
       </c>
       <c r="L46" s="5">
         <f t="shared" si="1"/>
-        <v>362.34757614757291</v>
+        <v>212.43089430894179</v>
       </c>
     </row>
     <row r="47" spans="9:12">
@@ -56762,11 +56609,11 @@
       </c>
       <c r="K47" s="58">
         <f t="shared" si="2"/>
-        <v>14795.829300729298</v>
+        <v>14640.065040650405</v>
       </c>
       <c r="L47" s="5">
         <f t="shared" si="1"/>
-        <v>334.82930072929776</v>
+        <v>179.06504065040463</v>
       </c>
     </row>
     <row r="48" spans="9:12">
@@ -56778,11 +56625,11 @@
       </c>
       <c r="K48" s="58">
         <f t="shared" si="2"/>
-        <v>15140.311025311023</v>
+        <v>14978.699186991867</v>
       </c>
       <c r="L48" s="5">
         <f>K48-J48</f>
-        <v>328.3110253110226</v>
+        <v>166.69918699186746</v>
       </c>
     </row>
     <row r="49" spans="9:12">
@@ -56794,11 +56641,11 @@
       </c>
       <c r="K49" s="58">
         <f t="shared" si="2"/>
-        <v>15484.792749892747</v>
+        <v>15317.33333333333</v>
       </c>
       <c r="L49" s="5">
         <f t="shared" si="1"/>
-        <v>340.79274989274745</v>
+        <v>173.3333333333303</v>
       </c>
     </row>
   </sheetData>
@@ -56811,13 +56658,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F300B8D-6736-FF40-9ACF-76D3E9489959}">
   <dimension ref="C3:D24"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="3" spans="3:4">
+    <row r="3" spans="3:4" ht="18">
       <c r="C3" s="47" t="s">
         <v>88</v>
       </c>

--- a/016/T2A/T2A.xlsx
+++ b/016/T2A/T2A.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAII\016\T2A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\faculdade\2º Ano\2ºS\LABS\LABSFISICAII\016\T2A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821F4DF3-2A15-467A-BBBC-045F463EC9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC2B225-3363-4968-8095-318C6F0F4BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="550" activeTab="1" xr2:uid="{F9CE1053-71AF-BD45-AF3D-643B6E20E660}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="550" activeTab="4" xr2:uid="{F9CE1053-71AF-BD45-AF3D-643B6E20E660}"/>
   </bookViews>
   <sheets>
     <sheet name="Tubos" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="2ª Parte (v)" sheetId="2" r:id="rId4"/>
     <sheet name="p(T)" sheetId="5" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="94">
   <si>
     <t>Tubo</t>
   </si>
@@ -844,6 +847,77 @@
   <si>
     <t>v (b)</t>
   </si>
+  <si>
+    <r>
+      <t>4E-06x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + 0,0001x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + 0,0123x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + 0,3219x + 4,5882</t>
+    </r>
+  </si>
+  <si>
+    <t>Todos os Tubos</t>
+  </si>
 </sst>
 </file>
 
@@ -862,7 +936,7 @@
     <numFmt numFmtId="173" formatCode="0.0000000"/>
     <numFmt numFmtId="174" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -959,6 +1033,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (corpo)"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1168,7 +1250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1374,6 +1456,9 @@
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1395,6 +1480,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1405,9 +1493,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1441,7 +1532,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1498,10 +1589,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$S$5:$S$9</c:f>
+              <c:f>'1ª Parte (v)'!$S$5:$S$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1519,10 +1610,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$T$5:$T$9</c:f>
+              <c:f>'1ª Parte (v)'!$T$5:$T$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1330</c:v>
                 </c:pt>
@@ -1565,10 +1656,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$S$5:$S$9</c:f>
+              <c:f>'1ª Parte (v)'!$S$5:$S$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1586,10 +1677,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$U$5:$U$9</c:f>
+              <c:f>'1ª Parte (v)'!$U$5:$U$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0.00E+00">
                   <c:v>1302.8000000000006</c:v>
                 </c:pt>
@@ -1826,10 +1917,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$S$27:$S$34</c:f>
+              <c:f>'1ª Parte (v)'!$S$27:$S$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1856,10 +1947,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$T$27:$T$34</c:f>
+              <c:f>'1ª Parte (v)'!$T$27:$T$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>637</c:v>
                 </c:pt>
@@ -1913,10 +2004,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$S$27:$S$34</c:f>
+              <c:f>'1ª Parte (v)'!$S$27:$S$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1943,10 +2034,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$U$27:$U$34</c:f>
+              <c:f>'1ª Parte (v)'!$U$27:$U$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="0.00E+00">
                   <c:v>641.21428571428646</c:v>
                 </c:pt>
@@ -2432,10 +2523,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$S$70:$S$80</c:f>
+              <c:f>'1ª Parte (v)'!$S$70:$S$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2468,47 +2559,53 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$T$71:$T$81</c:f>
+              <c:f>'1ª Parte (v)'!$T$70:$T$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1443</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2477</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3470</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4438</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5423</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6453</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7292</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8481</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9509</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10446</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>11407</c:v>
                 </c:pt>
               </c:numCache>
@@ -2543,10 +2640,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$S$70:$S$80</c:f>
+              <c:f>'1ª Parte (v)'!$S$70:$S$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2579,16 +2676,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$U$70:$U$80</c:f>
+              <c:f>'1ª Parte (v)'!$U$70:$U$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.0E+00">
                   <c:v>465.96153846153777</c:v>
                 </c:pt>
@@ -2621,6 +2721,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10427.395104895106</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11423.538461538461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2662,10 +2765,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$S$86:$S$95</c:f>
+              <c:f>'1ª Parte (v)'!$S$86:$S$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2695,45 +2798,57 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$T$87:$T$96</c:f>
+              <c:f>'1ª Parte (v)'!$T$86:$T$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1376</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2324</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3269</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4199</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5139</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6066</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>7969</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>8866</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>9771</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2765,10 +2880,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$S$86:$S$95</c:f>
+              <c:f>'1ª Parte (v)'!$S$86:$S$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2798,16 +2913,22 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$U$86:$U$95</c:f>
+              <c:f>'1ª Parte (v)'!$U$86:$U$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>426.53846153846064</c:v>
                 </c:pt>
@@ -2837,6 +2958,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>8876.2482517482531</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9815.1048951048942</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10753.961538461539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2882,10 +3009,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$S$102:$S$114</c:f>
+              <c:f>'1ª Parte (v)'!$S$102:$S$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2924,53 +3051,59 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$T$103:$T$115</c:f>
+              <c:f>'1ª Parte (v)'!$T$102:$T$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1149</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1930</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2697</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3476</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4216</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5023</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>5813</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>6593</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>7267</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>8081</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>8755</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>9645</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>10414</c:v>
                 </c:pt>
               </c:numCache>
@@ -3005,10 +3138,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$S$102:$S$114</c:f>
+              <c:f>'1ª Parte (v)'!$S$102:$S$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3047,16 +3180,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$U$102:$U$114</c:f>
+              <c:f>'1ª Parte (v)'!$U$102:$U$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>361.31428571428569</c:v>
                 </c:pt>
@@ -3095,6 +3231,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>9627.5032967032985</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10399.685714285715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3136,10 +3275,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$S$120:$S$133</c:f>
+              <c:f>'1ª Parte (v)'!$S$120:$S$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3181,42 +3320,45 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1ª Parte (v)'!$T$121:$T$133</c:f>
+              <c:f>'1ª Parte (v)'!$U$120:$U$131</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>964</c:v>
+                  <c:v>307.32051282051111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1616</c:v>
+                  <c:v>961.97435897435753</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2272</c:v>
+                  <c:v>1616.6282051282039</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2927</c:v>
+                  <c:v>2271.2820512820504</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3575</c:v>
+                  <c:v>2925.935897435897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4236</c:v>
+                  <c:v>3580.5897435897432</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4878</c:v>
+                  <c:v>4235.2435897435898</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5588</c:v>
+                  <c:v>4889.8974358974356</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6149</c:v>
+                  <c:v>5544.5512820512831</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6866</c:v>
+                  <c:v>6199.2051282051289</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7516</c:v>
+                  <c:v>6853.8589743589746</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7508.5128205128221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3426,7 +3568,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3464,7 +3606,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="251844320"/>
@@ -3548,7 +3690,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3586,7 +3728,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="191995296"/>
@@ -3645,7 +3787,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3682,7 +3824,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3696,7 +3838,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4023,7 +4165,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="94214527"/>
@@ -4131,7 +4273,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="103844687"/>
@@ -4183,7 +4325,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4199,7 +4341,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4213,7 +4355,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4620,7 +4762,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4658,7 +4800,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="160539967"/>
@@ -4737,7 +4879,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4775,7 +4917,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="152885967"/>
@@ -4832,7 +4974,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4869,7 +5011,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4883,7 +5025,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5112,7 +5254,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5150,7 +5292,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="172300863"/>
@@ -5234,7 +5376,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5272,7 +5414,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="165096527"/>
@@ -5328,7 +5470,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5365,7 +5507,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5379,7 +5521,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5729,7 +5871,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5767,7 +5909,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="157901183"/>
@@ -5857,7 +5999,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5895,7 +6037,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="157318031"/>
@@ -5954,7 +6096,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5991,7 +6133,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6005,7 +6147,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6234,7 +6376,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6272,7 +6414,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="126125727"/>
@@ -6351,7 +6493,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6389,7 +6531,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="175332815"/>
@@ -6445,7 +6587,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6482,7 +6624,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6496,7 +6638,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6846,7 +6988,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6884,7 +7026,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="450294367"/>
@@ -6974,7 +7116,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7012,7 +7154,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="133161695"/>
@@ -7071,7 +7213,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7108,7 +7250,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7122,7 +7264,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7496,7 +7638,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7534,7 +7676,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="121496975"/>
@@ -7624,7 +7766,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7662,7 +7804,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="569171727"/>
@@ -7721,7 +7863,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7758,7 +7900,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7772,7 +7914,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8013,7 +8155,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8051,7 +8193,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="138560175"/>
@@ -8135,7 +8277,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8173,7 +8315,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="183365471"/>
@@ -8229,7 +8371,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8266,7 +8408,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8280,7 +8422,7 @@
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8509,7 +8651,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8547,7 +8689,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="219104575"/>
@@ -8626,7 +8768,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8664,7 +8806,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="206548959"/>
@@ -8720,7 +8862,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8757,7 +8899,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8771,7 +8913,7 @@
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9112,7 +9254,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9150,7 +9292,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="177046543"/>
@@ -9240,7 +9382,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9278,7 +9420,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="217858511"/>
@@ -9337,7 +9479,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9374,7 +9516,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9388,7 +9530,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10481,7 +10623,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10519,7 +10661,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1892812719"/>
@@ -10598,7 +10740,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10636,7 +10778,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="72082752"/>
@@ -10692,7 +10834,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10729,7 +10871,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10743,7 +10885,7 @@
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10966,7 +11108,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11004,7 +11146,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="172300863"/>
@@ -11088,7 +11230,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11126,7 +11268,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="165096527"/>
@@ -11182,7 +11324,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11219,7 +11361,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11233,7 +11375,7 @@
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11452,7 +11594,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11490,7 +11632,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="4894623"/>
@@ -11569,7 +11711,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11607,7 +11749,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311285119"/>
@@ -11663,7 +11805,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11700,7 +11842,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11714,7 +11856,7 @@
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12258,7 +12400,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12296,7 +12438,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="224248799"/>
@@ -12384,7 +12526,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12422,7 +12564,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1706821792"/>
@@ -12478,7 +12620,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12515,7 +12657,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12529,7 +12671,7 @@
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12747,7 +12889,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12785,7 +12927,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="224647775"/>
@@ -12869,7 +13011,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12907,7 +13049,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1714481808"/>
@@ -12963,7 +13105,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13000,7 +13142,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13014,7 +13156,7 @@
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13232,7 +13374,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13270,7 +13412,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1709796592"/>
@@ -13354,7 +13496,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13392,7 +13534,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1720482704"/>
@@ -13448,7 +13590,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13485,7 +13627,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13499,7 +13641,7 @@
 <file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13702,7 +13844,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13740,7 +13882,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="300437999"/>
@@ -13833,7 +13975,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13871,7 +14013,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="471674991"/>
@@ -13917,7 +14059,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13954,7 +14096,7 @@
       <a:pPr>
         <a:defRPr sz="1000"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13968,7 +14110,7 @@
 <file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15635,7 +15777,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15673,7 +15815,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1914112960"/>
@@ -15752,7 +15894,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15790,7 +15932,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1809563232"/>
@@ -15846,7 +15988,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -15883,7 +16025,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15897,7 +16039,7 @@
 <file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -16129,7 +16271,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16167,7 +16309,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="119535759"/>
@@ -16265,7 +16407,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16303,7 +16445,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1913906144"/>
@@ -16345,7 +16487,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -16382,7 +16524,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16396,7 +16538,7 @@
 <file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -16628,7 +16770,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16666,7 +16808,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1914277136"/>
@@ -16764,7 +16906,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16802,7 +16944,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1713902432"/>
@@ -16844,7 +16986,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -16881,7 +17023,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16895,7 +17037,7 @@
 <file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -17121,7 +17263,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -17159,7 +17301,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="560915295"/>
@@ -17257,7 +17399,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -17295,7 +17437,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1795248112"/>
@@ -17337,7 +17479,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -17374,7 +17516,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -17388,7 +17530,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -17639,7 +17781,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -17677,7 +17819,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="572505039"/>
@@ -17767,7 +17909,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -17805,7 +17947,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="572503407"/>
@@ -17864,7 +18006,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -17901,7 +18043,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -17915,7 +18057,7 @@
 <file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -18144,7 +18286,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -18182,7 +18324,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1803642016"/>
@@ -18280,7 +18422,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -18318,7 +18460,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1915850880"/>
@@ -18360,7 +18502,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -18397,7 +18539,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -18411,7 +18553,7 @@
 <file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -18643,7 +18785,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -18681,7 +18823,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1783030720"/>
@@ -18779,7 +18921,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -18817,7 +18959,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1905257280"/>
@@ -18859,7 +19001,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -18896,7 +19038,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -18910,7 +19052,7 @@
 <file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -19676,7 +19818,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2126821455"/>
@@ -19785,7 +19927,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2126809391"/>
@@ -19845,7 +19987,7 @@
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -19887,7 +20029,7 @@
           <a:latin typeface="Calibri"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -19901,7 +20043,7 @@
 <file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -20366,7 +20508,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2126822703"/>
@@ -20472,7 +20614,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2126814383"/>
@@ -20532,7 +20674,7 @@
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -20574,7 +20716,7 @@
           <a:latin typeface="Calibri"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -20588,7 +20730,7 @@
 <file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -20971,7 +21113,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2126822703"/>
@@ -21077,7 +21219,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2126814383"/>
@@ -21137,7 +21279,7 @@
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -21179,7 +21321,7 @@
           <a:latin typeface="Calibri"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -21193,7 +21335,7 @@
 <file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -21204,17 +21346,47 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13815048118985127"/>
-          <c:y val="5.0925925925925923E-2"/>
-          <c:w val="0.77133114610673681"/>
-          <c:h val="0.79442913385826774"/>
+          <c:x val="6.6580927384076991E-2"/>
+          <c:y val="0.16708333333333336"/>
+          <c:w val="0.89019685039370078"/>
+          <c:h val="0.72088764946048411"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -21224,7 +21396,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>P (T)</c:v>
+            <c:strRef>
+              <c:f>'[1]p(T)'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pH2O (mmHg)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -21235,7 +21415,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -21263,21 +21443,11 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.161020725885169"/>
-                  <c:y val="0.14601316007264031"/>
-                </c:manualLayout>
-              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
+                <a:noFill/>
                 <a:ln>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
+                  <a:noFill/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -21298,153 +21468,144 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-PT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="21"/>
-              <c:pt idx="0">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>15</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>20</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>25</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>30</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>35</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>40</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>45</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>50</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>55</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>60</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>65</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>70</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>75</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>80</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>85</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>90</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>95</c:v>
-              </c:pt>
-              <c:pt idx="20">
-                <c:v>100</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'p(T)'!$C$4:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="21"/>
-              <c:pt idx="0">
-                <c:v>4.5004</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>6.7506000000000004</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>9.0007999999999999</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>12.751099999999999</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>17.2515</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>24.001999999999999</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>32.252699999999997</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>42.003599999999999</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>57.754899999999999</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>72.006100000000004</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>93.757999999999996</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>117.76</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>150.01</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>187.52</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>240.77</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>289.52</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>356.28</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>433.54</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>525.04</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>633.79999999999995</c:v>
-              </c:pt>
-              <c:pt idx="20">
-                <c:v>760.04</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'p(T)'!$D$4:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>4.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.84</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.39</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.77</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.83</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36.69</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42.18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48.37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-06DF-0B45-977C-0A4F1154FBBA}"/>
+              <c16:uniqueId val="{00000001-3DDC-4B0B-BFA5-1868E55D88A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -21456,11 +21617,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="454289392"/>
-        <c:axId val="473963088"/>
+        <c:axId val="1617804751"/>
+        <c:axId val="1617804335"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="454289392"/>
+        <c:axId val="1617804751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21480,63 +21641,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-PT"/>
-                  <a:t>T (°C)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -21569,15 +21675,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473963088"/>
+        <c:crossAx val="1617804335"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="473963088"/>
+        <c:axId val="1617804335"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21597,72 +21703,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-PT"/>
-                  <a:t>p</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="pt-PT" baseline="-25000"/>
-                  <a:t>H2O</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="pt-PT" baseline="0"/>
-                  <a:t> (mmHg)</a:t>
-                </a:r>
-                <a:endParaRPr lang="pt-PT"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -21695,10 +21737,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454289392"/>
+        <c:crossAx val="1617804751"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21710,51 +21752,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14257112704086017"/>
-          <c:y val="5.7462639019659201E-2"/>
-          <c:w val="0.27672497739596269"/>
-          <c:h val="0.1576986768672331"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -21788,7 +21785,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -21802,7 +21799,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -21986,7 +21983,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -22024,7 +22021,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="471461023"/>
@@ -22103,7 +22100,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -22141,7 +22138,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="572378335"/>
@@ -22197,7 +22194,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -22234,7 +22231,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -22248,7 +22245,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -22569,7 +22566,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -22607,7 +22604,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="560198847"/>
@@ -22697,7 +22694,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -22735,7 +22732,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="542588959"/>
@@ -22794,7 +22791,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -22831,7 +22828,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -22845,7 +22842,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -23081,7 +23078,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -23119,7 +23116,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="93018479"/>
@@ -23198,7 +23195,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -23236,7 +23233,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="475376911"/>
@@ -23282,7 +23279,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -23319,7 +23316,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -23333,7 +23330,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -23623,7 +23620,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -23661,7 +23658,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="94214527"/>
@@ -23751,7 +23748,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -23789,7 +23786,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="103844687"/>
@@ -23848,7 +23845,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -23885,7 +23882,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -23899,7 +23896,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -24101,7 +24098,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -24139,7 +24136,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="116125887"/>
@@ -24218,7 +24215,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -24256,7 +24253,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="111486271"/>
@@ -24312,7 +24309,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -24349,7 +24346,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -24363,7 +24360,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -24580,7 +24577,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -24618,7 +24615,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="118567983"/>
@@ -24697,7 +24694,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -24735,7 +24732,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="77115151"/>
@@ -24791,7 +24788,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -24828,7 +24825,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -42139,16 +42136,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>707465</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>494553</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>16933</xdr:rowOff>
+      <xdr:rowOff>185021</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>698998</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>147017</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>486086</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>79782</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -42175,16 +42172,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>714550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>46261</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>479226</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>79879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>727721</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>119358</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>492397</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>130564</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -42320,15 +42317,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>765528</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>186502</xdr:rowOff>
+      <xdr:colOff>754322</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>18413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>47038</xdr:colOff>
+      <xdr:colOff>35832</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>33617</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -42391,16 +42388,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>194983</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>40714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>93578</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>306490</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -43540,22 +43537,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>605720</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>151813</xdr:rowOff>
+      <xdr:colOff>468923</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>14653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>82315</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>29308</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>132762</xdr:rowOff>
+      <xdr:rowOff>186103</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A87568CC-5248-D54A-A561-A35CA321113A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7708B7E5-F468-4E13-A411-7C1AF617000D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -43578,8 +43575,190 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Tubos"/>
+      <sheetName val="1ª Parte (v)"/>
+      <sheetName val="Δy"/>
+      <sheetName val="2ª Parte (v)"/>
+      <sheetName val="p(T)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="3">
+          <cell r="D3" t="str">
+            <v>pH2O (mmHg)</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>0</v>
+          </cell>
+          <cell r="D4">
+            <v>4.58</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>5</v>
+          </cell>
+          <cell r="D5">
+            <v>6.54</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>10</v>
+          </cell>
+          <cell r="D6">
+            <v>9.2100000000000009</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>12</v>
+          </cell>
+          <cell r="D7">
+            <v>10.52</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>14</v>
+          </cell>
+          <cell r="D8">
+            <v>11.9</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>15</v>
+          </cell>
+          <cell r="D9">
+            <v>12.79</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>16</v>
+          </cell>
+          <cell r="D10">
+            <v>13.64</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>18</v>
+          </cell>
+          <cell r="D11">
+            <v>15.49</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>20</v>
+          </cell>
+          <cell r="D12">
+            <v>17.54</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>22</v>
+          </cell>
+          <cell r="D13">
+            <v>19.84</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>24</v>
+          </cell>
+          <cell r="D14">
+            <v>22.39</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>25</v>
+          </cell>
+          <cell r="D15">
+            <v>23.77</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>26</v>
+          </cell>
+          <cell r="D16">
+            <v>25.22</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>28</v>
+          </cell>
+          <cell r="D17">
+            <v>28.36</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18">
+            <v>30</v>
+          </cell>
+          <cell r="D18">
+            <v>31.83</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19">
+            <v>32.5</v>
+          </cell>
+          <cell r="D19">
+            <v>36.69</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20">
+            <v>35</v>
+          </cell>
+          <cell r="D20">
+            <v>42.18</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>37.5</v>
+          </cell>
+          <cell r="D21">
+            <v>48.37</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>40</v>
+          </cell>
+          <cell r="D22">
+            <v>55.33</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -43881,9 +44060,9 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="4.19921875" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -43935,7 +44114,7 @@
       </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="44">
@@ -43989,7 +44168,7 @@
       </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="69"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="44">
         <v>2</v>
       </c>
@@ -44041,7 +44220,7 @@
       </c>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="69"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="44">
         <v>3</v>
       </c>
@@ -44093,7 +44272,7 @@
       </c>
     </row>
     <row r="7" spans="2:17">
-      <c r="B7" s="69"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="44">
         <v>4</v>
       </c>
@@ -44145,7 +44324,7 @@
       </c>
     </row>
     <row r="8" spans="2:17">
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="70" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="44">
@@ -44199,7 +44378,7 @@
       </c>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="69"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="44">
         <v>6</v>
       </c>
@@ -44251,7 +44430,7 @@
       </c>
     </row>
     <row r="10" spans="2:17">
-      <c r="B10" s="69"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="44">
         <v>7</v>
       </c>
@@ -44303,7 +44482,7 @@
       </c>
     </row>
     <row r="11" spans="2:17">
-      <c r="B11" s="69"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="44">
         <v>8</v>
       </c>
@@ -44355,7 +44534,7 @@
       </c>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="69"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="44">
         <v>9</v>
       </c>
@@ -44420,24 +44599,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2906A8-5049-E942-8831-3A487B26A723}">
   <dimension ref="A2:AA131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView topLeftCell="N56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O57" sqref="O57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="5" width="10.69921875" style="1"/>
-    <col min="6" max="6" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="10.69921875" style="1"/>
-    <col min="12" max="12" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="20" width="10.69921875" style="1"/>
-    <col min="21" max="21" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.19921875" style="1" customWidth="1"/>
-    <col min="23" max="24" width="10.69921875" style="1"/>
+    <col min="3" max="5" width="10.75" style="1"/>
+    <col min="6" max="6" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.75" style="1"/>
+    <col min="12" max="12" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="20" width="10.75" style="1"/>
+    <col min="21" max="21" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.25" style="1" customWidth="1"/>
+    <col min="23" max="24" width="10.75" style="1"/>
     <col min="25" max="25" width="12.5" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.69921875" style="1"/>
+    <col min="26" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:27">
@@ -44469,7 +44648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:27" ht="16.2" thickBot="1">
+    <row r="3" spans="2:27" ht="16.5" thickBot="1">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -44505,13 +44684,13 @@
         <f>H3*10^-3</f>
         <v>2.1160340261914524E-5</v>
       </c>
-      <c r="T3" s="70">
+      <c r="T3" s="71">
         <v>1</v>
       </c>
-      <c r="U3" s="71"/>
-      <c r="V3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="73"/>
     </row>
-    <row r="4" spans="2:27" ht="16.2" thickBot="1">
+    <row r="4" spans="2:27" ht="16.5" thickBot="1">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -44544,10 +44723,10 @@
         <v>1.0524E-3</v>
       </c>
       <c r="J4" s="13">
-        <f>H4*10^-3</f>
+        <f t="shared" ref="J4:J11" si="3">H4*10^-3</f>
         <v>1.4696938456699081E-6</v>
       </c>
-      <c r="K4" s="80"/>
+      <c r="K4" s="69"/>
       <c r="S4" s="46" t="s">
         <v>21</v>
       </c>
@@ -44560,12 +44739,12 @@
       <c r="V4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="X4" s="73">
+      <c r="X4" s="74">
         <v>1</v>
       </c>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="76"/>
     </row>
     <row r="5" spans="2:27">
       <c r="B5" s="2">
@@ -44600,10 +44779,10 @@
         <v>1.0560000000000001E-3</v>
       </c>
       <c r="J5" s="13">
-        <f>H5*10^-3</f>
+        <f t="shared" si="3"/>
         <v>3.8987177379235894E-6</v>
       </c>
-      <c r="K5" s="80"/>
+      <c r="K5" s="69"/>
       <c r="R5" s="2"/>
       <c r="S5" s="47">
         <v>1</v>
@@ -44666,10 +44845,10 @@
         <v>1.0675999999999999E-3</v>
       </c>
       <c r="J6" s="13">
-        <f>H6*10^-3</f>
+        <f t="shared" si="3"/>
         <v>5.3254107822777466E-6</v>
       </c>
-      <c r="K6" s="80"/>
+      <c r="K6" s="69"/>
       <c r="S6" s="47">
         <v>2</v>
       </c>
@@ -44680,7 +44859,7 @@
         <v>4032.6000000000004</v>
       </c>
       <c r="V6" s="2">
-        <f t="shared" ref="V6:V8" si="3">U6-T6</f>
+        <f t="shared" ref="V6:V8" si="4">U6-T6</f>
         <v>17.600000000000364</v>
       </c>
       <c r="X6" s="45" t="s">
@@ -44696,7 +44875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:27" ht="16.2">
+    <row r="7" spans="2:27" ht="17.25">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -44729,10 +44908,10 @@
         <v>1.005E-3</v>
       </c>
       <c r="J7" s="13">
-        <f>H7*10^-3</f>
+        <f t="shared" si="3"/>
         <v>3.4785054261851976E-6</v>
       </c>
-      <c r="K7" s="80"/>
+      <c r="K7" s="69"/>
       <c r="S7" s="47">
         <v>3</v>
       </c>
@@ -44743,7 +44922,7 @@
         <v>6762.4000000000005</v>
       </c>
       <c r="V7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46.400000000000546</v>
       </c>
       <c r="X7" s="45" t="s">
@@ -44792,10 +44971,10 @@
         <v>1.0089999999999999E-3</v>
       </c>
       <c r="J8" s="13">
-        <f>H8*10^-3</f>
+        <f t="shared" si="3"/>
         <v>1.5165750888103334E-6</v>
       </c>
-      <c r="K8" s="80"/>
+      <c r="K8" s="69"/>
       <c r="S8" s="47">
         <v>4</v>
       </c>
@@ -44806,7 +44985,7 @@
         <v>9492.2000000000007</v>
       </c>
       <c r="V8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-36.799999999999272</v>
       </c>
       <c r="Y8" s="3"/>
@@ -44846,10 +45025,10 @@
         <v>1.0402E-3</v>
       </c>
       <c r="J9" s="13">
-        <f>H9*10^-3</f>
+        <f t="shared" si="3"/>
         <v>1.9849433241279158E-6</v>
       </c>
-      <c r="K9" s="80"/>
+      <c r="K9" s="69"/>
       <c r="X9" s="1" t="s">
         <v>88</v>
       </c>
@@ -44890,10 +45069,10 @@
         <v>1.0268E-3</v>
       </c>
       <c r="J10" s="13">
-        <f>H10*10^-3</f>
+        <f t="shared" si="3"/>
         <v>1.4551288602732073E-5</v>
       </c>
-      <c r="K10" s="80"/>
+      <c r="K10" s="69"/>
       <c r="Y10" s="35" t="s">
         <v>31</v>
       </c>
@@ -44935,22 +45114,20 @@
         <v>1.0395999999999999E-3</v>
       </c>
       <c r="J11" s="13">
-        <f>H11*10^-3</f>
+        <f t="shared" si="3"/>
         <v>1.6613247725836112E-6</v>
       </c>
-      <c r="K11" s="80"/>
+      <c r="K11" s="69"/>
     </row>
-    <row r="13" spans="2:27" ht="16.2" thickBot="1">
-      <c r="T13" s="70">
+    <row r="13" spans="2:27" ht="16.5" thickBot="1">
+      <c r="T13" s="71">
         <v>2</v>
       </c>
-      <c r="U13" s="71"/>
-      <c r="V13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="73"/>
     </row>
-    <row r="14" spans="2:27" ht="16.2" thickBot="1">
-      <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
+    <row r="14" spans="2:27" ht="18.75" thickBot="1">
+      <c r="B14" s="83"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -44960,6 +45137,12 @@
       <c r="E14" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="G14" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
       <c r="S14" s="46" t="s">
         <v>21</v>
       </c>
@@ -44972,27 +45155,27 @@
       <c r="V14" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="X14" s="73">
+      <c r="X14" s="74">
         <v>2</v>
       </c>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="74"/>
-      <c r="AA14" s="75"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="76"/>
     </row>
     <row r="15" spans="2:27">
-      <c r="B15" s="2">
-        <v>1</v>
+      <c r="B15" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C15" s="6">
-        <v>24</v>
+        <v>22.5</v>
       </c>
       <c r="D15" s="6">
-        <f>((7*10^-6)*(C15^4))-(0.0003*(C15^3))+(0.0305*(C15^2))+(0.055*C15)+5.226</f>
-        <v>22.289231999999998</v>
+        <f>((4*10^-6)*(C15^4))+(0.0001*(C15^3))+(0.0123*(C15^2))+(0.3219*C15)+4.5882</f>
+        <v>20.222043750000001</v>
       </c>
       <c r="E15" s="6">
-        <f>0.1*(4*7*10^-6*C15^3-3*0.0003*C15^2+2*0.0305*C15+0.055)</f>
-        <v>0.13876720000000001</v>
+        <f>0.1*(4*4*10^-6*C15^3-3*0.0001*C15^2+2*0.0123*C15+0.3219)</f>
+        <v>9.0577500000000005E-2</v>
       </c>
       <c r="S15" s="47">
         <v>1</v>
@@ -45005,7 +45188,7 @@
         <v>683.60714285714403</v>
       </c>
       <c r="V15" s="2">
-        <f t="shared" ref="V15:V21" si="4">U15-T15</f>
+        <f t="shared" ref="V15:V21" si="5">U15-T15</f>
         <v>-4.3928571428559735</v>
       </c>
       <c r="X15" s="48" t="s">
@@ -45023,20 +45206,10 @@
       </c>
     </row>
     <row r="16" spans="2:27">
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="6">
-        <v>24</v>
-      </c>
-      <c r="D16" s="6">
-        <f t="shared" ref="D16:D23" si="5">((7*10^-6)*(C16^4))-(0.0003*(C16^3))+(0.0305*(C16^2))+(0.055*C16)+5.226</f>
-        <v>22.289231999999998</v>
-      </c>
-      <c r="E16" s="6">
-        <f t="shared" ref="E16:E23" si="6">0.1*(4*7*10^-6*C16^3-3*0.0003*C16^2+2*0.0305*C16+0.055)</f>
-        <v>0.13876720000000001</v>
-      </c>
+      <c r="B16" s="82"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
       <c r="S16" s="47">
         <v>2</v>
       </c>
@@ -45047,7 +45220,7 @@
         <v>2092.5000000000009</v>
       </c>
       <c r="V16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-29.499999999999091</v>
       </c>
       <c r="X16" s="45" t="s">
@@ -45063,21 +45236,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:27" ht="16.2">
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
-      <c r="C17" s="6">
-        <v>24</v>
-      </c>
-      <c r="D17" s="6">
-        <f t="shared" si="5"/>
-        <v>22.289231999999998</v>
-      </c>
-      <c r="E17" s="6">
-        <f t="shared" si="6"/>
-        <v>0.13876720000000001</v>
-      </c>
+    <row r="17" spans="2:27" ht="17.25">
+      <c r="B17" s="82"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
       <c r="S17" s="47">
         <v>3</v>
       </c>
@@ -45088,7 +45251,7 @@
         <v>3501.3928571428578</v>
       </c>
       <c r="V17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.6071428571422075</v>
       </c>
       <c r="X17" s="45" t="s">
@@ -45105,20 +45268,10 @@
       </c>
     </row>
     <row r="18" spans="2:27">
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-      <c r="C18" s="6">
-        <v>24</v>
-      </c>
-      <c r="D18" s="6">
-        <f t="shared" si="5"/>
-        <v>22.289231999999998</v>
-      </c>
-      <c r="E18" s="6">
-        <f t="shared" si="6"/>
-        <v>0.13876720000000001</v>
-      </c>
+      <c r="B18" s="82"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
       <c r="S18" s="47">
         <v>4</v>
       </c>
@@ -45129,7 +45282,7 @@
         <v>4910.2857142857147</v>
       </c>
       <c r="V18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50.285714285714675</v>
       </c>
       <c r="Y18" s="3">
@@ -45140,20 +45293,10 @@
       </c>
     </row>
     <row r="19" spans="2:27">
-      <c r="B19" s="2">
-        <v>5</v>
-      </c>
-      <c r="C19" s="6">
-        <v>24</v>
-      </c>
-      <c r="D19" s="6">
-        <f t="shared" si="5"/>
-        <v>22.289231999999998</v>
-      </c>
-      <c r="E19" s="6">
-        <f t="shared" si="6"/>
-        <v>0.13876720000000001</v>
-      </c>
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
       <c r="S19" s="47">
         <v>5</v>
       </c>
@@ -45164,7 +45307,7 @@
         <v>6319.1785714285716</v>
       </c>
       <c r="V19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.178571428571558</v>
       </c>
       <c r="Y19" s="3">
@@ -45175,20 +45318,10 @@
       </c>
     </row>
     <row r="20" spans="2:27">
-      <c r="B20" s="2">
-        <v>6</v>
-      </c>
-      <c r="C20" s="6">
-        <v>24</v>
-      </c>
-      <c r="D20" s="6">
-        <f t="shared" si="5"/>
-        <v>22.289231999999998</v>
-      </c>
-      <c r="E20" s="6">
-        <f t="shared" si="6"/>
-        <v>0.13876720000000001</v>
-      </c>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
       <c r="S20" s="47">
         <v>6</v>
       </c>
@@ -45199,7 +45332,7 @@
         <v>7728.0714285714284</v>
       </c>
       <c r="V20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-14.928571428571558</v>
       </c>
       <c r="Y20" s="35" t="s">
@@ -45211,20 +45344,10 @@
       </c>
     </row>
     <row r="21" spans="2:27">
-      <c r="B21" s="2">
-        <v>7</v>
-      </c>
-      <c r="C21" s="6">
-        <v>24</v>
-      </c>
-      <c r="D21" s="6">
-        <f t="shared" si="5"/>
-        <v>22.289231999999998</v>
-      </c>
-      <c r="E21" s="6">
-        <f t="shared" si="6"/>
-        <v>0.13876720000000001</v>
-      </c>
+      <c r="B21" s="82"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
       <c r="S21" s="47">
         <v>7</v>
       </c>
@@ -45235,55 +45358,35 @@
         <v>9136.9642857142862</v>
       </c>
       <c r="V21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-22.035714285713766</v>
       </c>
     </row>
     <row r="22" spans="2:27">
-      <c r="B22" s="2">
-        <v>8</v>
-      </c>
-      <c r="C22" s="6">
-        <v>24</v>
-      </c>
-      <c r="D22" s="6">
-        <f t="shared" si="5"/>
-        <v>22.289231999999998</v>
-      </c>
-      <c r="E22" s="6">
-        <f t="shared" si="6"/>
-        <v>0.13876720000000001</v>
-      </c>
+      <c r="B22" s="82"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
     </row>
     <row r="23" spans="2:27">
-      <c r="B23" s="2">
-        <v>9</v>
-      </c>
-      <c r="C23" s="6">
-        <v>24</v>
-      </c>
-      <c r="D23" s="6">
-        <f t="shared" si="5"/>
-        <v>22.289231999999998</v>
-      </c>
-      <c r="E23" s="6">
-        <f t="shared" si="6"/>
-        <v>0.13876720000000001</v>
-      </c>
+      <c r="B23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
     </row>
     <row r="24" spans="2:27">
       <c r="C24" s="26"/>
     </row>
-    <row r="25" spans="2:27" ht="16.2" thickBot="1">
+    <row r="25" spans="2:27" ht="16.5" thickBot="1">
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
-      <c r="T25" s="70">
+      <c r="T25" s="71">
         <v>3</v>
       </c>
-      <c r="U25" s="71"/>
-      <c r="V25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="73"/>
     </row>
-    <row r="26" spans="2:27" ht="16.2" thickBot="1">
+    <row r="26" spans="2:27" ht="16.5" thickBot="1">
       <c r="S26" s="46" t="s">
         <v>21</v>
       </c>
@@ -45296,12 +45399,12 @@
       <c r="V26" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="X26" s="73">
+      <c r="X26" s="74">
         <v>3</v>
       </c>
-      <c r="Y26" s="74"/>
-      <c r="Z26" s="74"/>
-      <c r="AA26" s="75"/>
+      <c r="Y26" s="75"/>
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="76"/>
     </row>
     <row r="27" spans="2:27">
       <c r="S27" s="47">
@@ -45373,7 +45476,7 @@
         <v>1934.428571428572</v>
       </c>
       <c r="V28" s="2">
-        <f t="shared" ref="V28:V31" si="7">U28-T28</f>
+        <f t="shared" ref="V28:V31" si="6">U28-T28</f>
         <v>7.4285714285720132</v>
       </c>
       <c r="X28" s="45" t="s">
@@ -45389,13 +45492,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:27" ht="16.2">
+    <row r="29" spans="2:27" ht="17.25">
       <c r="B29" s="2">
         <v>1</v>
       </c>
       <c r="C29" s="15">
-        <f>331.4+0.607*(C15)+0.08*D15</f>
-        <v>347.75113855999996</v>
+        <f>331.4+0.607*(C$15)+0.08*D$15</f>
+        <v>346.67526350000003</v>
       </c>
       <c r="D29" s="15">
         <f>Y5*20*(E3+Δy!$AH$28)</f>
@@ -45410,8 +45513,8 @@
         <v>7.8612336354797432E-2</v>
       </c>
       <c r="G29" s="15">
-        <f>(C29-D29)/C29*100</f>
-        <v>4.7899147549392191</v>
+        <f t="shared" ref="G29:G37" si="7">(C29-D29)/C29*100</f>
+        <v>4.4944389394989628</v>
       </c>
       <c r="H29" s="15">
         <f>ABS(Z5)*40*(E3+Δy!$AH$28)</f>
@@ -45427,7 +45530,7 @@
       </c>
       <c r="K29" s="15">
         <f>ABS(H29-C29)/C29*100</f>
-        <v>0.45806165675018179</v>
+        <v>0.14914233032828603</v>
       </c>
       <c r="P29" s="25"/>
       <c r="Q29" s="25"/>
@@ -45442,7 +45545,7 @@
         <v>3227.6428571428578</v>
       </c>
       <c r="V29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4.6428571428577925</v>
       </c>
       <c r="X29" s="45" t="s">
@@ -45463,8 +45566,8 @@
         <v>2</v>
       </c>
       <c r="C30" s="15">
-        <f>331.4+0.607*(C16)+0.08*D16</f>
-        <v>347.75113855999996</v>
+        <f t="shared" ref="C30:C37" si="8">331.4+0.607*(C$15)+0.08*D$15</f>
+        <v>346.67526350000003</v>
       </c>
       <c r="D30" s="15">
         <f>Y15*20*(E4+Δy!$AH$28)</f>
@@ -45475,12 +45578,12 @@
         <v>0.13889014702189351</v>
       </c>
       <c r="F30" s="8">
-        <f t="shared" ref="F30:F37" si="8">E30/D30*100</f>
+        <f t="shared" ref="F30:F37" si="9">E30/D30*100</f>
         <v>4.0863495747189157E-2</v>
       </c>
       <c r="G30" s="15">
-        <f>(C30-D30)/C30*100</f>
-        <v>2.2611194348779633</v>
+        <f t="shared" si="7"/>
+        <v>1.9577957338134753</v>
       </c>
       <c r="H30" s="15">
         <f>ABS(Z15)*40*(E4+Δy!$AH$28)</f>
@@ -45491,12 +45594,12 @@
         <v>0.619860500145482</v>
       </c>
       <c r="J30" s="6">
-        <f t="shared" ref="J30" si="9">I30/H30*100</f>
+        <f t="shared" ref="J30" si="10">I30/H30*100</f>
         <v>0.17713194418819433</v>
       </c>
       <c r="K30" s="15">
-        <f t="shared" ref="K30:K37" si="10">ABS(H30-C30)/C30*100</f>
-        <v>0.63024089414153994</v>
+        <f t="shared" ref="K30:K37" si="11">ABS(H30-C30)/C30*100</f>
+        <v>0.94253766826598495</v>
       </c>
       <c r="P30" s="25"/>
       <c r="Q30" s="25"/>
@@ -45511,7 +45614,7 @@
         <v>4520.8571428571431</v>
       </c>
       <c r="V30" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-24.142857142856883</v>
       </c>
       <c r="Y30" s="3">
@@ -45526,8 +45629,8 @@
         <v>3</v>
       </c>
       <c r="C31" s="15">
-        <f t="shared" ref="C31:C37" si="11">331.4+0.607*(C17)+0.08*D17</f>
-        <v>347.75113855999996</v>
+        <f t="shared" si="8"/>
+        <v>346.67526350000003</v>
       </c>
       <c r="D31" s="15">
         <f>Y27*20*(E5+Δy!$AH$28)</f>
@@ -45542,8 +45645,8 @@
         <v>3.4897333737582581E-2</v>
       </c>
       <c r="G31" s="15">
-        <f>(C31-D31)/C31*100</f>
-        <v>3.2798641164117548</v>
+        <f t="shared" si="7"/>
+        <v>2.9797019965466411</v>
       </c>
       <c r="H31" s="15">
         <f>ABS(Z27)*40*(E5+Δy!$AH$28)</f>
@@ -45558,8 +45661,8 @@
         <v>0.15472657206944329</v>
       </c>
       <c r="K31" s="15">
-        <f t="shared" si="10"/>
-        <v>2.4731952117765887</v>
+        <f t="shared" si="11"/>
+        <v>2.1705296685422604</v>
       </c>
       <c r="P31" s="25"/>
       <c r="Q31" s="25"/>
@@ -45574,7 +45677,7 @@
         <v>5814.0714285714284</v>
       </c>
       <c r="V31" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-23.928571428571558</v>
       </c>
       <c r="Y31" s="3">
@@ -45589,8 +45692,8 @@
         <v>4</v>
       </c>
       <c r="C32" s="15">
-        <f t="shared" si="11"/>
-        <v>347.75113855999996</v>
+        <f t="shared" si="8"/>
+        <v>346.67526350000003</v>
       </c>
       <c r="D32" s="15">
         <f>Y41*20*(E6+Δy!$AH$28)</f>
@@ -45601,12 +45704,12 @@
         <v>7.6308095018623345E-2</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.2545355891328021E-2</v>
       </c>
       <c r="G32" s="15">
-        <f>(C32-D32)/C32*100</f>
-        <v>2.670396096727266</v>
+        <f t="shared" si="7"/>
+        <v>2.3683425484526772</v>
       </c>
       <c r="H32" s="15">
         <f>ABS(Z41)*40*(E6+Δy!$AH$28)</f>
@@ -45621,8 +45724,8 @@
         <v>0.10395324963401639</v>
       </c>
       <c r="K32" s="15">
-        <f t="shared" si="10"/>
-        <v>1.0443439367364793</v>
+        <f t="shared" si="11"/>
+        <v>1.3579258418832536</v>
       </c>
       <c r="P32" s="25"/>
       <c r="Q32" s="25"/>
@@ -45653,8 +45756,8 @@
         <v>5</v>
       </c>
       <c r="C33" s="15">
-        <f>331.4+0.607*(C19)+0.08*D19</f>
-        <v>347.75113855999996</v>
+        <f t="shared" si="8"/>
+        <v>346.67526350000003</v>
       </c>
       <c r="D33" s="15">
         <f>Y55*20*(E7+Δy!$AH$28)</f>
@@ -45665,12 +45768,12 @@
         <v>0.11466044294511965</v>
       </c>
       <c r="F33" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.3557548351370529E-2</v>
       </c>
       <c r="G33" s="15">
-        <f>(C33-D33)/C33*100</f>
-        <v>1.7449615407344969</v>
+        <f t="shared" si="7"/>
+        <v>1.4400359907243281</v>
       </c>
       <c r="H33" s="15">
         <f>ABS(Z55)*40*(E7+Δy!$AH$28)</f>
@@ -45685,8 +45788,8 @@
         <v>0.17318601652033663</v>
       </c>
       <c r="K33" s="15">
-        <f t="shared" si="10"/>
-        <v>8.5796138608715413</v>
+        <f t="shared" si="11"/>
+        <v>8.9165807889354323</v>
       </c>
       <c r="P33" s="25"/>
       <c r="Q33" s="25"/>
@@ -45710,8 +45813,8 @@
         <v>6</v>
       </c>
       <c r="C34" s="15">
-        <f t="shared" si="11"/>
-        <v>347.75113855999996</v>
+        <f t="shared" si="8"/>
+        <v>346.67526350000003</v>
       </c>
       <c r="D34" s="15">
         <f>Y70*20*(E8+Δy!$AH$28)</f>
@@ -45722,12 +45825,12 @@
         <v>0.16431388207873338</v>
       </c>
       <c r="F34" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.8533445098051999E-2</v>
       </c>
       <c r="G34" s="15">
-        <f>(C34-D34)/C34*100</f>
-        <v>2.6435845128113629</v>
+        <f t="shared" si="7"/>
+        <v>2.3414477572315775</v>
       </c>
       <c r="H34" s="15">
         <f>ABS(Z70)*40*(E8+Δy!$AH$28)</f>
@@ -45742,8 +45845,8 @@
         <v>0.33432762010597922</v>
       </c>
       <c r="K34" s="15">
-        <f t="shared" si="10"/>
-        <v>3.6328777990179506</v>
+        <f t="shared" si="11"/>
+        <v>3.9544929829059812</v>
       </c>
       <c r="P34" s="25"/>
       <c r="Q34" s="25"/>
@@ -45754,8 +45857,8 @@
         <v>7</v>
       </c>
       <c r="C35" s="15">
-        <f t="shared" si="11"/>
-        <v>347.75113855999996</v>
+        <f t="shared" si="8"/>
+        <v>346.67526350000003</v>
       </c>
       <c r="D35" s="15">
         <f>Y86*20*(E9+Δy!$AH$28)</f>
@@ -45766,12 +45869,12 @@
         <v>9.6533516088334437E-2</v>
       </c>
       <c r="F35" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.8565255703549747E-2</v>
       </c>
       <c r="G35" s="15">
-        <f>(C35-D35)/C35*100</f>
-        <v>2.8212186906624015</v>
+        <f t="shared" si="7"/>
+        <v>2.5196332065515521</v>
       </c>
       <c r="H35" s="15">
         <f>ABS(Z86)*40*(E9+Δy!$AH$28)</f>
@@ -45786,8 +45889,8 @@
         <v>0.1902178251428048</v>
       </c>
       <c r="K35" s="15">
-        <f t="shared" si="10"/>
-        <v>6.0576327685296443</v>
+        <f t="shared" si="11"/>
+        <v>6.3867729583035038</v>
       </c>
       <c r="P35" s="25"/>
       <c r="Q35" s="25"/>
@@ -45798,8 +45901,8 @@
         <v>8</v>
       </c>
       <c r="C36" s="15">
-        <f t="shared" si="11"/>
-        <v>347.75113855999996</v>
+        <f t="shared" si="8"/>
+        <v>346.67526350000003</v>
       </c>
       <c r="D36" s="15">
         <f>Y102*20*(E10+Δy!$AH$28)</f>
@@ -45810,12 +45913,12 @@
         <v>0.15434990149223951</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.540957775528754E-2</v>
       </c>
       <c r="G36" s="15">
-        <f>(C36-D36)/C36*100</f>
-        <v>2.2559494309939838</v>
+        <f t="shared" si="7"/>
+        <v>1.9526096852939978</v>
       </c>
       <c r="H36" s="15">
         <f>ABS(Z102)*40*(E10+Δy!$AH$28)</f>
@@ -45830,8 +45933,8 @@
         <v>0.33806484470233339</v>
       </c>
       <c r="K36" s="15">
-        <f t="shared" si="10"/>
-        <v>4.0166534333846506</v>
+        <f t="shared" si="11"/>
+        <v>4.3394596299497383</v>
       </c>
       <c r="P36" s="25"/>
       <c r="Q36" s="25"/>
@@ -45842,8 +45945,8 @@
         <v>9</v>
       </c>
       <c r="C37" s="15">
-        <f t="shared" si="11"/>
-        <v>347.75113855999996</v>
+        <f t="shared" si="8"/>
+        <v>346.67526350000003</v>
       </c>
       <c r="D37" s="15">
         <f>Y120*20*(E11+Δy!$AH$28)</f>
@@ -45854,12 +45957,12 @@
         <v>0.10690998318874874</v>
       </c>
       <c r="F37" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.1300053647617281E-2</v>
       </c>
       <c r="G37" s="15">
-        <f>(C37-D37)/C37*100</f>
-        <v>1.7789395381482185</v>
+        <f t="shared" si="7"/>
+        <v>1.4741194357538878</v>
       </c>
       <c r="H37" s="15">
         <f>ABS(Z120)*40*(E11+Δy!$AH$28)</f>
@@ -45874,8 +45977,8 @@
         <v>0.19406866855346042</v>
       </c>
       <c r="K37" s="15">
-        <f t="shared" si="10"/>
-        <v>4.2243883059163014</v>
+        <f t="shared" si="11"/>
+        <v>4.547839188710781</v>
       </c>
       <c r="P37" s="25"/>
       <c r="Q37" s="25"/>
@@ -45887,15 +45990,15 @@
       </c>
       <c r="C38" s="27">
         <f>AVERAGE(C32:C37)</f>
-        <v>347.75113856000002</v>
+        <v>346.67526350000003</v>
       </c>
       <c r="G38" s="27">
         <f>AVERAGE(G29:G37)</f>
-        <v>2.6939942351451851</v>
+        <v>2.392013921540789</v>
       </c>
       <c r="K38" s="27">
         <f>AVERAGE(K29:K37)</f>
-        <v>3.4574453185694307</v>
+        <v>3.6405867842028021</v>
       </c>
       <c r="N38" s="20"/>
       <c r="O38" s="27"/>
@@ -45903,19 +46006,19 @@
       <c r="Q38" s="25"/>
       <c r="R38" s="25"/>
     </row>
-    <row r="39" spans="2:27" ht="16.2" thickBot="1">
+    <row r="39" spans="2:27" ht="16.5" thickBot="1">
       <c r="M39" s="25"/>
       <c r="O39" s="20"/>
       <c r="P39" s="25"/>
       <c r="Q39" s="25"/>
       <c r="R39" s="25"/>
-      <c r="T39" s="70">
+      <c r="T39" s="71">
         <v>4</v>
       </c>
-      <c r="U39" s="71"/>
-      <c r="V39" s="72"/>
+      <c r="U39" s="72"/>
+      <c r="V39" s="73"/>
     </row>
-    <row r="40" spans="2:27" ht="16.2" thickBot="1">
+    <row r="40" spans="2:27" ht="16.5" thickBot="1">
       <c r="O40" s="20"/>
       <c r="P40" s="25"/>
       <c r="Q40" s="25"/>
@@ -45932,12 +46035,12 @@
       <c r="V40" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="X40" s="73">
+      <c r="X40" s="74">
         <v>4</v>
       </c>
-      <c r="Y40" s="74"/>
-      <c r="Z40" s="74"/>
-      <c r="AA40" s="75"/>
+      <c r="Y40" s="75"/>
+      <c r="Z40" s="75"/>
+      <c r="AA40" s="76"/>
     </row>
     <row r="41" spans="2:27">
       <c r="O41" s="20"/>
@@ -46005,13 +46108,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:27" ht="18.600000000000001">
+    <row r="43" spans="2:27" ht="19.5">
       <c r="B43" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="37">
         <f>C38</f>
-        <v>347.75113856000002</v>
+        <v>346.67526350000003</v>
       </c>
       <c r="O43" s="20"/>
       <c r="P43" s="25"/>
@@ -46043,14 +46146,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="2:27" ht="18.600000000000001">
-      <c r="B44" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="37" t="e">
-        <f>AVERAGE(#REF!)</f>
-        <v>#REF!</v>
-      </c>
+    <row r="44" spans="2:27">
       <c r="O44" s="20"/>
       <c r="P44" s="25"/>
       <c r="Q44" s="25"/>
@@ -46077,14 +46173,7 @@
       </c>
       <c r="AA44" s="3"/>
     </row>
-    <row r="45" spans="2:27" ht="18.600000000000001">
-      <c r="B45" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="37" t="e">
-        <f>C44/C43*100</f>
-        <v>#REF!</v>
-      </c>
+    <row r="45" spans="2:27">
       <c r="O45" s="20"/>
       <c r="P45" s="25"/>
       <c r="Q45" s="25"/>
@@ -46139,7 +46228,7 @@
         <v>35.693447889245455</v>
       </c>
     </row>
-    <row r="47" spans="2:27" ht="18.600000000000001">
+    <row r="47" spans="2:27" ht="19.5">
       <c r="B47" s="35" t="s">
         <v>44</v>
       </c>
@@ -46165,7 +46254,7 @@
         <v>-10.188888888889778</v>
       </c>
     </row>
-    <row r="48" spans="2:27" ht="18.600000000000001">
+    <row r="48" spans="2:27" ht="19.5">
       <c r="B48" s="35" t="s">
         <v>45</v>
       </c>
@@ -46191,7 +46280,7 @@
         <v>6.1611111111105856</v>
       </c>
     </row>
-    <row r="49" spans="2:27" ht="18.600000000000001">
+    <row r="49" spans="2:27" ht="19.5">
       <c r="B49" s="35" t="s">
         <v>46</v>
       </c>
@@ -46227,17 +46316,17 @@
       </c>
       <c r="C51" s="38">
         <f>(C43-C47)/C43*100</f>
-        <v>2.6939942351452228</v>
+        <v>2.3920139215408107</v>
       </c>
     </row>
-    <row r="53" spans="2:27" ht="16.2" thickBot="1">
-      <c r="T53" s="70">
+    <row r="53" spans="2:27" ht="16.5" thickBot="1">
+      <c r="T53" s="71">
         <v>5</v>
       </c>
-      <c r="U53" s="71"/>
-      <c r="V53" s="72"/>
+      <c r="U53" s="72"/>
+      <c r="V53" s="73"/>
     </row>
-    <row r="54" spans="2:27" ht="16.2" thickBot="1">
+    <row r="54" spans="2:27" ht="16.5" thickBot="1">
       <c r="S54" s="46" t="s">
         <v>21</v>
       </c>
@@ -46250,12 +46339,12 @@
       <c r="V54" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="X54" s="73">
+      <c r="X54" s="74">
         <v>5</v>
       </c>
-      <c r="Y54" s="74"/>
-      <c r="Z54" s="74"/>
-      <c r="AA54" s="75"/>
+      <c r="Y54" s="75"/>
+      <c r="Z54" s="75"/>
+      <c r="AA54" s="76"/>
     </row>
     <row r="55" spans="2:27">
       <c r="S55" s="47">
@@ -46297,7 +46386,7 @@
         <v>1652.8242424242412</v>
       </c>
       <c r="V56" s="2">
-        <f t="shared" ref="V56:V59" si="14">U56-T56</f>
+        <f>U56-T56</f>
         <v>-14.17575757575878</v>
       </c>
       <c r="X56" s="45" t="s">
@@ -46313,7 +46402,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="2:27" ht="16.2">
+    <row r="57" spans="2:27" ht="17.25">
       <c r="S57" s="47">
         <v>3</v>
       </c>
@@ -46324,7 +46413,7 @@
         <v>2794.7030303030297</v>
       </c>
       <c r="V57" s="2">
-        <f t="shared" si="14"/>
+        <f>U57-T57</f>
         <v>16.703030303029664</v>
       </c>
       <c r="X57" s="45" t="s">
@@ -46351,7 +46440,7 @@
         <v>3936.5818181818177</v>
       </c>
       <c r="V58" s="2">
-        <f t="shared" si="14"/>
+        <f>U58-T58</f>
         <v>20.581818181817653</v>
       </c>
       <c r="X58" s="3"/>
@@ -46374,7 +46463,7 @@
         <v>5078.4606060606056</v>
       </c>
       <c r="V59" s="2">
-        <f t="shared" si="14"/>
+        <f>U59-T59</f>
         <v>61.460606060605642</v>
       </c>
       <c r="X59" s="3"/>
@@ -46468,14 +46557,14 @@
         <v>0.85454545454558684</v>
       </c>
     </row>
-    <row r="68" spans="19:27" ht="16.2" thickBot="1">
-      <c r="T68" s="70">
+    <row r="68" spans="19:27" ht="16.5" thickBot="1">
+      <c r="T68" s="71">
         <v>6</v>
       </c>
-      <c r="U68" s="71"/>
-      <c r="V68" s="72"/>
+      <c r="U68" s="72"/>
+      <c r="V68" s="73"/>
     </row>
-    <row r="69" spans="19:27" ht="16.2" thickBot="1">
+    <row r="69" spans="19:27" ht="16.5" thickBot="1">
       <c r="S69" s="46" t="s">
         <v>21</v>
       </c>
@@ -46488,12 +46577,12 @@
       <c r="V69" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="X69" s="73">
+      <c r="X69" s="74">
         <v>6</v>
       </c>
-      <c r="Y69" s="74"/>
-      <c r="Z69" s="74"/>
-      <c r="AA69" s="75"/>
+      <c r="Y69" s="75"/>
+      <c r="Z69" s="75"/>
+      <c r="AA69" s="76"/>
     </row>
     <row r="70" spans="19:27">
       <c r="S70" s="47">
@@ -46535,7 +46624,7 @@
         <v>1462.1048951048945</v>
       </c>
       <c r="V71" s="9">
-        <f t="shared" ref="V71:V81" si="15">U71-T71</f>
+        <f t="shared" ref="V71:V81" si="14">U71-T71</f>
         <v>19.104895104894467</v>
       </c>
       <c r="X71" s="45" t="s">
@@ -46551,7 +46640,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="19:27" ht="16.2">
+    <row r="72" spans="19:27" ht="17.25">
       <c r="S72" s="47">
         <v>3</v>
       </c>
@@ -46562,7 +46651,7 @@
         <v>2458.2482517482513</v>
       </c>
       <c r="V72" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-18.751748251748722</v>
       </c>
       <c r="X72" s="45" t="s">
@@ -46589,7 +46678,7 @@
         <v>3454.3916083916079</v>
       </c>
       <c r="V73" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-15.608391608392139</v>
       </c>
       <c r="X73" s="3"/>
@@ -46612,7 +46701,7 @@
         <v>4450.5349650349644</v>
       </c>
       <c r="V74" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>12.534965034964443</v>
       </c>
       <c r="X74" s="3"/>
@@ -46635,7 +46724,7 @@
         <v>5446.6783216783215</v>
       </c>
       <c r="V75" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>23.678321678321481</v>
       </c>
       <c r="Y75" s="35" t="s">
@@ -46657,7 +46746,7 @@
         <v>6442.8216783216776</v>
       </c>
       <c r="V76" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-10.178321678322391</v>
       </c>
     </row>
@@ -46672,7 +46761,7 @@
         <v>7438.9650349650346</v>
       </c>
       <c r="V77" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>146.96503496503465</v>
       </c>
     </row>
@@ -46687,7 +46776,7 @@
         <v>8435.1083916083917</v>
       </c>
       <c r="V78" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-45.891608391608315</v>
       </c>
     </row>
@@ -46702,7 +46791,7 @@
         <v>9431.2517482517469</v>
       </c>
       <c r="V79" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-77.748251748253097</v>
       </c>
     </row>
@@ -46717,7 +46806,7 @@
         <v>10427.395104895106</v>
       </c>
       <c r="V80" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-18.60489510489424</v>
       </c>
     </row>
@@ -46735,18 +46824,18 @@
         <v>11423.538461538461</v>
       </c>
       <c r="V81" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.538461538460979</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="16.2" thickBot="1">
-      <c r="T84" s="70">
+    <row r="84" spans="1:27" ht="16.5" thickBot="1">
+      <c r="T84" s="71">
         <v>7</v>
       </c>
-      <c r="U84" s="71"/>
-      <c r="V84" s="72"/>
+      <c r="U84" s="72"/>
+      <c r="V84" s="73"/>
     </row>
-    <row r="85" spans="1:27" ht="16.95" customHeight="1" thickBot="1">
+    <row r="85" spans="1:27" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="C85" s="28"/>
       <c r="D85" s="29"/>
       <c r="E85" s="29"/>
@@ -46764,12 +46853,12 @@
       <c r="V85" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="X85" s="73">
+      <c r="X85" s="74">
         <v>7</v>
       </c>
-      <c r="Y85" s="74"/>
-      <c r="Z85" s="74"/>
-      <c r="AA85" s="75"/>
+      <c r="Y85" s="75"/>
+      <c r="Z85" s="75"/>
+      <c r="AA85" s="76"/>
     </row>
     <row r="86" spans="1:27">
       <c r="C86" s="29"/>
@@ -46831,7 +46920,7 @@
         <v>1365.3951048951042</v>
       </c>
       <c r="V87" s="2">
-        <f t="shared" ref="V87:V97" si="16">U87-T87</f>
+        <f t="shared" ref="V87:V97" si="15">U87-T87</f>
         <v>-10.604895104895832</v>
       </c>
       <c r="X87" s="45" t="s">
@@ -46847,7 +46936,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="16.2">
+    <row r="88" spans="1:27" ht="17.25">
       <c r="C88" s="29"/>
       <c r="D88" s="29"/>
       <c r="E88" s="29"/>
@@ -46868,7 +46957,7 @@
         <v>2304.2517482517478</v>
       </c>
       <c r="V88" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-19.748251748252187</v>
       </c>
       <c r="X88" s="45" t="s">
@@ -46905,7 +46994,7 @@
         <v>3243.1083916083912</v>
       </c>
       <c r="V89" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-25.89160839160877</v>
       </c>
       <c r="X89" s="3"/>
@@ -46937,7 +47026,7 @@
         <v>4181.9650349650346</v>
       </c>
       <c r="V90" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-17.034965034965353</v>
       </c>
       <c r="X90" s="3"/>
@@ -46969,7 +47058,7 @@
         <v>5120.8216783216785</v>
       </c>
       <c r="V91" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-18.178321678321481</v>
       </c>
       <c r="Y91" s="35" t="s">
@@ -47001,7 +47090,7 @@
         <v>6059.6783216783215</v>
       </c>
       <c r="V92" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-6.3216783216785188</v>
       </c>
     </row>
@@ -47026,7 +47115,7 @@
         <v>6998.5349650349654</v>
       </c>
       <c r="V93" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-1.465034965034647</v>
       </c>
     </row>
@@ -47051,7 +47140,7 @@
         <v>7937.3916083916092</v>
       </c>
       <c r="V94" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-31.608391608390775</v>
       </c>
     </row>
@@ -47076,7 +47165,7 @@
         <v>8876.2482517482531</v>
       </c>
       <c r="V95" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>10.248251748253097</v>
       </c>
     </row>
@@ -47101,7 +47190,7 @@
         <v>9815.1048951048942</v>
       </c>
       <c r="V96" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>44.10489510489424</v>
       </c>
     </row>
@@ -47116,18 +47205,18 @@
         <v>10753.961538461539</v>
       </c>
       <c r="V97" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>4.9615384615390212</v>
       </c>
     </row>
-    <row r="100" spans="19:27" ht="16.2" thickBot="1">
-      <c r="T100" s="70">
+    <row r="100" spans="19:27" ht="16.5" thickBot="1">
+      <c r="T100" s="71">
         <v>8</v>
       </c>
-      <c r="U100" s="71"/>
-      <c r="V100" s="72"/>
+      <c r="U100" s="72"/>
+      <c r="V100" s="73"/>
     </row>
-    <row r="101" spans="19:27" ht="16.2" thickBot="1">
+    <row r="101" spans="19:27" ht="16.5" thickBot="1">
       <c r="S101" s="46" t="s">
         <v>21</v>
       </c>
@@ -47140,12 +47229,12 @@
       <c r="V101" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="X101" s="73">
+      <c r="X101" s="74">
         <v>8</v>
       </c>
-      <c r="Y101" s="74"/>
-      <c r="Z101" s="74"/>
-      <c r="AA101" s="75"/>
+      <c r="Y101" s="75"/>
+      <c r="Z101" s="75"/>
+      <c r="AA101" s="76"/>
     </row>
     <row r="102" spans="19:27">
       <c r="S102" s="47">
@@ -47187,7 +47276,7 @@
         <v>1133.4967032967033</v>
       </c>
       <c r="V103" s="13">
-        <f t="shared" ref="V103:V114" si="17">U103-T103</f>
+        <f t="shared" ref="V103:V114" si="16">U103-T103</f>
         <v>-15.503296703296655</v>
       </c>
       <c r="X103" s="45" t="s">
@@ -47203,7 +47292,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="19:27" ht="16.2">
+    <row r="104" spans="19:27" ht="17.25">
       <c r="S104" s="47">
         <v>3</v>
       </c>
@@ -47214,7 +47303,7 @@
         <v>1905.679120879121</v>
       </c>
       <c r="V104" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-24.320879120878999</v>
       </c>
       <c r="X104" s="45" t="s">
@@ -47241,7 +47330,7 @@
         <v>2677.8615384615387</v>
       </c>
       <c r="V105" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-19.138461538461343</v>
       </c>
       <c r="Y105" s="3">
@@ -47262,7 +47351,7 @@
         <v>3450.0439560439563</v>
       </c>
       <c r="V106" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-25.956043956043686</v>
       </c>
       <c r="Y106" s="3">
@@ -47283,7 +47372,7 @@
         <v>4222.226373626374</v>
       </c>
       <c r="V107" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>6.2263736263739702</v>
       </c>
       <c r="Y107" s="35" t="s">
@@ -47305,7 +47394,7 @@
         <v>4994.4087912087916</v>
       </c>
       <c r="V108" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-28.591208791208373</v>
       </c>
     </row>
@@ -47320,7 +47409,7 @@
         <v>5766.5912087912093</v>
       </c>
       <c r="V109" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-46.408791208790717</v>
       </c>
     </row>
@@ -47335,7 +47424,7 @@
         <v>6538.7736263736269</v>
       </c>
       <c r="V110" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-54.226373626373061</v>
       </c>
     </row>
@@ -47350,7 +47439,7 @@
         <v>7310.9560439560446</v>
       </c>
       <c r="V111" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43.956043956044596</v>
       </c>
     </row>
@@ -47365,7 +47454,7 @@
         <v>8083.1384615384613</v>
       </c>
       <c r="V112" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.1384615384613426</v>
       </c>
     </row>
@@ -47380,7 +47469,7 @@
         <v>8855.3208791208799</v>
       </c>
       <c r="V113" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>100.32087912087991</v>
       </c>
     </row>
@@ -47395,7 +47484,7 @@
         <v>9627.5032967032985</v>
       </c>
       <c r="V114" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-17.496703296701526</v>
       </c>
     </row>
@@ -47414,14 +47503,14 @@
         <v>-14.314285714284779</v>
       </c>
     </row>
-    <row r="118" spans="19:27" ht="16.2" thickBot="1">
-      <c r="T118" s="70">
+    <row r="118" spans="19:27" ht="16.5" thickBot="1">
+      <c r="T118" s="71">
         <v>9</v>
       </c>
-      <c r="U118" s="71"/>
-      <c r="V118" s="72"/>
+      <c r="U118" s="72"/>
+      <c r="V118" s="73"/>
     </row>
-    <row r="119" spans="19:27" ht="16.2" thickBot="1">
+    <row r="119" spans="19:27" ht="16.5" thickBot="1">
       <c r="S119" s="46" t="s">
         <v>21</v>
       </c>
@@ -47434,12 +47523,12 @@
       <c r="V119" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="X119" s="73">
+      <c r="X119" s="74">
         <v>9</v>
       </c>
-      <c r="Y119" s="74"/>
-      <c r="Z119" s="74"/>
-      <c r="AA119" s="75"/>
+      <c r="Y119" s="75"/>
+      <c r="Z119" s="75"/>
+      <c r="AA119" s="76"/>
     </row>
     <row r="120" spans="19:27">
       <c r="S120" s="47">
@@ -47481,7 +47570,7 @@
         <v>961.97435897435753</v>
       </c>
       <c r="V121" s="16">
-        <f t="shared" ref="V121:V131" si="18">U121-T121</f>
+        <f t="shared" ref="V121:V131" si="17">U121-T121</f>
         <v>-2.0256410256424715</v>
       </c>
       <c r="X121" s="45" t="s">
@@ -47497,7 +47586,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="122" spans="19:27" ht="16.2">
+    <row r="122" spans="19:27" ht="17.25">
       <c r="S122" s="47">
         <v>3</v>
       </c>
@@ -47508,7 +47597,7 @@
         <v>1616.6282051282039</v>
       </c>
       <c r="V122" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0.6282051282039447</v>
       </c>
       <c r="X122" s="45" t="s">
@@ -47535,7 +47624,7 @@
         <v>2271.2820512820504</v>
       </c>
       <c r="V123" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-0.7179487179496391</v>
       </c>
       <c r="Y123" s="3">
@@ -47556,7 +47645,7 @@
         <v>2925.935897435897</v>
       </c>
       <c r="V124" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-1.0641025641029955</v>
       </c>
       <c r="Y124" s="3">
@@ -47577,7 +47666,7 @@
         <v>3580.5897435897432</v>
       </c>
       <c r="V125" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>5.5897435897431933</v>
       </c>
       <c r="Y125" s="35" t="s">
@@ -47599,7 +47688,7 @@
         <v>4235.2435897435898</v>
       </c>
       <c r="V126" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-0.75641025641016313</v>
       </c>
     </row>
@@ -47614,7 +47703,7 @@
         <v>4889.8974358974356</v>
       </c>
       <c r="V127" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>11.897435897435571</v>
       </c>
     </row>
@@ -47629,7 +47718,7 @@
         <v>5544.5512820512831</v>
       </c>
       <c r="V128" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-43.448717948716876</v>
       </c>
     </row>
@@ -47644,7 +47733,7 @@
         <v>6199.2051282051289</v>
       </c>
       <c r="V129" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>50.205128205128858</v>
       </c>
     </row>
@@ -47659,7 +47748,7 @@
         <v>6853.8589743589746</v>
       </c>
       <c r="V130" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-12.141025641025408</v>
       </c>
     </row>
@@ -47674,17 +47763,13 @@
         <v>7508.5128205128221</v>
       </c>
       <c r="V131" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-7.4871794871778548</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="T100:V100"/>
-    <mergeCell ref="X101:AA101"/>
-    <mergeCell ref="X119:AA119"/>
-    <mergeCell ref="T118:V118"/>
-    <mergeCell ref="X69:AA69"/>
+  <mergeCells count="19">
+    <mergeCell ref="G14:J14"/>
     <mergeCell ref="T68:V68"/>
     <mergeCell ref="T84:V84"/>
     <mergeCell ref="X85:AA85"/>
@@ -47698,6 +47783,11 @@
     <mergeCell ref="T25:V25"/>
     <mergeCell ref="X26:AA26"/>
     <mergeCell ref="T39:V39"/>
+    <mergeCell ref="T100:V100"/>
+    <mergeCell ref="X101:AA101"/>
+    <mergeCell ref="X119:AA119"/>
+    <mergeCell ref="T118:V118"/>
+    <mergeCell ref="X69:AA69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -47708,27 +47798,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2EB435-0004-B043-8C95-CD169F9CCD22}">
   <dimension ref="B1:AO104"/>
   <sheetViews>
-    <sheetView topLeftCell="W14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+    <sheetView topLeftCell="W12" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="8" width="10.69921875" style="1"/>
-    <col min="9" max="10" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.19921875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.69921875" style="1"/>
+    <col min="1" max="8" width="10.75" style="1"/>
+    <col min="9" max="10" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.75" style="1"/>
     <col min="14" max="14" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.69921875" style="1"/>
-    <col min="17" max="17" width="13.69921875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="29" width="10.69921875" style="1"/>
-    <col min="30" max="30" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="10.69921875" style="1"/>
-    <col min="33" max="40" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.19921875" style="1" customWidth="1"/>
-    <col min="42" max="16384" width="10.69921875" style="1"/>
+    <col min="15" max="16" width="10.75" style="1"/>
+    <col min="17" max="17" width="13.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="29" width="10.75" style="1"/>
+    <col min="30" max="30" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="10.75" style="1"/>
+    <col min="33" max="40" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.25" style="1" customWidth="1"/>
+    <col min="42" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:41">
@@ -47828,17 +47918,17 @@
       <c r="C3" s="49">
         <v>4</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="78"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="80"/>
       <c r="AA3" s="1" t="s">
         <v>49</v>
       </c>
@@ -47882,7 +47972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:41" ht="16.2">
+    <row r="4" spans="2:41" ht="17.25">
       <c r="B4" s="51" t="s">
         <v>21</v>
       </c>
@@ -48148,7 +48238,7 @@
         <v>1.7483093533739674E-6</v>
       </c>
     </row>
-    <row r="7" spans="2:41" ht="16.2">
+    <row r="7" spans="2:41" ht="17.25">
       <c r="B7" s="52">
         <v>3</v>
       </c>
@@ -48424,20 +48514,20 @@
         <f>'1ª Parte (v)'!T49</f>
         <v>10229</v>
       </c>
-      <c r="F13" s="76" t="s">
+      <c r="F13" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="78"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="80"/>
       <c r="AG13" s="64"/>
     </row>
-    <row r="14" spans="2:41" ht="16.2">
+    <row r="14" spans="2:41" ht="17.25">
       <c r="F14" s="45" t="s">
         <v>0</v>
       </c>
@@ -48566,7 +48656,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:40" ht="16.2">
+    <row r="17" spans="2:40" ht="17.25">
       <c r="F17" s="2">
         <v>6</v>
       </c>
@@ -48779,19 +48869,19 @@
         <f>'1ª Parte (v)'!T57</f>
         <v>2778</v>
       </c>
-      <c r="F23" s="76" t="s">
+      <c r="F23" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="78"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="80"/>
     </row>
-    <row r="24" spans="2:40" ht="16.2">
+    <row r="24" spans="2:40" ht="17.25">
       <c r="B24" s="52">
         <v>4</v>
       </c>
@@ -48884,7 +48974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="2:40" ht="18.600000000000001">
+    <row r="26" spans="2:40" ht="19.5">
       <c r="B26" s="52">
         <v>6</v>
       </c>
@@ -48947,7 +49037,7 @@
         <v>3.1456683333333339E-4</v>
       </c>
     </row>
-    <row r="27" spans="2:40" ht="18.600000000000001">
+    <row r="27" spans="2:40" ht="19.5">
       <c r="B27" s="52">
         <v>7</v>
       </c>
@@ -49010,7 +49100,7 @@
         <v>2.2614963320775019E-6</v>
       </c>
     </row>
-    <row r="28" spans="2:40" ht="18.600000000000001">
+    <row r="28" spans="2:40" ht="19.5">
       <c r="B28" s="52">
         <v>8</v>
       </c>
@@ -49133,7 +49223,7 @@
         <v>5.0869929962763203E-7</v>
       </c>
     </row>
-    <row r="30" spans="2:40" ht="18.600000000000001">
+    <row r="30" spans="2:40" ht="19.5">
       <c r="B30" s="52">
         <v>19</v>
       </c>
@@ -49195,15 +49285,8 @@
         <f>AH29/AH28*100</f>
         <v>-7.7543291746068626</v>
       </c>
-      <c r="AJ30" s="79" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK30" s="79"/>
-      <c r="AL30" s="79"/>
-      <c r="AM30" s="79"/>
-      <c r="AN30" s="79"/>
     </row>
-    <row r="31" spans="2:40" ht="18.600000000000001">
+    <row r="31" spans="2:40" ht="19.5">
       <c r="B31" s="23"/>
       <c r="AC31" s="35" t="s">
         <v>67</v>
@@ -49219,8 +49302,15 @@
         <f>(AH28-AB3)/AB3*100</f>
         <v>-102.08547014129741</v>
       </c>
+      <c r="AJ31" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK31" s="77"/>
+      <c r="AL31" s="77"/>
+      <c r="AM31" s="77"/>
+      <c r="AN31" s="77"/>
     </row>
-    <row r="32" spans="2:40" ht="18.600000000000001">
+    <row r="32" spans="2:40" ht="19.5">
       <c r="AC32" s="35" t="s">
         <v>68</v>
       </c>
@@ -49230,17 +49320,17 @@
       </c>
     </row>
     <row r="33" spans="2:30">
-      <c r="F33" s="76" t="s">
+      <c r="F33" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="78"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="80"/>
       <c r="AC33" s="35" t="s">
         <v>39</v>
       </c>
@@ -49249,7 +49339,7 @@
         <v>-102.08547014129741</v>
       </c>
     </row>
-    <row r="34" spans="2:30" ht="16.2">
+    <row r="34" spans="2:30" ht="17.25">
       <c r="F34" s="45" t="s">
         <v>0</v>
       </c>
@@ -49377,7 +49467,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:30" ht="16.2">
+    <row r="37" spans="2:30" ht="17.25">
       <c r="C37" s="49">
         <v>6</v>
       </c>
@@ -49601,19 +49691,19 @@
         <f>'1ª Parte (v)'!T74</f>
         <v>4438</v>
       </c>
-      <c r="F43" s="76" t="s">
+      <c r="F43" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="78"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="79"/>
+      <c r="M43" s="79"/>
+      <c r="N43" s="80"/>
     </row>
-    <row r="44" spans="2:30" ht="16.2">
+    <row r="44" spans="2:30" ht="17.25">
       <c r="B44" s="52">
         <v>6</v>
       </c>
@@ -49762,7 +49852,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="2:30" ht="16.2">
+    <row r="47" spans="2:30" ht="17.25">
       <c r="B47" s="52">
         <v>9</v>
       </c>
@@ -49969,19 +50059,19 @@
       <c r="R51" s="3"/>
     </row>
     <row r="53" spans="2:19">
-      <c r="F53" s="76" t="s">
+      <c r="F53" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
-      <c r="K53" s="77"/>
-      <c r="L53" s="77"/>
-      <c r="M53" s="77"/>
-      <c r="N53" s="78"/>
+      <c r="G53" s="79"/>
+      <c r="H53" s="79"/>
+      <c r="I53" s="79"/>
+      <c r="J53" s="79"/>
+      <c r="K53" s="79"/>
+      <c r="L53" s="79"/>
+      <c r="M53" s="79"/>
+      <c r="N53" s="80"/>
     </row>
-    <row r="54" spans="2:19" ht="16.2">
+    <row r="54" spans="2:19" ht="17.25">
       <c r="F54" s="45" t="s">
         <v>0</v>
       </c>
@@ -50112,7 +50202,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="2:19" ht="16.2">
+    <row r="57" spans="2:19" ht="17.25">
       <c r="B57" s="51" t="s">
         <v>21</v>
       </c>
@@ -50341,19 +50431,19 @@
         <f>'1ª Parte (v)'!T91</f>
         <v>5139</v>
       </c>
-      <c r="F63" s="76" t="s">
+      <c r="F63" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="G63" s="77"/>
-      <c r="H63" s="77"/>
-      <c r="I63" s="77"/>
-      <c r="J63" s="77"/>
-      <c r="K63" s="77"/>
-      <c r="L63" s="77"/>
-      <c r="M63" s="77"/>
-      <c r="N63" s="78"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="79"/>
+      <c r="I63" s="79"/>
+      <c r="J63" s="79"/>
+      <c r="K63" s="79"/>
+      <c r="L63" s="79"/>
+      <c r="M63" s="79"/>
+      <c r="N63" s="80"/>
     </row>
-    <row r="64" spans="2:19" ht="16.2">
+    <row r="64" spans="2:19" ht="17.25">
       <c r="B64" s="52">
         <v>7</v>
       </c>
@@ -50502,7 +50592,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="2:19" ht="16.2">
+    <row r="67" spans="2:19" ht="17.25">
       <c r="B67" s="52">
         <v>10</v>
       </c>
@@ -50698,19 +50788,19 @@
       </c>
     </row>
     <row r="73" spans="2:19">
-      <c r="F73" s="76" t="s">
+      <c r="F73" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="G73" s="77"/>
-      <c r="H73" s="77"/>
-      <c r="I73" s="77"/>
-      <c r="J73" s="77"/>
-      <c r="K73" s="77"/>
-      <c r="L73" s="77"/>
-      <c r="M73" s="77"/>
-      <c r="N73" s="78"/>
+      <c r="G73" s="79"/>
+      <c r="H73" s="79"/>
+      <c r="I73" s="79"/>
+      <c r="J73" s="79"/>
+      <c r="K73" s="79"/>
+      <c r="L73" s="79"/>
+      <c r="M73" s="79"/>
+      <c r="N73" s="80"/>
     </row>
-    <row r="74" spans="2:19" ht="16.2">
+    <row r="74" spans="2:19" ht="17.25">
       <c r="C74" s="50">
         <v>8</v>
       </c>
@@ -50853,7 +50943,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="2:19" ht="16.2">
+    <row r="77" spans="2:19" ht="17.25">
       <c r="B77" s="52">
         <v>2</v>
       </c>
@@ -51083,19 +51173,19 @@
         <f>'1ª Parte (v)'!T109</f>
         <v>5813</v>
       </c>
-      <c r="F83" s="76" t="s">
+      <c r="F83" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="G83" s="77"/>
-      <c r="H83" s="77"/>
-      <c r="I83" s="77"/>
-      <c r="J83" s="77"/>
-      <c r="K83" s="77"/>
-      <c r="L83" s="77"/>
-      <c r="M83" s="77"/>
-      <c r="N83" s="78"/>
+      <c r="G83" s="79"/>
+      <c r="H83" s="79"/>
+      <c r="I83" s="79"/>
+      <c r="J83" s="79"/>
+      <c r="K83" s="79"/>
+      <c r="L83" s="79"/>
+      <c r="M83" s="79"/>
+      <c r="N83" s="80"/>
     </row>
-    <row r="84" spans="2:19" ht="16.2">
+    <row r="84" spans="2:19" ht="17.25">
       <c r="B84" s="52">
         <v>9</v>
       </c>
@@ -51244,7 +51334,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="2:19" ht="16.2">
+    <row r="87" spans="2:19" ht="17.25">
       <c r="B87" s="52">
         <v>12</v>
       </c>
@@ -51554,7 +51644,7 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="AJ30:AN30"/>
+    <mergeCell ref="AJ31:AN31"/>
     <mergeCell ref="F3:N3"/>
     <mergeCell ref="F13:N13"/>
     <mergeCell ref="F23:N23"/>
@@ -51575,22 +51665,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4873D1-7BCE-4848-9EB5-DA2BAAC563F9}">
   <dimension ref="B2:X49"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="D11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" style="1"/>
-    <col min="6" max="6" width="13.19921875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.69921875" style="1"/>
+    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="1"/>
+    <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
+    <col min="7" max="11" width="10.75" style="1"/>
+    <col min="12" max="12" width="16.75" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:12" ht="18">
       <c r="I2" s="45" t="s">
         <v>75</v>
       </c>
@@ -51615,12 +51707,12 @@
       <c r="K3" s="2">
         <v>0.1</v>
       </c>
-      <c r="L3" s="6">
-        <f>0.1*(4*7*10^-6*J3^3-3*0.0003*J3^2+2*0.0305*J3+0.055)</f>
-        <v>0.12908125000000001</v>
+      <c r="L3" s="13">
+        <f>0.1*(4*4*10^-6*C15^3-3*0.0001*C15^2+2*0.0123*C15+0.3219)</f>
+        <v>3.2190000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="18.600000000000001">
+    <row r="6" spans="2:12" ht="19.5">
       <c r="B6" s="35" t="s">
         <v>41</v>
       </c>
@@ -51629,13 +51721,13 @@
         <v>345.06549999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="18.600000000000001">
+    <row r="7" spans="2:12" ht="19.5">
       <c r="B7" s="35" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="37">
         <f>SQRT((0.607*0.1)^2+(0.08*L3)^2)</f>
-        <v>6.1572125204917207E-2</v>
+        <v>6.0754601924792498E-2</v>
       </c>
       <c r="I7" s="62" t="s">
         <v>21</v>
@@ -51650,13 +51742,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="18.600000000000001">
+    <row r="8" spans="2:12" ht="19.5">
       <c r="B8" s="35" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="37">
         <f>C7/C6*100</f>
-        <v>1.7843605114077534E-2</v>
+        <v>1.7606686824615182E-2</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
@@ -51691,7 +51783,7 @@
         <v>-1.378711484591804</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="17.399999999999999">
+    <row r="10" spans="2:12" ht="18">
       <c r="B10" s="35" t="s">
         <v>81</v>
       </c>
@@ -51715,7 +51807,7 @@
         <v>-1.5193277310906979</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="17.399999999999999">
+    <row r="11" spans="2:12" ht="18">
       <c r="B11" s="35" t="s">
         <v>82</v>
       </c>
@@ -52017,7 +52109,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="9:24" ht="16.2">
+    <row r="27" spans="9:24" ht="17.25">
       <c r="I27" s="2">
         <v>20</v>
       </c>
@@ -52424,15 +52516,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F300B8D-6736-FF40-9ACF-76D3E9489959}">
-  <dimension ref="C3:D24"/>
+  <dimension ref="C3:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="3" spans="3:4">
+    <row r="3" spans="3:4" ht="18">
       <c r="C3" s="45" t="s">
         <v>76</v>
       </c>
@@ -52444,127 +52536,153 @@
       <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>4.58</v>
+      </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" s="2">
         <v>5</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>6.54</v>
+      </c>
     </row>
     <row r="6" spans="3:4">
       <c r="C6" s="2">
         <v>10</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>9.2100000000000009</v>
+      </c>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" s="2">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10.52</v>
+      </c>
     </row>
     <row r="8" spans="3:4">
       <c r="C8" s="2">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="D8" s="2">
+        <v>11.9</v>
+      </c>
     </row>
     <row r="9" spans="3:4">
       <c r="C9" s="2">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="D9" s="2">
+        <v>12.79</v>
+      </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" s="2">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="D10" s="2">
+        <v>13.64</v>
+      </c>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="2">
-        <v>35</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="D11" s="2">
+        <v>15.49</v>
+      </c>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" s="2">
-        <v>40</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="D12" s="2">
+        <v>17.54</v>
+      </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="2">
-        <v>45</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="D13" s="2">
+        <v>19.84</v>
+      </c>
     </row>
     <row r="14" spans="3:4">
       <c r="C14" s="2">
-        <v>50</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="D14" s="2">
+        <v>22.39</v>
+      </c>
     </row>
     <row r="15" spans="3:4">
       <c r="C15" s="2">
-        <v>55</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="D15" s="2">
+        <v>23.77</v>
+      </c>
     </row>
     <row r="16" spans="3:4">
       <c r="C16" s="2">
-        <v>60</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="D16" s="2">
+        <v>25.22</v>
+      </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" s="2">
-        <v>65</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="D17" s="2">
+        <v>28.36</v>
+      </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" s="2">
-        <v>70</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="D18" s="2">
+        <v>31.83</v>
+      </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" s="2">
-        <v>75</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>32.5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>36.69</v>
+      </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" s="2">
-        <v>80</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="D20" s="2">
+        <v>42.18</v>
+      </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" s="2">
-        <v>85</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>37.5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>48.37</v>
+      </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" s="2">
-        <v>90</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="2">
-        <v>95</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="2">
-        <v>100</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="D22" s="2">
+        <v>55.33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
